--- a/Datos1.xlsx
+++ b/Datos1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EliezerMendoza\Documents\MiApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AB5F787-2E6C-447B-BC28-F52D5D007291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFAFD9A-18F5-4C6A-9F14-BDB02C80DE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8CFD075-B776-4772-AF84-4FE19285905C}"/>
   </bookViews>
@@ -177,9 +177,6 @@
     <t>PROMEDIO  TRIMESTRAL</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
     <t>Erick Atencio</t>
   </si>
   <si>
@@ -568,13 +565,16 @@
   </si>
   <si>
     <t>Cristy Tugri</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -586,6 +586,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -682,15 +688,15 @@
       <sheetName val="HISTBOL"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1016,8 +1022,8 @@
   <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:AS116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1207,22 +1213,22 @@
         <v>2025</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="6">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6">
+        <v>45749</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="E2" s="6">
-        <v>5</v>
-      </c>
-      <c r="F2" s="6">
-        <v>45749</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="W2" s="6">
         <v>5</v>
@@ -1234,7 +1240,7 @@
         <v>45742</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AA2" s="6">
         <v>4.5</v>
@@ -1243,7 +1249,7 @@
         <v>45768</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AP2" s="6">
         <v>4.45</v>
@@ -1258,40 +1264,40 @@
         <v>2025</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="6">
+        <v>4</v>
+      </c>
+      <c r="F3" s="6">
+        <v>45749</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="6">
-        <v>4</v>
-      </c>
-      <c r="F3" s="6">
-        <v>45749</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="W3" s="6">
+        <v>4</v>
+      </c>
+      <c r="X3" s="6">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>45742</v>
+      </c>
+      <c r="Z3" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="W3" s="6">
-        <v>4</v>
-      </c>
-      <c r="X3" s="6">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="6">
-        <v>45742</v>
-      </c>
-      <c r="Z3" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="AB3" s="6">
         <v>45768</v>
       </c>
       <c r="AC3" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AP3" s="6">
         <v>4</v>
@@ -1306,22 +1312,22 @@
         <v>2025</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="6">
+        <v>5</v>
+      </c>
+      <c r="F4" s="6">
+        <v>45749</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="E4" s="6">
-        <v>5</v>
-      </c>
-      <c r="F4" s="6">
-        <v>45749</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="W4" s="6">
         <v>5</v>
@@ -1333,7 +1339,7 @@
         <v>45742</v>
       </c>
       <c r="Z4" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AA4" s="6">
         <v>4.0999999999999996</v>
@@ -1342,7 +1348,7 @@
         <v>45768</v>
       </c>
       <c r="AC4" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AP4" s="6">
         <v>3.45</v>
@@ -1357,13 +1363,13 @@
         <v>2025</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="6">
         <v>4.2</v>
@@ -1372,7 +1378,7 @@
         <v>45749</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W5" s="6">
         <v>4.2</v>
@@ -1384,13 +1390,13 @@
         <v>45742</v>
       </c>
       <c r="Z5" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB5" s="6">
         <v>45768</v>
       </c>
       <c r="AC5" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AP5" s="6">
         <v>4</v>
@@ -1405,13 +1411,13 @@
         <v>2025</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="6">
         <v>4.4000000000000004</v>
@@ -1420,7 +1426,7 @@
         <v>45749</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W6" s="6">
         <v>4.4000000000000004</v>
@@ -1432,7 +1438,7 @@
         <v>45742</v>
       </c>
       <c r="Z6" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AA6" s="6">
         <v>4.5</v>
@@ -1441,7 +1447,7 @@
         <v>45768</v>
       </c>
       <c r="AC6" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AP6" s="6">
         <v>4.55</v>
@@ -1456,31 +1462,31 @@
         <v>2025</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="6">
+        <v>45749</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="6">
-        <v>45749</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="Y7" s="6">
+        <v>45742</v>
+      </c>
+      <c r="Z7" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="Y7" s="6">
-        <v>45742</v>
-      </c>
-      <c r="Z7" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="AB7" s="6">
         <v>45768</v>
       </c>
       <c r="AC7" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AS7" s="7"/>
     </row>
@@ -1489,22 +1495,22 @@
         <v>2025</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="6">
+        <v>5</v>
+      </c>
+      <c r="F8" s="6">
+        <v>45749</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="E8" s="6">
-        <v>5</v>
-      </c>
-      <c r="F8" s="6">
-        <v>45749</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="W8" s="6">
         <v>5</v>
@@ -1516,7 +1522,7 @@
         <v>45742</v>
       </c>
       <c r="Z8" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AA8" s="6">
         <v>4.0999999999999996</v>
@@ -1525,7 +1531,7 @@
         <v>45768</v>
       </c>
       <c r="AC8" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AP8" s="6">
         <v>4.3499999999999996</v>
@@ -1540,34 +1546,34 @@
         <v>2025</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="6">
+        <v>5</v>
+      </c>
+      <c r="F9" s="6">
+        <v>45749</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="6">
-        <v>5</v>
-      </c>
-      <c r="F9" s="6">
-        <v>45749</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="W9" s="6">
+        <v>5</v>
+      </c>
+      <c r="X9" s="6">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>45742</v>
+      </c>
+      <c r="Z9" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="W9" s="6">
-        <v>5</v>
-      </c>
-      <c r="X9" s="6">
-        <v>4</v>
-      </c>
-      <c r="Y9" s="6">
-        <v>45742</v>
-      </c>
-      <c r="Z9" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="AA9" s="6">
         <v>4.5</v>
@@ -1576,7 +1582,7 @@
         <v>45768</v>
       </c>
       <c r="AC9" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AP9" s="6">
         <v>4.25</v>
@@ -1591,13 +1597,13 @@
         <v>2025</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" s="6">
         <v>4.2</v>
@@ -1606,7 +1612,7 @@
         <v>45749</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W10" s="6">
         <v>4.2</v>
@@ -1618,7 +1624,7 @@
         <v>45742</v>
       </c>
       <c r="Z10" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AA10" s="6">
         <v>1</v>
@@ -1627,7 +1633,7 @@
         <v>45768</v>
       </c>
       <c r="AC10" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AP10" s="6">
         <v>2.7</v>
@@ -1642,22 +1648,22 @@
         <v>2025</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="6">
+        <v>5</v>
+      </c>
+      <c r="F11" s="6">
+        <v>45749</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="E11" s="6">
-        <v>5</v>
-      </c>
-      <c r="F11" s="6">
-        <v>45749</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="W11" s="6">
         <v>5</v>
@@ -1669,7 +1675,7 @@
         <v>45742</v>
       </c>
       <c r="Z11" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AA11" s="6">
         <v>1</v>
@@ -1678,7 +1684,7 @@
         <v>45768</v>
       </c>
       <c r="AC11" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AP11" s="6">
         <v>2.8</v>
@@ -1693,22 +1699,22 @@
         <v>2025</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="6">
+        <v>5</v>
+      </c>
+      <c r="F12" s="6">
+        <v>45749</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="E12" s="6">
-        <v>5</v>
-      </c>
-      <c r="F12" s="6">
-        <v>45749</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="W12" s="6">
         <v>5</v>
@@ -1720,7 +1726,7 @@
         <v>45742</v>
       </c>
       <c r="Z12" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AA12" s="6">
         <v>4.5</v>
@@ -1729,7 +1735,7 @@
         <v>45768</v>
       </c>
       <c r="AC12" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AP12" s="6">
         <v>4.45</v>
@@ -1744,31 +1750,31 @@
         <v>2025</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="6">
+        <v>45749</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="6">
-        <v>45749</v>
-      </c>
-      <c r="G13" s="6" t="s">
+      <c r="Y13" s="6">
+        <v>45742</v>
+      </c>
+      <c r="Z13" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="Y13" s="6">
-        <v>45742</v>
-      </c>
-      <c r="Z13" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="AB13" s="6">
         <v>45768</v>
       </c>
       <c r="AC13" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AS13" s="7"/>
     </row>
@@ -1777,22 +1783,22 @@
         <v>2025</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="6">
+        <v>5</v>
+      </c>
+      <c r="F14" s="6">
+        <v>45749</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="E14" s="6">
-        <v>5</v>
-      </c>
-      <c r="F14" s="6">
-        <v>45749</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="W14" s="6">
         <v>5</v>
@@ -1804,7 +1810,7 @@
         <v>45742</v>
       </c>
       <c r="Z14" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AA14" s="6">
         <v>1</v>
@@ -1813,7 +1819,7 @@
         <v>45768</v>
       </c>
       <c r="AC14" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AP14" s="6">
         <v>2.7</v>
@@ -1828,13 +1834,13 @@
         <v>2025</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" s="6">
         <v>4.4000000000000004</v>
@@ -1843,7 +1849,7 @@
         <v>45749</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W15" s="6">
         <v>4.4000000000000004</v>
@@ -1852,7 +1858,7 @@
         <v>45742</v>
       </c>
       <c r="Z15" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AA15" s="6">
         <v>4.5</v>
@@ -1861,7 +1867,7 @@
         <v>45768</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AP15" s="6">
         <v>4.5</v>
@@ -1876,13 +1882,13 @@
         <v>2025</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" s="6">
         <v>4.5999999999999996</v>
@@ -1891,7 +1897,7 @@
         <v>45749</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W16" s="6">
         <v>4.5999999999999996</v>
@@ -1900,7 +1906,7 @@
         <v>45742</v>
       </c>
       <c r="Z16" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AA16" s="6">
         <v>1</v>
@@ -1909,7 +1915,7 @@
         <v>45768</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AP16" s="6">
         <v>1</v>
@@ -1924,31 +1930,31 @@
         <v>2025</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="6">
+        <v>45749</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="6">
-        <v>45749</v>
-      </c>
-      <c r="G17" s="6" t="s">
+      <c r="Y17" s="6">
+        <v>45742</v>
+      </c>
+      <c r="Z17" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="Y17" s="6">
-        <v>45742</v>
-      </c>
-      <c r="Z17" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="AB17" s="6">
         <v>45768</v>
       </c>
       <c r="AC17" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AS17" s="7"/>
     </row>
@@ -1957,13 +1963,13 @@
         <v>2025</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18" s="6">
         <v>4.2</v>
@@ -1972,7 +1978,7 @@
         <v>45749</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W18" s="6">
         <v>4.2</v>
@@ -1984,7 +1990,7 @@
         <v>45742</v>
       </c>
       <c r="Z18" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AA18" s="6">
         <v>4.5</v>
@@ -1993,7 +1999,7 @@
         <v>45768</v>
       </c>
       <c r="AC18" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AP18" s="6">
         <v>4.55</v>
@@ -2008,22 +2014,22 @@
         <v>2025</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="6">
+        <v>4</v>
+      </c>
+      <c r="F19" s="6">
+        <v>45749</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="E19" s="6">
-        <v>4</v>
-      </c>
-      <c r="F19" s="6">
-        <v>45749</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="H19" s="6">
         <v>1</v>
@@ -2032,7 +2038,7 @@
         <v>45769</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W19" s="6">
         <v>2.5</v>
@@ -2044,7 +2050,7 @@
         <v>45742</v>
       </c>
       <c r="Z19" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP19" s="6">
         <v>3.6</v>
@@ -2059,13 +2065,13 @@
         <v>2025</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" s="6">
         <v>1</v>
@@ -2074,7 +2080,7 @@
         <v>45749</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H20" s="6">
         <v>1</v>
@@ -2083,7 +2089,7 @@
         <v>45769</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W20" s="6">
         <v>1</v>
@@ -2095,7 +2101,7 @@
         <v>45742</v>
       </c>
       <c r="Z20" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP20" s="6">
         <v>3.6</v>
@@ -2110,28 +2116,28 @@
         <v>2025</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="6">
+        <v>5</v>
+      </c>
+      <c r="F21" s="6">
+        <v>45749</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="E21" s="6">
-        <v>5</v>
-      </c>
-      <c r="F21" s="6">
-        <v>45749</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="I21" s="6">
         <v>45769</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W21" s="6">
         <v>5</v>
@@ -2143,7 +2149,7 @@
         <v>45742</v>
       </c>
       <c r="Z21" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP21" s="6">
         <v>3</v>
@@ -2158,28 +2164,28 @@
         <v>2025</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="6">
+        <v>4</v>
+      </c>
+      <c r="F22" s="6">
+        <v>45749</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="E22" s="6">
-        <v>4</v>
-      </c>
-      <c r="F22" s="6">
-        <v>45749</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="I22" s="6">
         <v>45769</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W22" s="6">
         <v>4</v>
@@ -2191,7 +2197,7 @@
         <v>45742</v>
       </c>
       <c r="Z22" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP22" s="6">
         <v>3.4</v>
@@ -2206,13 +2212,13 @@
         <v>2025</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E23" s="6">
         <v>4.4000000000000004</v>
@@ -2221,7 +2227,7 @@
         <v>45749</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H23" s="6">
         <v>1</v>
@@ -2230,7 +2236,7 @@
         <v>45769</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W23" s="6">
         <v>2.7</v>
@@ -2242,7 +2248,7 @@
         <v>45742</v>
       </c>
       <c r="Z23" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP23" s="6">
         <v>3.4</v>
@@ -2257,28 +2263,28 @@
         <v>2025</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="6">
+        <v>5</v>
+      </c>
+      <c r="F24" s="6">
+        <v>45749</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="E24" s="6">
-        <v>5</v>
-      </c>
-      <c r="F24" s="6">
-        <v>45749</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="I24" s="6">
         <v>45769</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W24" s="6">
         <v>5</v>
@@ -2290,7 +2296,7 @@
         <v>45742</v>
       </c>
       <c r="Z24" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP24" s="6">
         <v>3</v>
@@ -2305,28 +2311,28 @@
         <v>2025</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="6">
+        <v>5</v>
+      </c>
+      <c r="F25" s="6">
+        <v>45749</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="E25" s="6">
-        <v>5</v>
-      </c>
-      <c r="F25" s="6">
-        <v>45749</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="I25" s="6">
         <v>45769</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W25" s="6">
         <v>5</v>
@@ -2338,7 +2344,7 @@
         <v>45742</v>
       </c>
       <c r="Z25" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP25" s="6">
         <v>4.5999999999999996</v>
@@ -2353,28 +2359,28 @@
         <v>2025</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="6">
+        <v>5</v>
+      </c>
+      <c r="F26" s="6">
+        <v>45749</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="E26" s="6">
-        <v>5</v>
-      </c>
-      <c r="F26" s="6">
-        <v>45749</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="I26" s="6">
         <v>45769</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W26" s="6">
         <v>5</v>
@@ -2386,7 +2392,7 @@
         <v>45742</v>
       </c>
       <c r="Z26" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP26" s="6">
         <v>4.5999999999999996</v>
@@ -2401,28 +2407,28 @@
         <v>2025</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D27" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="6">
+        <v>5</v>
+      </c>
+      <c r="F27" s="6">
+        <v>45749</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="E27" s="6">
-        <v>5</v>
-      </c>
-      <c r="F27" s="6">
-        <v>45749</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="I27" s="6">
         <v>45769</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W27" s="6">
         <v>5</v>
@@ -2434,7 +2440,7 @@
         <v>45742</v>
       </c>
       <c r="Z27" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP27" s="6">
         <v>3.6</v>
@@ -2449,28 +2455,28 @@
         <v>2025</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="6">
+        <v>5</v>
+      </c>
+      <c r="F28" s="6">
+        <v>45749</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="E28" s="6">
-        <v>5</v>
-      </c>
-      <c r="F28" s="6">
-        <v>45749</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="I28" s="6">
         <v>45769</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W28" s="6">
         <v>5</v>
@@ -2482,7 +2488,7 @@
         <v>45742</v>
       </c>
       <c r="Z28" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP28" s="6">
         <v>4.5999999999999996</v>
@@ -2497,13 +2503,13 @@
         <v>2025</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E29" s="6">
         <v>4.5999999999999996</v>
@@ -2512,7 +2518,7 @@
         <v>45749</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H29" s="6">
         <v>1</v>
@@ -2521,7 +2527,7 @@
         <v>45769</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W29" s="6">
         <v>2.8</v>
@@ -2533,7 +2539,7 @@
         <v>45742</v>
       </c>
       <c r="Z29" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP29" s="6">
         <v>3.4</v>
@@ -2548,13 +2554,13 @@
         <v>2025</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E30" s="6">
         <v>4.4000000000000004</v>
@@ -2563,7 +2569,7 @@
         <v>45749</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H30" s="6">
         <v>1</v>
@@ -2572,7 +2578,7 @@
         <v>45769</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W30" s="6">
         <v>2.7</v>
@@ -2584,7 +2590,7 @@
         <v>45742</v>
       </c>
       <c r="Z30" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP30" s="6">
         <v>3.6</v>
@@ -2599,13 +2605,13 @@
         <v>2025</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E31" s="6">
         <v>4.5999999999999996</v>
@@ -2614,7 +2620,7 @@
         <v>45749</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H31" s="6">
         <v>1</v>
@@ -2623,7 +2629,7 @@
         <v>45769</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W31" s="6">
         <v>2.8</v>
@@ -2635,7 +2641,7 @@
         <v>45742</v>
       </c>
       <c r="Z31" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP31" s="6">
         <v>3.4</v>
@@ -2650,28 +2656,28 @@
         <v>2025</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="6">
+        <v>5</v>
+      </c>
+      <c r="F32" s="6">
+        <v>45749</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="E32" s="6">
-        <v>5</v>
-      </c>
-      <c r="F32" s="6">
-        <v>45749</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="I32" s="6">
         <v>45769</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W32" s="6">
         <v>5</v>
@@ -2683,7 +2689,7 @@
         <v>45742</v>
       </c>
       <c r="Z32" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP32" s="6">
         <v>4.5999999999999996</v>
@@ -2698,13 +2704,13 @@
         <v>2025</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E33" s="6">
         <v>4.5999999999999996</v>
@@ -2713,13 +2719,13 @@
         <v>45749</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I33" s="6">
         <v>45769</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W33" s="6">
         <v>4.5999999999999996</v>
@@ -2728,7 +2734,7 @@
         <v>45742</v>
       </c>
       <c r="Z33" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AR33" s="6">
         <v>4.5999999999999996</v>
@@ -2740,13 +2746,13 @@
         <v>2025</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E34" s="6">
         <v>4.2</v>
@@ -2755,13 +2761,13 @@
         <v>45749</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I34" s="6">
         <v>45769</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W34" s="6">
         <v>4.2</v>
@@ -2773,7 +2779,7 @@
         <v>45742</v>
       </c>
       <c r="Z34" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP34" s="6">
         <v>3</v>
@@ -2788,13 +2794,13 @@
         <v>2025</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E35" s="6">
         <v>4.4000000000000004</v>
@@ -2803,7 +2809,7 @@
         <v>45749</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H35" s="6">
         <v>1</v>
@@ -2812,7 +2818,7 @@
         <v>45769</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W35" s="6">
         <v>2.7</v>
@@ -2821,7 +2827,7 @@
         <v>45742</v>
       </c>
       <c r="Z35" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AR35" s="6">
         <v>2.7</v>
@@ -2833,28 +2839,28 @@
         <v>2025</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D36" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="6">
+        <v>5</v>
+      </c>
+      <c r="F36" s="6">
+        <v>45749</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="E36" s="6">
-        <v>5</v>
-      </c>
-      <c r="F36" s="6">
-        <v>45749</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="I36" s="6">
         <v>45769</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W36" s="6">
         <v>5</v>
@@ -2866,7 +2872,7 @@
         <v>45742</v>
       </c>
       <c r="Z36" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP36" s="6">
         <v>4.5999999999999996</v>
@@ -2881,13 +2887,13 @@
         <v>2025</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E37" s="6">
         <v>4.5</v>
@@ -2896,13 +2902,13 @@
         <v>45749</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I37" s="6">
         <v>45769</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W37" s="6">
         <v>4.5</v>
@@ -2914,7 +2920,7 @@
         <v>45742</v>
       </c>
       <c r="Z37" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP37" s="6">
         <v>3.4</v>
@@ -2929,13 +2935,13 @@
         <v>2025</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C38" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="E38" s="6">
         <v>3.4</v>
@@ -2944,13 +2950,13 @@
         <v>45749</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I38" s="6">
         <v>45762</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W38" s="6">
         <v>3.4</v>
@@ -2962,7 +2968,7 @@
         <v>45742</v>
       </c>
       <c r="Z38" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP38" s="6">
         <v>3</v>
@@ -2977,13 +2983,13 @@
         <v>2025</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E39" s="6">
         <v>4</v>
@@ -2992,7 +2998,7 @@
         <v>45749</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H39" s="6">
         <v>4.0999999999999996</v>
@@ -3001,7 +3007,7 @@
         <v>45762</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W39" s="6">
         <v>4.05</v>
@@ -3013,7 +3019,7 @@
         <v>45742</v>
       </c>
       <c r="Z39" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP39" s="6">
         <v>4</v>
@@ -3028,13 +3034,13 @@
         <v>2025</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E40" s="6">
         <v>1</v>
@@ -3043,13 +3049,13 @@
         <v>45749</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I40" s="6">
         <v>45762</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W40" s="6">
         <v>1</v>
@@ -3061,7 +3067,7 @@
         <v>45742</v>
       </c>
       <c r="Z40" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP40" s="6">
         <v>4</v>
@@ -3076,13 +3082,13 @@
         <v>2025</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E41" s="6">
         <v>4</v>
@@ -3091,7 +3097,7 @@
         <v>45749</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H41" s="6">
         <v>5</v>
@@ -3100,7 +3106,7 @@
         <v>45762</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W41" s="6">
         <v>4.5</v>
@@ -3112,7 +3118,7 @@
         <v>45742</v>
       </c>
       <c r="Z41" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP41" s="6">
         <v>4</v>
@@ -3127,13 +3133,13 @@
         <v>2025</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E42" s="6">
         <v>4</v>
@@ -3142,7 +3148,7 @@
         <v>45749</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H42" s="6">
         <v>5</v>
@@ -3151,7 +3157,7 @@
         <v>45762</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W42" s="6">
         <v>4.5</v>
@@ -3163,7 +3169,7 @@
         <v>45742</v>
       </c>
       <c r="Z42" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP42" s="6">
         <v>4</v>
@@ -3178,13 +3184,13 @@
         <v>2025</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E43" s="6">
         <v>3</v>
@@ -3193,13 +3199,13 @@
         <v>45749</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I43" s="6">
         <v>45762</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W43" s="6">
         <v>3</v>
@@ -3211,7 +3217,7 @@
         <v>45742</v>
       </c>
       <c r="Z43" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP43" s="6">
         <v>4</v>
@@ -3226,13 +3232,13 @@
         <v>2025</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E44" s="6">
         <v>3</v>
@@ -3241,13 +3247,13 @@
         <v>45749</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I44" s="6">
         <v>45762</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W44" s="6">
         <v>3</v>
@@ -3259,7 +3265,7 @@
         <v>45742</v>
       </c>
       <c r="Z44" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP44" s="6">
         <v>4</v>
@@ -3274,13 +3280,13 @@
         <v>2025</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E45" s="6">
         <v>1</v>
@@ -3289,7 +3295,7 @@
         <v>45749</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H45" s="6">
         <v>4.0999999999999996</v>
@@ -3298,7 +3304,7 @@
         <v>45762</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W45" s="6">
         <v>2.5499999999999998</v>
@@ -3310,7 +3316,7 @@
         <v>45742</v>
       </c>
       <c r="Z45" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP45" s="6">
         <v>4</v>
@@ -3325,13 +3331,13 @@
         <v>2025</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E46" s="6">
         <v>5</v>
@@ -3340,7 +3346,7 @@
         <v>45749</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H46" s="6">
         <v>5</v>
@@ -3349,19 +3355,19 @@
         <v>45762</v>
       </c>
       <c r="J46" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="W46" s="6">
+        <v>5</v>
+      </c>
+      <c r="X46" s="6">
+        <v>4</v>
+      </c>
+      <c r="Y46" s="6">
+        <v>45742</v>
+      </c>
+      <c r="Z46" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="W46" s="6">
-        <v>5</v>
-      </c>
-      <c r="X46" s="6">
-        <v>4</v>
-      </c>
-      <c r="Y46" s="6">
-        <v>45742</v>
-      </c>
-      <c r="Z46" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AP46" s="6">
         <v>4</v>
@@ -3375,13 +3381,13 @@
         <v>2025</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E47" s="6">
         <v>4</v>
@@ -3390,7 +3396,7 @@
         <v>45749</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H47" s="6">
         <v>5</v>
@@ -3399,7 +3405,7 @@
         <v>45762</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W47" s="6">
         <v>4.5</v>
@@ -3411,7 +3417,7 @@
         <v>45742</v>
       </c>
       <c r="Z47" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP47" s="6">
         <v>4</v>
@@ -3425,13 +3431,13 @@
         <v>2025</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E48" s="6">
         <v>4.2</v>
@@ -3440,7 +3446,7 @@
         <v>45749</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H48" s="6">
         <v>5</v>
@@ -3449,7 +3455,7 @@
         <v>45762</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W48" s="6">
         <v>4.5999999999999996</v>
@@ -3461,7 +3467,7 @@
         <v>45742</v>
       </c>
       <c r="Z48" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP48" s="6">
         <v>3</v>
@@ -3475,25 +3481,25 @@
         <v>2025</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F49" s="6">
         <v>45749</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I49" s="6">
         <v>45762</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="X49" s="6">
         <v>2.4</v>
@@ -3502,7 +3508,7 @@
         <v>45742</v>
       </c>
       <c r="Z49" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP49" s="6">
         <v>2.4</v>
@@ -3516,13 +3522,13 @@
         <v>2025</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E50" s="6">
         <v>4</v>
@@ -3531,13 +3537,13 @@
         <v>45749</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I50" s="6">
         <v>45762</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W50" s="6">
         <v>4</v>
@@ -3549,7 +3555,7 @@
         <v>45742</v>
       </c>
       <c r="Z50" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP50" s="6">
         <v>2.8</v>
@@ -3563,13 +3569,13 @@
         <v>2025</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E51" s="6">
         <v>4.4000000000000004</v>
@@ -3578,7 +3584,7 @@
         <v>45749</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H51" s="6">
         <v>4.5</v>
@@ -3587,7 +3593,7 @@
         <v>45762</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W51" s="6">
         <v>4.45</v>
@@ -3599,7 +3605,7 @@
         <v>45742</v>
       </c>
       <c r="Z51" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP51" s="6">
         <v>4</v>
@@ -3613,13 +3619,13 @@
         <v>2025</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E52" s="6">
         <v>4</v>
@@ -3628,7 +3634,7 @@
         <v>45749</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H52" s="6">
         <v>5</v>
@@ -3637,7 +3643,7 @@
         <v>45762</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W52" s="6">
         <v>4.5</v>
@@ -3649,7 +3655,7 @@
         <v>45742</v>
       </c>
       <c r="Z52" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP52" s="6">
         <v>4</v>
@@ -3663,13 +3669,13 @@
         <v>2025</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E53" s="6">
         <v>4</v>
@@ -3678,7 +3684,7 @@
         <v>45749</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H53" s="6">
         <v>4.0999999999999996</v>
@@ -3687,7 +3693,7 @@
         <v>45762</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W53" s="6">
         <v>4.05</v>
@@ -3699,7 +3705,7 @@
         <v>45742</v>
       </c>
       <c r="Z53" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP53" s="6">
         <v>4</v>
@@ -3713,13 +3719,13 @@
         <v>2025</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E54" s="6">
         <v>3.6</v>
@@ -3728,7 +3734,7 @@
         <v>45749</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H54" s="6">
         <v>4.0999999999999996</v>
@@ -3737,7 +3743,7 @@
         <v>45762</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W54" s="6">
         <v>3.85</v>
@@ -3749,7 +3755,7 @@
         <v>45742</v>
       </c>
       <c r="Z54" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP54" s="6">
         <v>4</v>
@@ -3763,13 +3769,13 @@
         <v>2025</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E55" s="6">
         <v>3.2</v>
@@ -3778,7 +3784,7 @@
         <v>45749</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H55" s="6">
         <v>3.2</v>
@@ -3787,7 +3793,7 @@
         <v>45762</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W55" s="6">
         <v>3.2</v>
@@ -3799,7 +3805,7 @@
         <v>45742</v>
       </c>
       <c r="Z55" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP55" s="6">
         <v>4</v>
@@ -3813,31 +3819,31 @@
         <v>2025</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F56" s="6">
         <v>45749</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I56" s="6">
         <v>45762</v>
       </c>
       <c r="J56" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y56" s="6">
+        <v>45742</v>
+      </c>
+      <c r="Z56" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="Y56" s="6">
-        <v>45742</v>
-      </c>
-      <c r="Z56" s="6" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:44" x14ac:dyDescent="0.3">
@@ -3845,31 +3851,31 @@
         <v>2025</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F57" s="6">
         <v>45749</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I57" s="6">
         <v>45762</v>
       </c>
       <c r="J57" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y57" s="6">
+        <v>45742</v>
+      </c>
+      <c r="Z57" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="Y57" s="6">
-        <v>45742</v>
-      </c>
-      <c r="Z57" s="6" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:44" x14ac:dyDescent="0.3">
@@ -3877,13 +3883,13 @@
         <v>2025</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C58" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="E58" s="6">
         <v>3</v>
@@ -3892,7 +3898,7 @@
         <v>45749</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H58" s="6">
         <v>5</v>
@@ -3901,7 +3907,7 @@
         <v>45762</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W58" s="6">
         <v>4</v>
@@ -3913,7 +3919,7 @@
         <v>45743</v>
       </c>
       <c r="Z58" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP58" s="6">
         <v>4</v>
@@ -3927,13 +3933,13 @@
         <v>2025</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E59" s="6">
         <v>3.4</v>
@@ -3942,13 +3948,13 @@
         <v>45749</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I59" s="6">
         <v>45762</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W59" s="6">
         <v>3.4</v>
@@ -3960,7 +3966,7 @@
         <v>45743</v>
       </c>
       <c r="Z59" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP59" s="6">
         <v>3.6</v>
@@ -3974,13 +3980,13 @@
         <v>2025</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E60" s="6">
         <v>3</v>
@@ -3989,13 +3995,13 @@
         <v>45749</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I60" s="6">
         <v>45762</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W60" s="6">
         <v>3</v>
@@ -4007,7 +4013,7 @@
         <v>45743</v>
       </c>
       <c r="Z60" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP60" s="6">
         <v>4.2</v>
@@ -4021,13 +4027,13 @@
         <v>2025</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E61" s="6">
         <v>3.4</v>
@@ -4036,7 +4042,7 @@
         <v>45749</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H61" s="6">
         <v>1</v>
@@ -4045,7 +4051,7 @@
         <v>45762</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W61" s="6">
         <v>2.2000000000000002</v>
@@ -4057,7 +4063,7 @@
         <v>45743</v>
       </c>
       <c r="Z61" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP61" s="6">
         <v>4</v>
@@ -4071,13 +4077,13 @@
         <v>2025</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E62" s="6">
         <v>3.4</v>
@@ -4086,7 +4092,7 @@
         <v>45749</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H62" s="6">
         <v>5</v>
@@ -4095,7 +4101,7 @@
         <v>45762</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W62" s="6">
         <v>4.2</v>
@@ -4107,7 +4113,7 @@
         <v>45743</v>
       </c>
       <c r="Z62" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP62" s="6">
         <v>3.6</v>
@@ -4121,13 +4127,13 @@
         <v>2025</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E63" s="6">
         <v>3</v>
@@ -4136,7 +4142,7 @@
         <v>45749</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H63" s="6">
         <v>5</v>
@@ -4145,7 +4151,7 @@
         <v>45762</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W63" s="6">
         <v>4</v>
@@ -4157,7 +4163,7 @@
         <v>45743</v>
       </c>
       <c r="Z63" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP63" s="6">
         <v>4</v>
@@ -4171,13 +4177,13 @@
         <v>2025</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E64" s="6">
         <v>4.5999999999999996</v>
@@ -4186,7 +4192,7 @@
         <v>45749</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H64" s="6">
         <v>1</v>
@@ -4195,7 +4201,7 @@
         <v>45762</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W64" s="6">
         <v>2.8</v>
@@ -4207,7 +4213,7 @@
         <v>45743</v>
       </c>
       <c r="Z64" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP64" s="6">
         <v>3.6</v>
@@ -4221,13 +4227,13 @@
         <v>2025</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E65" s="6">
         <v>4.5999999999999996</v>
@@ -4236,7 +4242,7 @@
         <v>45749</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H65" s="6">
         <v>5</v>
@@ -4245,7 +4251,7 @@
         <v>45762</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W65" s="6">
         <v>4.8</v>
@@ -4257,7 +4263,7 @@
         <v>45743</v>
       </c>
       <c r="Z65" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP65" s="6">
         <v>4</v>
@@ -4271,13 +4277,13 @@
         <v>2025</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E66" s="6">
         <v>3</v>
@@ -4286,7 +4292,7 @@
         <v>45749</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H66" s="6">
         <v>1</v>
@@ -4295,7 +4301,7 @@
         <v>45762</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W66" s="6">
         <v>2</v>
@@ -4307,7 +4313,7 @@
         <v>45743</v>
       </c>
       <c r="Z66" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP66" s="6">
         <v>4</v>
@@ -4321,22 +4327,22 @@
         <v>2025</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D67" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E67" s="6">
+        <v>4</v>
+      </c>
+      <c r="F67" s="6">
+        <v>45749</v>
+      </c>
+      <c r="G67" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="E67" s="6">
-        <v>4</v>
-      </c>
-      <c r="F67" s="6">
-        <v>45749</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>113</v>
       </c>
       <c r="H67" s="6">
         <v>1</v>
@@ -4345,7 +4351,7 @@
         <v>45762</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W67" s="6">
         <v>2.5</v>
@@ -4357,7 +4363,7 @@
         <v>45743</v>
       </c>
       <c r="Z67" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP67" s="6">
         <v>4.2</v>
@@ -4371,13 +4377,13 @@
         <v>2025</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E68" s="6">
         <v>3.6</v>
@@ -4386,7 +4392,7 @@
         <v>45749</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H68" s="6">
         <v>5</v>
@@ -4395,7 +4401,7 @@
         <v>45762</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W68" s="6">
         <v>4.3</v>
@@ -4407,7 +4413,7 @@
         <v>45743</v>
       </c>
       <c r="Z68" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP68" s="6">
         <v>4.2</v>
@@ -4421,13 +4427,13 @@
         <v>2025</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E69" s="6">
         <v>3.4</v>
@@ -4436,7 +4442,7 @@
         <v>45749</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H69" s="6">
         <v>4.3</v>
@@ -4445,7 +4451,7 @@
         <v>45762</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W69" s="6">
         <v>3.85</v>
@@ -4457,7 +4463,7 @@
         <v>45743</v>
       </c>
       <c r="Z69" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP69" s="6">
         <v>4</v>
@@ -4471,13 +4477,13 @@
         <v>2025</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E70" s="6">
         <v>1</v>
@@ -4486,7 +4492,7 @@
         <v>45749</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H70" s="6">
         <v>1</v>
@@ -4495,7 +4501,7 @@
         <v>45762</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W70" s="6">
         <v>1</v>
@@ -4507,7 +4513,7 @@
         <v>45743</v>
       </c>
       <c r="Z70" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP70" s="6">
         <v>4</v>
@@ -4521,22 +4527,22 @@
         <v>2025</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D71" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E71" s="6">
+        <v>5</v>
+      </c>
+      <c r="F71" s="6">
+        <v>45749</v>
+      </c>
+      <c r="G71" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="E71" s="6">
-        <v>5</v>
-      </c>
-      <c r="F71" s="6">
-        <v>45749</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>113</v>
       </c>
       <c r="H71" s="6">
         <v>1</v>
@@ -4545,7 +4551,7 @@
         <v>45762</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W71" s="6">
         <v>3</v>
@@ -4557,7 +4563,7 @@
         <v>45743</v>
       </c>
       <c r="Z71" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP71" s="6">
         <v>4.2</v>
@@ -4571,22 +4577,22 @@
         <v>2025</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D72" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E72" s="6">
+        <v>4</v>
+      </c>
+      <c r="F72" s="6">
+        <v>45749</v>
+      </c>
+      <c r="G72" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="E72" s="6">
-        <v>4</v>
-      </c>
-      <c r="F72" s="6">
-        <v>45749</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>113</v>
       </c>
       <c r="H72" s="6">
         <v>5</v>
@@ -4595,7 +4601,7 @@
         <v>45762</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W72" s="6">
         <v>4.5</v>
@@ -4607,7 +4613,7 @@
         <v>45743</v>
       </c>
       <c r="Z72" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP72" s="6">
         <v>4.4000000000000004</v>
@@ -4621,13 +4627,13 @@
         <v>2025</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E73" s="6">
         <v>1</v>
@@ -4636,7 +4642,7 @@
         <v>45749</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H73" s="6">
         <v>4</v>
@@ -4645,7 +4651,7 @@
         <v>45762</v>
       </c>
       <c r="J73" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W73" s="6">
         <v>2.5</v>
@@ -4657,7 +4663,7 @@
         <v>45743</v>
       </c>
       <c r="Z73" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP73" s="6">
         <v>4</v>
@@ -4671,13 +4677,13 @@
         <v>2025</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E74" s="6">
         <v>3</v>
@@ -4686,7 +4692,7 @@
         <v>45749</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H74" s="6">
         <v>1</v>
@@ -4695,7 +4701,7 @@
         <v>45762</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W74" s="6">
         <v>2</v>
@@ -4707,7 +4713,7 @@
         <v>45743</v>
       </c>
       <c r="Z74" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP74" s="6">
         <v>4</v>
@@ -4721,13 +4727,13 @@
         <v>2025</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E75" s="6">
         <v>4.4000000000000004</v>
@@ -4736,7 +4742,7 @@
         <v>45749</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H75" s="6">
         <v>1</v>
@@ -4745,7 +4751,7 @@
         <v>45762</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W75" s="6">
         <v>2.7</v>
@@ -4757,7 +4763,7 @@
         <v>45743</v>
       </c>
       <c r="Z75" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP75" s="6">
         <v>4</v>
@@ -4771,22 +4777,22 @@
         <v>2025</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D76" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E76" s="6">
+        <v>4</v>
+      </c>
+      <c r="F76" s="6">
+        <v>45749</v>
+      </c>
+      <c r="G76" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="E76" s="6">
-        <v>4</v>
-      </c>
-      <c r="F76" s="6">
-        <v>45749</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>113</v>
       </c>
       <c r="H76" s="6">
         <v>5</v>
@@ -4795,7 +4801,7 @@
         <v>45762</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W76" s="6">
         <v>4.5</v>
@@ -4807,7 +4813,7 @@
         <v>45743</v>
       </c>
       <c r="Z76" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP76" s="6">
         <v>3.6</v>
@@ -4821,13 +4827,13 @@
         <v>2025</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C77" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="E77" s="6">
         <v>3</v>
@@ -4836,7 +4842,7 @@
         <v>45749</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H77" s="6">
         <v>4.4000000000000004</v>
@@ -4845,7 +4851,7 @@
         <v>45768</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W77" s="6">
         <v>3.7</v>
@@ -4857,7 +4863,7 @@
         <v>45742</v>
       </c>
       <c r="Z77" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AP77" s="6">
         <v>4.4000000000000004</v>
@@ -4871,13 +4877,13 @@
         <v>2025</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E78" s="6">
         <v>4.4000000000000004</v>
@@ -4886,7 +4892,7 @@
         <v>45749</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H78" s="6">
         <v>5</v>
@@ -4895,7 +4901,7 @@
         <v>45768</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W78" s="6">
         <v>4.7</v>
@@ -4907,7 +4913,7 @@
         <v>45742</v>
       </c>
       <c r="Z78" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AP78" s="6">
         <v>4.4000000000000004</v>
@@ -4921,13 +4927,13 @@
         <v>2025</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E79" s="6">
         <v>4</v>
@@ -4936,7 +4942,7 @@
         <v>45749</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H79" s="6">
         <v>5</v>
@@ -4945,7 +4951,7 @@
         <v>45768</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W79" s="6">
         <v>4.5</v>
@@ -4954,7 +4960,7 @@
         <v>45742</v>
       </c>
       <c r="Z79" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AR79" s="6">
         <v>4.5</v>
@@ -4965,13 +4971,13 @@
         <v>2025</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E80" s="6">
         <v>4</v>
@@ -4980,13 +4986,13 @@
         <v>45749</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I80" s="6">
         <v>45768</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W80" s="6">
         <v>4</v>
@@ -4998,7 +5004,7 @@
         <v>45742</v>
       </c>
       <c r="Z80" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AP80" s="6">
         <v>4</v>
@@ -5012,13 +5018,13 @@
         <v>2025</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E81" s="6">
         <v>3.6</v>
@@ -5027,7 +5033,7 @@
         <v>45749</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H81" s="6">
         <v>1</v>
@@ -5036,7 +5042,7 @@
         <v>45768</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W81" s="6">
         <v>2.2999999999999998</v>
@@ -5048,7 +5054,7 @@
         <v>45742</v>
       </c>
       <c r="Z81" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AP81" s="6">
         <v>4.4000000000000004</v>
@@ -5062,13 +5068,13 @@
         <v>2025</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E82" s="6">
         <v>3.8</v>
@@ -5077,7 +5083,7 @@
         <v>45749</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H82" s="6">
         <v>5</v>
@@ -5086,7 +5092,7 @@
         <v>45768</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W82" s="6">
         <v>4.4000000000000004</v>
@@ -5098,7 +5104,7 @@
         <v>45742</v>
       </c>
       <c r="Z82" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AP82" s="6">
         <v>4</v>
@@ -5112,13 +5118,13 @@
         <v>2025</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E83" s="6">
         <v>4.4000000000000004</v>
@@ -5127,7 +5133,7 @@
         <v>45749</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H83" s="6">
         <v>1</v>
@@ -5136,7 +5142,7 @@
         <v>45768</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W83" s="6">
         <v>2.7</v>
@@ -5148,7 +5154,7 @@
         <v>45742</v>
       </c>
       <c r="Z83" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AP83" s="6">
         <v>3.4</v>
@@ -5162,13 +5168,13 @@
         <v>2025</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E84" s="6">
         <v>3.6</v>
@@ -5177,13 +5183,13 @@
         <v>45749</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I84" s="6">
         <v>45768</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W84" s="6">
         <v>3.6</v>
@@ -5192,7 +5198,7 @@
         <v>45742</v>
       </c>
       <c r="Z84" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AR84" s="6">
         <v>3.6</v>
@@ -5203,19 +5209,19 @@
         <v>2025</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F85" s="6">
         <v>45749</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H85" s="6">
         <v>5</v>
@@ -5224,7 +5230,7 @@
         <v>45768</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W85" s="6">
         <v>5</v>
@@ -5236,7 +5242,7 @@
         <v>45742</v>
       </c>
       <c r="Z85" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AP85" s="6">
         <v>4.0999999999999996</v>
@@ -5250,13 +5256,13 @@
         <v>2025</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E86" s="6">
         <v>3.6</v>
@@ -5265,7 +5271,7 @@
         <v>45749</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H86" s="6">
         <v>1</v>
@@ -5274,7 +5280,7 @@
         <v>45768</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W86" s="6">
         <v>2.2999999999999998</v>
@@ -5286,7 +5292,7 @@
         <v>45742</v>
       </c>
       <c r="Z86" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AP86" s="6">
         <v>4.0999999999999996</v>
@@ -5300,13 +5306,13 @@
         <v>2025</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E87" s="6">
         <v>4</v>
@@ -5315,7 +5321,7 @@
         <v>45749</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H87" s="6">
         <v>5</v>
@@ -5324,7 +5330,7 @@
         <v>45768</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W87" s="6">
         <v>4.5</v>
@@ -5336,7 +5342,7 @@
         <v>45742</v>
       </c>
       <c r="Z87" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AP87" s="6">
         <v>4.0999999999999996</v>
@@ -5350,13 +5356,13 @@
         <v>2025</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E88" s="6">
         <v>4.4000000000000004</v>
@@ -5365,7 +5371,7 @@
         <v>45749</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H88" s="6">
         <v>5</v>
@@ -5374,7 +5380,7 @@
         <v>45768</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W88" s="6">
         <v>4.7</v>
@@ -5386,7 +5392,7 @@
         <v>45742</v>
       </c>
       <c r="Z88" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AP88" s="6">
         <v>4.4000000000000004</v>
@@ -5400,13 +5406,13 @@
         <v>2025</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E89" s="6">
         <v>4.5999999999999996</v>
@@ -5415,7 +5421,7 @@
         <v>45749</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H89" s="6">
         <v>1</v>
@@ -5424,7 +5430,7 @@
         <v>45768</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W89" s="6">
         <v>2.8</v>
@@ -5436,7 +5442,7 @@
         <v>45742</v>
       </c>
       <c r="Z89" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AP89" s="6">
         <v>3.4</v>
@@ -5450,13 +5456,13 @@
         <v>2025</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E90" s="6">
         <v>5</v>
@@ -5465,7 +5471,7 @@
         <v>45749</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H90" s="6">
         <v>5</v>
@@ -5474,7 +5480,7 @@
         <v>45768</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W90" s="6">
         <v>5</v>
@@ -5486,7 +5492,7 @@
         <v>45742</v>
       </c>
       <c r="Z90" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AP90" s="6">
         <v>3.4</v>
@@ -5500,13 +5506,13 @@
         <v>2025</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E91" s="6">
         <v>3</v>
@@ -5515,7 +5521,7 @@
         <v>45749</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H91" s="6">
         <v>1</v>
@@ -5524,7 +5530,7 @@
         <v>45768</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W91" s="6">
         <v>2</v>
@@ -5536,7 +5542,7 @@
         <v>45742</v>
       </c>
       <c r="Z91" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AP91" s="6">
         <v>4.0999999999999996</v>
@@ -5550,13 +5556,13 @@
         <v>2025</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E92" s="6">
         <v>3.6</v>
@@ -5565,7 +5571,7 @@
         <v>45749</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H92" s="6">
         <v>1</v>
@@ -5574,7 +5580,7 @@
         <v>45768</v>
       </c>
       <c r="J92" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W92" s="6">
         <v>2.2999999999999998</v>
@@ -5586,7 +5592,7 @@
         <v>45742</v>
       </c>
       <c r="Z92" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AP92" s="6">
         <v>4</v>
@@ -5600,19 +5606,19 @@
         <v>2025</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F93" s="6">
         <v>45749</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H93" s="6">
         <v>5</v>
@@ -5621,7 +5627,7 @@
         <v>45768</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W93" s="6">
         <v>5</v>
@@ -5633,7 +5639,7 @@
         <v>45742</v>
       </c>
       <c r="Z93" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AP93" s="6">
         <v>4</v>
@@ -5647,13 +5653,13 @@
         <v>2025</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E94" s="6">
         <v>3.6</v>
@@ -5662,7 +5668,7 @@
         <v>45749</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H94" s="6">
         <v>1</v>
@@ -5671,7 +5677,7 @@
         <v>45768</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W94" s="6">
         <v>2.2999999999999998</v>
@@ -5683,7 +5689,7 @@
         <v>45742</v>
       </c>
       <c r="Z94" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AP94" s="6">
         <v>4.4000000000000004</v>
@@ -5697,31 +5703,31 @@
         <v>2025</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F95" s="6">
         <v>45749</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I95" s="6">
         <v>45768</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Y95" s="6">
         <v>45742</v>
       </c>
       <c r="Z95" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="96" spans="1:44" x14ac:dyDescent="0.3">
@@ -5729,13 +5735,13 @@
         <v>2025</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E96" s="6">
         <v>5</v>
@@ -5744,7 +5750,7 @@
         <v>45749</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H96" s="6">
         <v>5</v>
@@ -5753,7 +5759,7 @@
         <v>45768</v>
       </c>
       <c r="J96" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W96" s="6">
         <v>5</v>
@@ -5765,7 +5771,7 @@
         <v>45742</v>
       </c>
       <c r="Z96" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AP96" s="6">
         <v>4.4000000000000004</v>
@@ -5779,13 +5785,13 @@
         <v>2025</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E97" s="6">
         <v>4.5999999999999996</v>
@@ -5794,7 +5800,7 @@
         <v>45749</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H97" s="6">
         <v>5</v>
@@ -5803,7 +5809,7 @@
         <v>45768</v>
       </c>
       <c r="J97" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W97" s="6">
         <v>4.8</v>
@@ -5815,7 +5821,7 @@
         <v>45742</v>
       </c>
       <c r="Z97" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AP97" s="6">
         <v>3.4</v>
@@ -5829,13 +5835,13 @@
         <v>2025</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C98" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D98" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>156</v>
       </c>
       <c r="E98" s="6">
         <v>4.5999999999999996</v>
@@ -5844,7 +5850,7 @@
         <v>45749</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H98" s="6">
         <v>5</v>
@@ -5853,7 +5859,7 @@
         <v>45768</v>
       </c>
       <c r="J98" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W98" s="6">
         <v>4.8</v>
@@ -5865,7 +5871,7 @@
         <v>45742</v>
       </c>
       <c r="Z98" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP98" s="6">
         <v>4.2</v>
@@ -5879,13 +5885,13 @@
         <v>2025</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E99" s="6">
         <v>3.8</v>
@@ -5894,7 +5900,7 @@
         <v>45749</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H99" s="6">
         <v>5</v>
@@ -5903,7 +5909,7 @@
         <v>45768</v>
       </c>
       <c r="J99" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W99" s="6">
         <v>4.4000000000000004</v>
@@ -5915,7 +5921,7 @@
         <v>45742</v>
       </c>
       <c r="Z99" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP99" s="6">
         <v>4.2</v>
@@ -5929,13 +5935,13 @@
         <v>2025</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E100" s="6">
         <v>3</v>
@@ -5944,13 +5950,13 @@
         <v>45749</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I100" s="6">
         <v>45768</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W100" s="6">
         <v>3</v>
@@ -5962,7 +5968,7 @@
         <v>45742</v>
       </c>
       <c r="Z100" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP100" s="6">
         <v>4.2</v>
@@ -5976,13 +5982,13 @@
         <v>2025</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E101" s="6">
         <v>4</v>
@@ -5991,25 +5997,25 @@
         <v>45749</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I101" s="6">
         <v>45768</v>
       </c>
       <c r="J101" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="W101" s="6">
+        <v>4</v>
+      </c>
+      <c r="X101" s="6">
+        <v>4</v>
+      </c>
+      <c r="Y101" s="6">
+        <v>45742</v>
+      </c>
+      <c r="Z101" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="W101" s="6">
-        <v>4</v>
-      </c>
-      <c r="X101" s="6">
-        <v>4</v>
-      </c>
-      <c r="Y101" s="6">
-        <v>45742</v>
-      </c>
-      <c r="Z101" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AP101" s="6">
         <v>4</v>
@@ -6023,13 +6029,13 @@
         <v>2025</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E102" s="6">
         <v>3</v>
@@ -6038,13 +6044,13 @@
         <v>45749</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I102" s="6">
         <v>45768</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W102" s="6">
         <v>3</v>
@@ -6056,7 +6062,7 @@
         <v>45742</v>
       </c>
       <c r="Z102" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP102" s="6">
         <v>4.5999999999999996</v>
@@ -6070,13 +6076,13 @@
         <v>2025</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E103" s="6">
         <v>3.4</v>
@@ -6085,7 +6091,7 @@
         <v>45749</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H103" s="6">
         <v>5</v>
@@ -6094,7 +6100,7 @@
         <v>45768</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W103" s="6">
         <v>4.2</v>
@@ -6106,7 +6112,7 @@
         <v>45742</v>
       </c>
       <c r="Z103" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP103" s="6">
         <v>4</v>
@@ -6120,13 +6126,13 @@
         <v>2025</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E104" s="6">
         <v>3</v>
@@ -6135,7 +6141,7 @@
         <v>45749</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H104" s="6">
         <v>1</v>
@@ -6144,7 +6150,7 @@
         <v>45768</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W104" s="6">
         <v>2</v>
@@ -6156,7 +6162,7 @@
         <v>45742</v>
       </c>
       <c r="Z104" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP104" s="6">
         <v>3</v>
@@ -6170,13 +6176,13 @@
         <v>2025</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E105" s="6">
         <v>5</v>
@@ -6185,7 +6191,7 @@
         <v>45749</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H105" s="6">
         <v>1</v>
@@ -6194,7 +6200,7 @@
         <v>45768</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W105" s="6">
         <v>3</v>
@@ -6206,7 +6212,7 @@
         <v>45742</v>
       </c>
       <c r="Z105" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP105" s="6">
         <v>4.2</v>
@@ -6220,13 +6226,13 @@
         <v>2025</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E106" s="6">
         <v>3</v>
@@ -6235,7 +6241,7 @@
         <v>45749</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H106" s="6">
         <v>5</v>
@@ -6244,19 +6250,19 @@
         <v>45768</v>
       </c>
       <c r="J106" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="W106" s="6">
+        <v>4</v>
+      </c>
+      <c r="X106" s="6">
+        <v>4</v>
+      </c>
+      <c r="Y106" s="6">
+        <v>45742</v>
+      </c>
+      <c r="Z106" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="W106" s="6">
-        <v>4</v>
-      </c>
-      <c r="X106" s="6">
-        <v>4</v>
-      </c>
-      <c r="Y106" s="6">
-        <v>45742</v>
-      </c>
-      <c r="Z106" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AP106" s="6">
         <v>4</v>
@@ -6270,13 +6276,13 @@
         <v>2025</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E107" s="6">
         <v>4.2</v>
@@ -6285,7 +6291,7 @@
         <v>45749</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H107" s="6">
         <v>5</v>
@@ -6294,7 +6300,7 @@
         <v>45768</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W107" s="6">
         <v>4.5999999999999996</v>
@@ -6306,7 +6312,7 @@
         <v>45742</v>
       </c>
       <c r="Z107" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP107" s="6">
         <v>4</v>
@@ -6320,13 +6326,13 @@
         <v>2025</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E108" s="6">
         <v>3.4</v>
@@ -6335,7 +6341,7 @@
         <v>45749</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H108" s="6">
         <v>1</v>
@@ -6344,7 +6350,7 @@
         <v>45768</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W108" s="6">
         <v>2.2000000000000002</v>
@@ -6356,7 +6362,7 @@
         <v>45742</v>
       </c>
       <c r="Z108" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP108" s="6">
         <v>4</v>
@@ -6370,25 +6376,25 @@
         <v>2025</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F109" s="6">
         <v>45749</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I109" s="6">
         <v>45768</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="X109" s="6">
         <v>2.8</v>
@@ -6397,7 +6403,7 @@
         <v>45742</v>
       </c>
       <c r="Z109" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP109" s="6">
         <v>2.8</v>
@@ -6411,19 +6417,19 @@
         <v>2025</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F110" s="6">
         <v>45749</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H110" s="6">
         <v>1</v>
@@ -6432,7 +6438,7 @@
         <v>45768</v>
       </c>
       <c r="J110" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W110" s="6">
         <v>1</v>
@@ -6444,7 +6450,7 @@
         <v>45742</v>
       </c>
       <c r="Z110" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP110" s="6">
         <v>4</v>
@@ -6458,13 +6464,13 @@
         <v>2025</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E111" s="6">
         <v>3.4</v>
@@ -6473,7 +6479,7 @@
         <v>45749</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H111" s="6">
         <v>5</v>
@@ -6482,7 +6488,7 @@
         <v>45768</v>
       </c>
       <c r="J111" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W111" s="6">
         <v>4.2</v>
@@ -6494,7 +6500,7 @@
         <v>45742</v>
       </c>
       <c r="Z111" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP111" s="6">
         <v>4.2</v>
@@ -6508,13 +6514,13 @@
         <v>2025</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E112" s="6">
         <v>4</v>
@@ -6523,13 +6529,13 @@
         <v>45749</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I112" s="6">
         <v>45768</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W112" s="6">
         <v>4</v>
@@ -6541,7 +6547,7 @@
         <v>45742</v>
       </c>
       <c r="Z112" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP112" s="6">
         <v>4.2</v>
@@ -6555,13 +6561,13 @@
         <v>2025</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E113" s="6">
         <v>3.4</v>
@@ -6570,7 +6576,7 @@
         <v>45749</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H113" s="6">
         <v>1</v>
@@ -6579,7 +6585,7 @@
         <v>45768</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W113" s="6">
         <v>2.2000000000000002</v>
@@ -6591,7 +6597,7 @@
         <v>45742</v>
       </c>
       <c r="Z113" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP113" s="6">
         <v>4.2</v>
@@ -6605,13 +6611,13 @@
         <v>2025</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E114" s="6">
         <v>3</v>
@@ -6620,7 +6626,7 @@
         <v>45749</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H114" s="6">
         <v>4.2</v>
@@ -6629,7 +6635,7 @@
         <v>45768</v>
       </c>
       <c r="J114" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W114" s="6">
         <v>3.6</v>
@@ -6641,7 +6647,7 @@
         <v>45742</v>
       </c>
       <c r="Z114" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP114" s="6">
         <v>4</v>
@@ -6655,13 +6661,13 @@
         <v>2025</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E115" s="6">
         <v>4.5999999999999996</v>
@@ -6670,7 +6676,7 @@
         <v>45749</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H115" s="6">
         <v>4.2</v>
@@ -6679,7 +6685,7 @@
         <v>45768</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W115" s="6">
         <v>4.4000000000000004</v>
@@ -6691,7 +6697,7 @@
         <v>45742</v>
       </c>
       <c r="Z115" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP115" s="6">
         <v>4</v>
@@ -6705,13 +6711,13 @@
         <v>2025</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E116" s="6">
         <v>3.6</v>
@@ -6720,7 +6726,7 @@
         <v>45749</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H116" s="6">
         <v>4.2</v>
@@ -6729,7 +6735,7 @@
         <v>45768</v>
       </c>
       <c r="J116" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W116" s="6">
         <v>3.9</v>
@@ -6741,7 +6747,7 @@
         <v>45742</v>
       </c>
       <c r="Z116" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP116" s="6">
         <v>4.2</v>
@@ -6751,6 +6757,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Datos1.xlsx
+++ b/Datos1.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EliezerMendoza\Documents\MiApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFAFD9A-18F5-4C6A-9F14-BDB02C80DE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF7294B-7AF9-4E78-ADF0-0F6E2274042E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8CFD075-B776-4772-AF84-4FE19285905C}"/>
   </bookViews>
   <sheets>
     <sheet name="HISTNOT" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="XI°A_Abril">#REF!</definedName>
     <definedName name="XI°A_Mayo">#REF!</definedName>
@@ -668,38 +665,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="PORTADA"/>
-      <sheetName val="HORARIO"/>
-      <sheetName val="ASISTENCIA"/>
-      <sheetName val="HISTASIST"/>
-      <sheetName val="DATOSEST"/>
-      <sheetName val="NOTAS"/>
-      <sheetName val="BOLETIN"/>
-      <sheetName val="HISTNOT"/>
-      <sheetName val="HISTBOL"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1022,8 +987,8 @@
   <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:AS116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B116"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection sqref="A1:AR1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Datos1.xlsx
+++ b/Datos1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EliezerMendoza\Documents\MiApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EliezerMendoza\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF7294B-7AF9-4E78-ADF0-0F6E2274042E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A789A9F-542B-42CC-9E8A-6DF36C953978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8CFD075-B776-4772-AF84-4FE19285905C}"/>
   </bookViews>
@@ -629,7 +629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -650,6 +650,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -987,8 +993,8 @@
   <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:AS116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection sqref="A1:AR1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1:AB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -998,10 +1004,10 @@
     <col min="3" max="3" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" style="5"/>
     <col min="5" max="5" width="10.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5546875" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.21875" style="6" bestFit="1" customWidth="1"/>
@@ -1017,10 +1023,10 @@
     <col min="22" max="22" width="21" style="6" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="26.5546875" style="6" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="15.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.21875" style="9" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="26" style="6" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.21875" style="9" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="26" style="6" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="15.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="22.21875" style="6" bestFit="1" customWidth="1"/>
@@ -1055,7 +1061,7 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -1064,7 +1070,7 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -1112,7 +1118,7 @@
       <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="8" t="s">
         <v>24</v>
       </c>
       <c r="Z1" s="3" t="s">
@@ -1121,7 +1127,7 @@
       <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="8" t="s">
         <v>27</v>
       </c>
       <c r="AC1" s="3" t="s">
@@ -1189,7 +1195,7 @@
       <c r="E2" s="6">
         <v>5</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="9">
         <v>45749</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -1201,7 +1207,7 @@
       <c r="X2" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="Y2" s="6">
+      <c r="Y2" s="9">
         <v>45742</v>
       </c>
       <c r="Z2" s="6" t="s">
@@ -1210,7 +1216,7 @@
       <c r="AA2" s="6">
         <v>4.5</v>
       </c>
-      <c r="AB2" s="6">
+      <c r="AB2" s="9">
         <v>45768</v>
       </c>
       <c r="AC2" s="6" t="s">
@@ -1240,7 +1246,7 @@
       <c r="E3" s="6">
         <v>4</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="9">
         <v>45749</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -1252,13 +1258,13 @@
       <c r="X3" s="6">
         <v>4</v>
       </c>
-      <c r="Y3" s="6">
+      <c r="Y3" s="9">
         <v>45742</v>
       </c>
       <c r="Z3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AB3" s="6">
+      <c r="AB3" s="9">
         <v>45768</v>
       </c>
       <c r="AC3" s="6" t="s">
@@ -1288,7 +1294,7 @@
       <c r="E4" s="6">
         <v>5</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="9">
         <v>45749</v>
       </c>
       <c r="G4" s="6" t="s">
@@ -1300,7 +1306,7 @@
       <c r="X4" s="6">
         <v>2.8</v>
       </c>
-      <c r="Y4" s="6">
+      <c r="Y4" s="9">
         <v>45742</v>
       </c>
       <c r="Z4" s="6" t="s">
@@ -1309,7 +1315,7 @@
       <c r="AA4" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AB4" s="6">
+      <c r="AB4" s="9">
         <v>45768</v>
       </c>
       <c r="AC4" s="6" t="s">
@@ -1339,7 +1345,7 @@
       <c r="E5" s="6">
         <v>4.2</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="9">
         <v>45749</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -1351,13 +1357,13 @@
       <c r="X5" s="6">
         <v>4</v>
       </c>
-      <c r="Y5" s="6">
+      <c r="Y5" s="9">
         <v>45742</v>
       </c>
       <c r="Z5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AB5" s="6">
+      <c r="AB5" s="9">
         <v>45768</v>
       </c>
       <c r="AC5" s="6" t="s">
@@ -1387,7 +1393,7 @@
       <c r="E6" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="9">
         <v>45749</v>
       </c>
       <c r="G6" s="6" t="s">
@@ -1399,7 +1405,7 @@
       <c r="X6" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="Y6" s="6">
+      <c r="Y6" s="9">
         <v>45742</v>
       </c>
       <c r="Z6" s="6" t="s">
@@ -1408,7 +1414,7 @@
       <c r="AA6" s="6">
         <v>4.5</v>
       </c>
-      <c r="AB6" s="6">
+      <c r="AB6" s="9">
         <v>45768</v>
       </c>
       <c r="AC6" s="6" t="s">
@@ -1435,19 +1441,19 @@
       <c r="D7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="9">
         <v>45749</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="Y7" s="6">
+      <c r="Y7" s="9">
         <v>45742</v>
       </c>
       <c r="Z7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AB7" s="6">
+      <c r="AB7" s="9">
         <v>45768</v>
       </c>
       <c r="AC7" s="6" t="s">
@@ -1471,7 +1477,7 @@
       <c r="E8" s="6">
         <v>5</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="9">
         <v>45749</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -1483,7 +1489,7 @@
       <c r="X8" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="Y8" s="6">
+      <c r="Y8" s="9">
         <v>45742</v>
       </c>
       <c r="Z8" s="6" t="s">
@@ -1492,7 +1498,7 @@
       <c r="AA8" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AB8" s="6">
+      <c r="AB8" s="9">
         <v>45768</v>
       </c>
       <c r="AC8" s="6" t="s">
@@ -1522,7 +1528,7 @@
       <c r="E9" s="6">
         <v>5</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="9">
         <v>45749</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -1534,7 +1540,7 @@
       <c r="X9" s="6">
         <v>4</v>
       </c>
-      <c r="Y9" s="6">
+      <c r="Y9" s="9">
         <v>45742</v>
       </c>
       <c r="Z9" s="6" t="s">
@@ -1543,7 +1549,7 @@
       <c r="AA9" s="6">
         <v>4.5</v>
       </c>
-      <c r="AB9" s="6">
+      <c r="AB9" s="9">
         <v>45768</v>
       </c>
       <c r="AC9" s="6" t="s">
@@ -1573,7 +1579,7 @@
       <c r="E10" s="6">
         <v>4.2</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="9">
         <v>45749</v>
       </c>
       <c r="G10" s="6" t="s">
@@ -1585,7 +1591,7 @@
       <c r="X10" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="Y10" s="6">
+      <c r="Y10" s="9">
         <v>45742</v>
       </c>
       <c r="Z10" s="6" t="s">
@@ -1594,7 +1600,7 @@
       <c r="AA10" s="6">
         <v>1</v>
       </c>
-      <c r="AB10" s="6">
+      <c r="AB10" s="9">
         <v>45768</v>
       </c>
       <c r="AC10" s="6" t="s">
@@ -1624,7 +1630,7 @@
       <c r="E11" s="6">
         <v>5</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="9">
         <v>45749</v>
       </c>
       <c r="G11" s="6" t="s">
@@ -1636,7 +1642,7 @@
       <c r="X11" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="Y11" s="6">
+      <c r="Y11" s="9">
         <v>45742</v>
       </c>
       <c r="Z11" s="6" t="s">
@@ -1645,7 +1651,7 @@
       <c r="AA11" s="6">
         <v>1</v>
       </c>
-      <c r="AB11" s="6">
+      <c r="AB11" s="9">
         <v>45768</v>
       </c>
       <c r="AC11" s="6" t="s">
@@ -1675,7 +1681,7 @@
       <c r="E12" s="6">
         <v>5</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="9">
         <v>45749</v>
       </c>
       <c r="G12" s="6" t="s">
@@ -1687,7 +1693,7 @@
       <c r="X12" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="Y12" s="6">
+      <c r="Y12" s="9">
         <v>45742</v>
       </c>
       <c r="Z12" s="6" t="s">
@@ -1696,7 +1702,7 @@
       <c r="AA12" s="6">
         <v>4.5</v>
       </c>
-      <c r="AB12" s="6">
+      <c r="AB12" s="9">
         <v>45768</v>
       </c>
       <c r="AC12" s="6" t="s">
@@ -1723,19 +1729,19 @@
       <c r="D13" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="9">
         <v>45749</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="Y13" s="6">
+      <c r="Y13" s="9">
         <v>45742</v>
       </c>
       <c r="Z13" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AB13" s="6">
+      <c r="AB13" s="9">
         <v>45768</v>
       </c>
       <c r="AC13" s="6" t="s">
@@ -1759,7 +1765,7 @@
       <c r="E14" s="6">
         <v>5</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="9">
         <v>45749</v>
       </c>
       <c r="G14" s="6" t="s">
@@ -1771,7 +1777,7 @@
       <c r="X14" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="Y14" s="6">
+      <c r="Y14" s="9">
         <v>45742</v>
       </c>
       <c r="Z14" s="6" t="s">
@@ -1780,7 +1786,7 @@
       <c r="AA14" s="6">
         <v>1</v>
       </c>
-      <c r="AB14" s="6">
+      <c r="AB14" s="9">
         <v>45768</v>
       </c>
       <c r="AC14" s="6" t="s">
@@ -1810,7 +1816,7 @@
       <c r="E15" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="9">
         <v>45749</v>
       </c>
       <c r="G15" s="6" t="s">
@@ -1819,7 +1825,7 @@
       <c r="W15" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="Y15" s="6">
+      <c r="Y15" s="9">
         <v>45742</v>
       </c>
       <c r="Z15" s="6" t="s">
@@ -1828,7 +1834,7 @@
       <c r="AA15" s="6">
         <v>4.5</v>
       </c>
-      <c r="AB15" s="6">
+      <c r="AB15" s="9">
         <v>45768</v>
       </c>
       <c r="AC15" s="6" t="s">
@@ -1858,7 +1864,7 @@
       <c r="E16" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="9">
         <v>45749</v>
       </c>
       <c r="G16" s="6" t="s">
@@ -1867,7 +1873,7 @@
       <c r="W16" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="Y16" s="6">
+      <c r="Y16" s="9">
         <v>45742</v>
       </c>
       <c r="Z16" s="6" t="s">
@@ -1876,7 +1882,7 @@
       <c r="AA16" s="6">
         <v>1</v>
       </c>
-      <c r="AB16" s="6">
+      <c r="AB16" s="9">
         <v>45768</v>
       </c>
       <c r="AC16" s="6" t="s">
@@ -1903,19 +1909,19 @@
       <c r="D17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="9">
         <v>45749</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="Y17" s="6">
+      <c r="Y17" s="9">
         <v>45742</v>
       </c>
       <c r="Z17" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AB17" s="6">
+      <c r="AB17" s="9">
         <v>45768</v>
       </c>
       <c r="AC17" s="6" t="s">
@@ -1939,7 +1945,7 @@
       <c r="E18" s="6">
         <v>4.2</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="9">
         <v>45749</v>
       </c>
       <c r="G18" s="6" t="s">
@@ -1951,7 +1957,7 @@
       <c r="X18" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="Y18" s="6">
+      <c r="Y18" s="9">
         <v>45742</v>
       </c>
       <c r="Z18" s="6" t="s">
@@ -1960,7 +1966,7 @@
       <c r="AA18" s="6">
         <v>4.5</v>
       </c>
-      <c r="AB18" s="6">
+      <c r="AB18" s="9">
         <v>45768</v>
       </c>
       <c r="AC18" s="6" t="s">
@@ -1990,7 +1996,7 @@
       <c r="E19" s="6">
         <v>4</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="9">
         <v>45749</v>
       </c>
       <c r="G19" s="6" t="s">
@@ -1999,7 +2005,7 @@
       <c r="H19" s="6">
         <v>1</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="9">
         <v>45769</v>
       </c>
       <c r="J19" s="6" t="s">
@@ -2011,7 +2017,7 @@
       <c r="X19" s="6">
         <v>3.6</v>
       </c>
-      <c r="Y19" s="6">
+      <c r="Y19" s="9">
         <v>45742</v>
       </c>
       <c r="Z19" s="6" t="s">
@@ -2041,7 +2047,7 @@
       <c r="E20" s="6">
         <v>1</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="9">
         <v>45749</v>
       </c>
       <c r="G20" s="6" t="s">
@@ -2050,7 +2056,7 @@
       <c r="H20" s="6">
         <v>1</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="9">
         <v>45769</v>
       </c>
       <c r="J20" s="6" t="s">
@@ -2062,7 +2068,7 @@
       <c r="X20" s="6">
         <v>3.6</v>
       </c>
-      <c r="Y20" s="6">
+      <c r="Y20" s="9">
         <v>45742</v>
       </c>
       <c r="Z20" s="6" t="s">
@@ -2092,13 +2098,13 @@
       <c r="E21" s="6">
         <v>5</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="9">
         <v>45749</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="9">
         <v>45769</v>
       </c>
       <c r="J21" s="6" t="s">
@@ -2110,7 +2116,7 @@
       <c r="X21" s="6">
         <v>3</v>
       </c>
-      <c r="Y21" s="6">
+      <c r="Y21" s="9">
         <v>45742</v>
       </c>
       <c r="Z21" s="6" t="s">
@@ -2140,13 +2146,13 @@
       <c r="E22" s="6">
         <v>4</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="9">
         <v>45749</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="9">
         <v>45769</v>
       </c>
       <c r="J22" s="6" t="s">
@@ -2158,7 +2164,7 @@
       <c r="X22" s="6">
         <v>3.4</v>
       </c>
-      <c r="Y22" s="6">
+      <c r="Y22" s="9">
         <v>45742</v>
       </c>
       <c r="Z22" s="6" t="s">
@@ -2188,7 +2194,7 @@
       <c r="E23" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="9">
         <v>45749</v>
       </c>
       <c r="G23" s="6" t="s">
@@ -2197,7 +2203,7 @@
       <c r="H23" s="6">
         <v>1</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="9">
         <v>45769</v>
       </c>
       <c r="J23" s="6" t="s">
@@ -2209,7 +2215,7 @@
       <c r="X23" s="6">
         <v>3.4</v>
       </c>
-      <c r="Y23" s="6">
+      <c r="Y23" s="9">
         <v>45742</v>
       </c>
       <c r="Z23" s="6" t="s">
@@ -2239,13 +2245,13 @@
       <c r="E24" s="6">
         <v>5</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="9">
         <v>45749</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="9">
         <v>45769</v>
       </c>
       <c r="J24" s="6" t="s">
@@ -2257,7 +2263,7 @@
       <c r="X24" s="6">
         <v>3</v>
       </c>
-      <c r="Y24" s="6">
+      <c r="Y24" s="9">
         <v>45742</v>
       </c>
       <c r="Z24" s="6" t="s">
@@ -2287,13 +2293,13 @@
       <c r="E25" s="6">
         <v>5</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="9">
         <v>45749</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="9">
         <v>45769</v>
       </c>
       <c r="J25" s="6" t="s">
@@ -2305,7 +2311,7 @@
       <c r="X25" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="Y25" s="6">
+      <c r="Y25" s="9">
         <v>45742</v>
       </c>
       <c r="Z25" s="6" t="s">
@@ -2335,13 +2341,13 @@
       <c r="E26" s="6">
         <v>5</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="9">
         <v>45749</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="9">
         <v>45769</v>
       </c>
       <c r="J26" s="6" t="s">
@@ -2353,7 +2359,7 @@
       <c r="X26" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="Y26" s="6">
+      <c r="Y26" s="9">
         <v>45742</v>
       </c>
       <c r="Z26" s="6" t="s">
@@ -2383,13 +2389,13 @@
       <c r="E27" s="6">
         <v>5</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="9">
         <v>45749</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="9">
         <v>45769</v>
       </c>
       <c r="J27" s="6" t="s">
@@ -2401,7 +2407,7 @@
       <c r="X27" s="6">
         <v>3.6</v>
       </c>
-      <c r="Y27" s="6">
+      <c r="Y27" s="9">
         <v>45742</v>
       </c>
       <c r="Z27" s="6" t="s">
@@ -2431,13 +2437,13 @@
       <c r="E28" s="6">
         <v>5</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="9">
         <v>45749</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="9">
         <v>45769</v>
       </c>
       <c r="J28" s="6" t="s">
@@ -2449,7 +2455,7 @@
       <c r="X28" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="Y28" s="6">
+      <c r="Y28" s="9">
         <v>45742</v>
       </c>
       <c r="Z28" s="6" t="s">
@@ -2479,7 +2485,7 @@
       <c r="E29" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="9">
         <v>45749</v>
       </c>
       <c r="G29" s="6" t="s">
@@ -2488,7 +2494,7 @@
       <c r="H29" s="6">
         <v>1</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29" s="9">
         <v>45769</v>
       </c>
       <c r="J29" s="6" t="s">
@@ -2500,7 +2506,7 @@
       <c r="X29" s="6">
         <v>3.4</v>
       </c>
-      <c r="Y29" s="6">
+      <c r="Y29" s="9">
         <v>45742</v>
       </c>
       <c r="Z29" s="6" t="s">
@@ -2530,7 +2536,7 @@
       <c r="E30" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="9">
         <v>45749</v>
       </c>
       <c r="G30" s="6" t="s">
@@ -2539,7 +2545,7 @@
       <c r="H30" s="6">
         <v>1</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="9">
         <v>45769</v>
       </c>
       <c r="J30" s="6" t="s">
@@ -2551,7 +2557,7 @@
       <c r="X30" s="6">
         <v>3.6</v>
       </c>
-      <c r="Y30" s="6">
+      <c r="Y30" s="9">
         <v>45742</v>
       </c>
       <c r="Z30" s="6" t="s">
@@ -2581,7 +2587,7 @@
       <c r="E31" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="9">
         <v>45749</v>
       </c>
       <c r="G31" s="6" t="s">
@@ -2590,7 +2596,7 @@
       <c r="H31" s="6">
         <v>1</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31" s="9">
         <v>45769</v>
       </c>
       <c r="J31" s="6" t="s">
@@ -2602,7 +2608,7 @@
       <c r="X31" s="6">
         <v>3.4</v>
       </c>
-      <c r="Y31" s="6">
+      <c r="Y31" s="9">
         <v>45742</v>
       </c>
       <c r="Z31" s="6" t="s">
@@ -2632,13 +2638,13 @@
       <c r="E32" s="6">
         <v>5</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="9">
         <v>45749</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="9">
         <v>45769</v>
       </c>
       <c r="J32" s="6" t="s">
@@ -2650,7 +2656,7 @@
       <c r="X32" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="Y32" s="6">
+      <c r="Y32" s="9">
         <v>45742</v>
       </c>
       <c r="Z32" s="6" t="s">
@@ -2680,13 +2686,13 @@
       <c r="E33" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="9">
         <v>45749</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33" s="9">
         <v>45769</v>
       </c>
       <c r="J33" s="6" t="s">
@@ -2695,7 +2701,7 @@
       <c r="W33" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="Y33" s="6">
+      <c r="Y33" s="9">
         <v>45742</v>
       </c>
       <c r="Z33" s="6" t="s">
@@ -2722,13 +2728,13 @@
       <c r="E34" s="6">
         <v>4.2</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="9">
         <v>45749</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="9">
         <v>45769</v>
       </c>
       <c r="J34" s="6" t="s">
@@ -2740,7 +2746,7 @@
       <c r="X34" s="6">
         <v>3</v>
       </c>
-      <c r="Y34" s="6">
+      <c r="Y34" s="9">
         <v>45742</v>
       </c>
       <c r="Z34" s="6" t="s">
@@ -2770,7 +2776,7 @@
       <c r="E35" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="9">
         <v>45749</v>
       </c>
       <c r="G35" s="6" t="s">
@@ -2779,7 +2785,7 @@
       <c r="H35" s="6">
         <v>1</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35" s="9">
         <v>45769</v>
       </c>
       <c r="J35" s="6" t="s">
@@ -2788,7 +2794,7 @@
       <c r="W35" s="6">
         <v>2.7</v>
       </c>
-      <c r="Y35" s="6">
+      <c r="Y35" s="9">
         <v>45742</v>
       </c>
       <c r="Z35" s="6" t="s">
@@ -2815,13 +2821,13 @@
       <c r="E36" s="6">
         <v>5</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="9">
         <v>45749</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36" s="9">
         <v>45769</v>
       </c>
       <c r="J36" s="6" t="s">
@@ -2833,7 +2839,7 @@
       <c r="X36" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="Y36" s="6">
+      <c r="Y36" s="9">
         <v>45742</v>
       </c>
       <c r="Z36" s="6" t="s">
@@ -2863,13 +2869,13 @@
       <c r="E37" s="6">
         <v>4.5</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="9">
         <v>45749</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I37" s="9">
         <v>45769</v>
       </c>
       <c r="J37" s="6" t="s">
@@ -2881,7 +2887,7 @@
       <c r="X37" s="6">
         <v>3.4</v>
       </c>
-      <c r="Y37" s="6">
+      <c r="Y37" s="9">
         <v>45742</v>
       </c>
       <c r="Z37" s="6" t="s">
@@ -2911,13 +2917,13 @@
       <c r="E38" s="6">
         <v>3.4</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="9">
         <v>45749</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38" s="9">
         <v>45762</v>
       </c>
       <c r="J38" s="6" t="s">
@@ -2929,7 +2935,7 @@
       <c r="X38" s="6">
         <v>3</v>
       </c>
-      <c r="Y38" s="6">
+      <c r="Y38" s="9">
         <v>45742</v>
       </c>
       <c r="Z38" s="6" t="s">
@@ -2959,7 +2965,7 @@
       <c r="E39" s="6">
         <v>4</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="9">
         <v>45749</v>
       </c>
       <c r="G39" s="6" t="s">
@@ -2968,7 +2974,7 @@
       <c r="H39" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39" s="9">
         <v>45762</v>
       </c>
       <c r="J39" s="6" t="s">
@@ -2980,7 +2986,7 @@
       <c r="X39" s="6">
         <v>4</v>
       </c>
-      <c r="Y39" s="6">
+      <c r="Y39" s="9">
         <v>45742</v>
       </c>
       <c r="Z39" s="6" t="s">
@@ -3010,13 +3016,13 @@
       <c r="E40" s="6">
         <v>1</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="9">
         <v>45749</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40" s="9">
         <v>45762</v>
       </c>
       <c r="J40" s="6" t="s">
@@ -3028,7 +3034,7 @@
       <c r="X40" s="6">
         <v>4</v>
       </c>
-      <c r="Y40" s="6">
+      <c r="Y40" s="9">
         <v>45742</v>
       </c>
       <c r="Z40" s="6" t="s">
@@ -3058,7 +3064,7 @@
       <c r="E41" s="6">
         <v>4</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="9">
         <v>45749</v>
       </c>
       <c r="G41" s="6" t="s">
@@ -3067,7 +3073,7 @@
       <c r="H41" s="6">
         <v>5</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41" s="9">
         <v>45762</v>
       </c>
       <c r="J41" s="6" t="s">
@@ -3079,7 +3085,7 @@
       <c r="X41" s="6">
         <v>4</v>
       </c>
-      <c r="Y41" s="6">
+      <c r="Y41" s="9">
         <v>45742</v>
       </c>
       <c r="Z41" s="6" t="s">
@@ -3109,7 +3115,7 @@
       <c r="E42" s="6">
         <v>4</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="9">
         <v>45749</v>
       </c>
       <c r="G42" s="6" t="s">
@@ -3118,7 +3124,7 @@
       <c r="H42" s="6">
         <v>5</v>
       </c>
-      <c r="I42" s="6">
+      <c r="I42" s="9">
         <v>45762</v>
       </c>
       <c r="J42" s="6" t="s">
@@ -3130,7 +3136,7 @@
       <c r="X42" s="6">
         <v>4</v>
       </c>
-      <c r="Y42" s="6">
+      <c r="Y42" s="9">
         <v>45742</v>
       </c>
       <c r="Z42" s="6" t="s">
@@ -3160,13 +3166,13 @@
       <c r="E43" s="6">
         <v>3</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="9">
         <v>45749</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I43" s="6">
+      <c r="I43" s="9">
         <v>45762</v>
       </c>
       <c r="J43" s="6" t="s">
@@ -3178,7 +3184,7 @@
       <c r="X43" s="6">
         <v>4</v>
       </c>
-      <c r="Y43" s="6">
+      <c r="Y43" s="9">
         <v>45742</v>
       </c>
       <c r="Z43" s="6" t="s">
@@ -3208,13 +3214,13 @@
       <c r="E44" s="6">
         <v>3</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="9">
         <v>45749</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I44" s="9">
         <v>45762</v>
       </c>
       <c r="J44" s="6" t="s">
@@ -3226,7 +3232,7 @@
       <c r="X44" s="6">
         <v>4</v>
       </c>
-      <c r="Y44" s="6">
+      <c r="Y44" s="9">
         <v>45742</v>
       </c>
       <c r="Z44" s="6" t="s">
@@ -3256,7 +3262,7 @@
       <c r="E45" s="6">
         <v>1</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="9">
         <v>45749</v>
       </c>
       <c r="G45" s="6" t="s">
@@ -3265,7 +3271,7 @@
       <c r="H45" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="I45" s="6">
+      <c r="I45" s="9">
         <v>45762</v>
       </c>
       <c r="J45" s="6" t="s">
@@ -3277,7 +3283,7 @@
       <c r="X45" s="6">
         <v>4</v>
       </c>
-      <c r="Y45" s="6">
+      <c r="Y45" s="9">
         <v>45742</v>
       </c>
       <c r="Z45" s="6" t="s">
@@ -3307,7 +3313,7 @@
       <c r="E46" s="6">
         <v>5</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="9">
         <v>45749</v>
       </c>
       <c r="G46" s="6" t="s">
@@ -3316,7 +3322,7 @@
       <c r="H46" s="6">
         <v>5</v>
       </c>
-      <c r="I46" s="6">
+      <c r="I46" s="9">
         <v>45762</v>
       </c>
       <c r="J46" s="6" t="s">
@@ -3328,7 +3334,7 @@
       <c r="X46" s="6">
         <v>4</v>
       </c>
-      <c r="Y46" s="6">
+      <c r="Y46" s="9">
         <v>45742</v>
       </c>
       <c r="Z46" s="6" t="s">
@@ -3357,7 +3363,7 @@
       <c r="E47" s="6">
         <v>4</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="9">
         <v>45749</v>
       </c>
       <c r="G47" s="6" t="s">
@@ -3366,7 +3372,7 @@
       <c r="H47" s="6">
         <v>5</v>
       </c>
-      <c r="I47" s="6">
+      <c r="I47" s="9">
         <v>45762</v>
       </c>
       <c r="J47" s="6" t="s">
@@ -3378,7 +3384,7 @@
       <c r="X47" s="6">
         <v>4</v>
       </c>
-      <c r="Y47" s="6">
+      <c r="Y47" s="9">
         <v>45742</v>
       </c>
       <c r="Z47" s="6" t="s">
@@ -3407,7 +3413,7 @@
       <c r="E48" s="6">
         <v>4.2</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="9">
         <v>45749</v>
       </c>
       <c r="G48" s="6" t="s">
@@ -3416,7 +3422,7 @@
       <c r="H48" s="6">
         <v>5</v>
       </c>
-      <c r="I48" s="6">
+      <c r="I48" s="9">
         <v>45762</v>
       </c>
       <c r="J48" s="6" t="s">
@@ -3428,7 +3434,7 @@
       <c r="X48" s="6">
         <v>3</v>
       </c>
-      <c r="Y48" s="6">
+      <c r="Y48" s="9">
         <v>45742</v>
       </c>
       <c r="Z48" s="6" t="s">
@@ -3454,13 +3460,13 @@
       <c r="D49" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="9">
         <v>45749</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I49" s="6">
+      <c r="I49" s="9">
         <v>45762</v>
       </c>
       <c r="J49" s="6" t="s">
@@ -3469,7 +3475,7 @@
       <c r="X49" s="6">
         <v>2.4</v>
       </c>
-      <c r="Y49" s="6">
+      <c r="Y49" s="9">
         <v>45742</v>
       </c>
       <c r="Z49" s="6" t="s">
@@ -3498,13 +3504,13 @@
       <c r="E50" s="6">
         <v>4</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="9">
         <v>45749</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I50" s="6">
+      <c r="I50" s="9">
         <v>45762</v>
       </c>
       <c r="J50" s="6" t="s">
@@ -3516,7 +3522,7 @@
       <c r="X50" s="6">
         <v>2.8</v>
       </c>
-      <c r="Y50" s="6">
+      <c r="Y50" s="9">
         <v>45742</v>
       </c>
       <c r="Z50" s="6" t="s">
@@ -3545,7 +3551,7 @@
       <c r="E51" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="9">
         <v>45749</v>
       </c>
       <c r="G51" s="6" t="s">
@@ -3554,7 +3560,7 @@
       <c r="H51" s="6">
         <v>4.5</v>
       </c>
-      <c r="I51" s="6">
+      <c r="I51" s="9">
         <v>45762</v>
       </c>
       <c r="J51" s="6" t="s">
@@ -3566,7 +3572,7 @@
       <c r="X51" s="6">
         <v>4</v>
       </c>
-      <c r="Y51" s="6">
+      <c r="Y51" s="9">
         <v>45742</v>
       </c>
       <c r="Z51" s="6" t="s">
@@ -3595,7 +3601,7 @@
       <c r="E52" s="6">
         <v>4</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="9">
         <v>45749</v>
       </c>
       <c r="G52" s="6" t="s">
@@ -3604,7 +3610,7 @@
       <c r="H52" s="6">
         <v>5</v>
       </c>
-      <c r="I52" s="6">
+      <c r="I52" s="9">
         <v>45762</v>
       </c>
       <c r="J52" s="6" t="s">
@@ -3616,7 +3622,7 @@
       <c r="X52" s="6">
         <v>4</v>
       </c>
-      <c r="Y52" s="6">
+      <c r="Y52" s="9">
         <v>45742</v>
       </c>
       <c r="Z52" s="6" t="s">
@@ -3645,7 +3651,7 @@
       <c r="E53" s="6">
         <v>4</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="9">
         <v>45749</v>
       </c>
       <c r="G53" s="6" t="s">
@@ -3654,7 +3660,7 @@
       <c r="H53" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="I53" s="6">
+      <c r="I53" s="9">
         <v>45762</v>
       </c>
       <c r="J53" s="6" t="s">
@@ -3666,7 +3672,7 @@
       <c r="X53" s="6">
         <v>4</v>
       </c>
-      <c r="Y53" s="6">
+      <c r="Y53" s="9">
         <v>45742</v>
       </c>
       <c r="Z53" s="6" t="s">
@@ -3695,7 +3701,7 @@
       <c r="E54" s="6">
         <v>3.6</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54" s="9">
         <v>45749</v>
       </c>
       <c r="G54" s="6" t="s">
@@ -3704,7 +3710,7 @@
       <c r="H54" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="I54" s="6">
+      <c r="I54" s="9">
         <v>45762</v>
       </c>
       <c r="J54" s="6" t="s">
@@ -3716,7 +3722,7 @@
       <c r="X54" s="6">
         <v>4</v>
       </c>
-      <c r="Y54" s="6">
+      <c r="Y54" s="9">
         <v>45742</v>
       </c>
       <c r="Z54" s="6" t="s">
@@ -3745,7 +3751,7 @@
       <c r="E55" s="6">
         <v>3.2</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F55" s="9">
         <v>45749</v>
       </c>
       <c r="G55" s="6" t="s">
@@ -3754,7 +3760,7 @@
       <c r="H55" s="6">
         <v>3.2</v>
       </c>
-      <c r="I55" s="6">
+      <c r="I55" s="9">
         <v>45762</v>
       </c>
       <c r="J55" s="6" t="s">
@@ -3766,7 +3772,7 @@
       <c r="X55" s="6">
         <v>4</v>
       </c>
-      <c r="Y55" s="6">
+      <c r="Y55" s="9">
         <v>45742</v>
       </c>
       <c r="Z55" s="6" t="s">
@@ -3792,19 +3798,19 @@
       <c r="D56" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F56" s="9">
         <v>45749</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I56" s="6">
+      <c r="I56" s="9">
         <v>45762</v>
       </c>
       <c r="J56" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="Y56" s="6">
+      <c r="Y56" s="9">
         <v>45742</v>
       </c>
       <c r="Z56" s="6" t="s">
@@ -3824,19 +3830,19 @@
       <c r="D57" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F57" s="9">
         <v>45749</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I57" s="6">
+      <c r="I57" s="9">
         <v>45762</v>
       </c>
       <c r="J57" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="Y57" s="6">
+      <c r="Y57" s="9">
         <v>45742</v>
       </c>
       <c r="Z57" s="6" t="s">
@@ -3859,7 +3865,7 @@
       <c r="E58" s="6">
         <v>3</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F58" s="9">
         <v>45749</v>
       </c>
       <c r="G58" s="6" t="s">
@@ -3868,7 +3874,7 @@
       <c r="H58" s="6">
         <v>5</v>
       </c>
-      <c r="I58" s="6">
+      <c r="I58" s="9">
         <v>45762</v>
       </c>
       <c r="J58" s="6" t="s">
@@ -3880,7 +3886,7 @@
       <c r="X58" s="6">
         <v>4</v>
       </c>
-      <c r="Y58" s="6">
+      <c r="Y58" s="9">
         <v>45743</v>
       </c>
       <c r="Z58" s="6" t="s">
@@ -3909,13 +3915,13 @@
       <c r="E59" s="6">
         <v>3.4</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F59" s="9">
         <v>45749</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="I59" s="6">
+      <c r="I59" s="9">
         <v>45762</v>
       </c>
       <c r="J59" s="6" t="s">
@@ -3927,7 +3933,7 @@
       <c r="X59" s="6">
         <v>3.6</v>
       </c>
-      <c r="Y59" s="6">
+      <c r="Y59" s="9">
         <v>45743</v>
       </c>
       <c r="Z59" s="6" t="s">
@@ -3956,13 +3962,13 @@
       <c r="E60" s="6">
         <v>3</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F60" s="9">
         <v>45749</v>
       </c>
       <c r="G60" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="I60" s="6">
+      <c r="I60" s="9">
         <v>45762</v>
       </c>
       <c r="J60" s="6" t="s">
@@ -3974,7 +3980,7 @@
       <c r="X60" s="6">
         <v>4.2</v>
       </c>
-      <c r="Y60" s="6">
+      <c r="Y60" s="9">
         <v>45743</v>
       </c>
       <c r="Z60" s="6" t="s">
@@ -4003,7 +4009,7 @@
       <c r="E61" s="6">
         <v>3.4</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F61" s="9">
         <v>45749</v>
       </c>
       <c r="G61" s="6" t="s">
@@ -4012,7 +4018,7 @@
       <c r="H61" s="6">
         <v>1</v>
       </c>
-      <c r="I61" s="6">
+      <c r="I61" s="9">
         <v>45762</v>
       </c>
       <c r="J61" s="6" t="s">
@@ -4024,7 +4030,7 @@
       <c r="X61" s="6">
         <v>4</v>
       </c>
-      <c r="Y61" s="6">
+      <c r="Y61" s="9">
         <v>45743</v>
       </c>
       <c r="Z61" s="6" t="s">
@@ -4053,7 +4059,7 @@
       <c r="E62" s="6">
         <v>3.4</v>
       </c>
-      <c r="F62" s="6">
+      <c r="F62" s="9">
         <v>45749</v>
       </c>
       <c r="G62" s="6" t="s">
@@ -4062,7 +4068,7 @@
       <c r="H62" s="6">
         <v>5</v>
       </c>
-      <c r="I62" s="6">
+      <c r="I62" s="9">
         <v>45762</v>
       </c>
       <c r="J62" s="6" t="s">
@@ -4074,7 +4080,7 @@
       <c r="X62" s="6">
         <v>3.6</v>
       </c>
-      <c r="Y62" s="6">
+      <c r="Y62" s="9">
         <v>45743</v>
       </c>
       <c r="Z62" s="6" t="s">
@@ -4103,7 +4109,7 @@
       <c r="E63" s="6">
         <v>3</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F63" s="9">
         <v>45749</v>
       </c>
       <c r="G63" s="6" t="s">
@@ -4112,7 +4118,7 @@
       <c r="H63" s="6">
         <v>5</v>
       </c>
-      <c r="I63" s="6">
+      <c r="I63" s="9">
         <v>45762</v>
       </c>
       <c r="J63" s="6" t="s">
@@ -4124,7 +4130,7 @@
       <c r="X63" s="6">
         <v>4</v>
       </c>
-      <c r="Y63" s="6">
+      <c r="Y63" s="9">
         <v>45743</v>
       </c>
       <c r="Z63" s="6" t="s">
@@ -4153,7 +4159,7 @@
       <c r="E64" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F64" s="9">
         <v>45749</v>
       </c>
       <c r="G64" s="6" t="s">
@@ -4162,7 +4168,7 @@
       <c r="H64" s="6">
         <v>1</v>
       </c>
-      <c r="I64" s="6">
+      <c r="I64" s="9">
         <v>45762</v>
       </c>
       <c r="J64" s="6" t="s">
@@ -4174,7 +4180,7 @@
       <c r="X64" s="6">
         <v>3.6</v>
       </c>
-      <c r="Y64" s="6">
+      <c r="Y64" s="9">
         <v>45743</v>
       </c>
       <c r="Z64" s="6" t="s">
@@ -4203,7 +4209,7 @@
       <c r="E65" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F65" s="9">
         <v>45749</v>
       </c>
       <c r="G65" s="6" t="s">
@@ -4212,7 +4218,7 @@
       <c r="H65" s="6">
         <v>5</v>
       </c>
-      <c r="I65" s="6">
+      <c r="I65" s="9">
         <v>45762</v>
       </c>
       <c r="J65" s="6" t="s">
@@ -4224,7 +4230,7 @@
       <c r="X65" s="6">
         <v>4</v>
       </c>
-      <c r="Y65" s="6">
+      <c r="Y65" s="9">
         <v>45743</v>
       </c>
       <c r="Z65" s="6" t="s">
@@ -4253,7 +4259,7 @@
       <c r="E66" s="6">
         <v>3</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F66" s="9">
         <v>45749</v>
       </c>
       <c r="G66" s="6" t="s">
@@ -4262,7 +4268,7 @@
       <c r="H66" s="6">
         <v>1</v>
       </c>
-      <c r="I66" s="6">
+      <c r="I66" s="9">
         <v>45762</v>
       </c>
       <c r="J66" s="6" t="s">
@@ -4274,7 +4280,7 @@
       <c r="X66" s="6">
         <v>4</v>
       </c>
-      <c r="Y66" s="6">
+      <c r="Y66" s="9">
         <v>45743</v>
       </c>
       <c r="Z66" s="6" t="s">
@@ -4303,7 +4309,7 @@
       <c r="E67" s="6">
         <v>4</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F67" s="9">
         <v>45749</v>
       </c>
       <c r="G67" s="6" t="s">
@@ -4312,7 +4318,7 @@
       <c r="H67" s="6">
         <v>1</v>
       </c>
-      <c r="I67" s="6">
+      <c r="I67" s="9">
         <v>45762</v>
       </c>
       <c r="J67" s="6" t="s">
@@ -4324,7 +4330,7 @@
       <c r="X67" s="6">
         <v>4.2</v>
       </c>
-      <c r="Y67" s="6">
+      <c r="Y67" s="9">
         <v>45743</v>
       </c>
       <c r="Z67" s="6" t="s">
@@ -4353,7 +4359,7 @@
       <c r="E68" s="6">
         <v>3.6</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F68" s="9">
         <v>45749</v>
       </c>
       <c r="G68" s="6" t="s">
@@ -4362,7 +4368,7 @@
       <c r="H68" s="6">
         <v>5</v>
       </c>
-      <c r="I68" s="6">
+      <c r="I68" s="9">
         <v>45762</v>
       </c>
       <c r="J68" s="6" t="s">
@@ -4374,7 +4380,7 @@
       <c r="X68" s="6">
         <v>4.2</v>
       </c>
-      <c r="Y68" s="6">
+      <c r="Y68" s="9">
         <v>45743</v>
       </c>
       <c r="Z68" s="6" t="s">
@@ -4403,7 +4409,7 @@
       <c r="E69" s="6">
         <v>3.4</v>
       </c>
-      <c r="F69" s="6">
+      <c r="F69" s="9">
         <v>45749</v>
       </c>
       <c r="G69" s="6" t="s">
@@ -4412,7 +4418,7 @@
       <c r="H69" s="6">
         <v>4.3</v>
       </c>
-      <c r="I69" s="6">
+      <c r="I69" s="9">
         <v>45762</v>
       </c>
       <c r="J69" s="6" t="s">
@@ -4424,7 +4430,7 @@
       <c r="X69" s="6">
         <v>4</v>
       </c>
-      <c r="Y69" s="6">
+      <c r="Y69" s="9">
         <v>45743</v>
       </c>
       <c r="Z69" s="6" t="s">
@@ -4453,7 +4459,7 @@
       <c r="E70" s="6">
         <v>1</v>
       </c>
-      <c r="F70" s="6">
+      <c r="F70" s="9">
         <v>45749</v>
       </c>
       <c r="G70" s="6" t="s">
@@ -4462,7 +4468,7 @@
       <c r="H70" s="6">
         <v>1</v>
       </c>
-      <c r="I70" s="6">
+      <c r="I70" s="9">
         <v>45762</v>
       </c>
       <c r="J70" s="6" t="s">
@@ -4474,7 +4480,7 @@
       <c r="X70" s="6">
         <v>4</v>
       </c>
-      <c r="Y70" s="6">
+      <c r="Y70" s="9">
         <v>45743</v>
       </c>
       <c r="Z70" s="6" t="s">
@@ -4503,7 +4509,7 @@
       <c r="E71" s="6">
         <v>5</v>
       </c>
-      <c r="F71" s="6">
+      <c r="F71" s="9">
         <v>45749</v>
       </c>
       <c r="G71" s="6" t="s">
@@ -4512,7 +4518,7 @@
       <c r="H71" s="6">
         <v>1</v>
       </c>
-      <c r="I71" s="6">
+      <c r="I71" s="9">
         <v>45762</v>
       </c>
       <c r="J71" s="6" t="s">
@@ -4524,7 +4530,7 @@
       <c r="X71" s="6">
         <v>4.2</v>
       </c>
-      <c r="Y71" s="6">
+      <c r="Y71" s="9">
         <v>45743</v>
       </c>
       <c r="Z71" s="6" t="s">
@@ -4553,7 +4559,7 @@
       <c r="E72" s="6">
         <v>4</v>
       </c>
-      <c r="F72" s="6">
+      <c r="F72" s="9">
         <v>45749</v>
       </c>
       <c r="G72" s="6" t="s">
@@ -4562,7 +4568,7 @@
       <c r="H72" s="6">
         <v>5</v>
       </c>
-      <c r="I72" s="6">
+      <c r="I72" s="9">
         <v>45762</v>
       </c>
       <c r="J72" s="6" t="s">
@@ -4574,7 +4580,7 @@
       <c r="X72" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="Y72" s="6">
+      <c r="Y72" s="9">
         <v>45743</v>
       </c>
       <c r="Z72" s="6" t="s">
@@ -4603,7 +4609,7 @@
       <c r="E73" s="6">
         <v>1</v>
       </c>
-      <c r="F73" s="6">
+      <c r="F73" s="9">
         <v>45749</v>
       </c>
       <c r="G73" s="6" t="s">
@@ -4612,7 +4618,7 @@
       <c r="H73" s="6">
         <v>4</v>
       </c>
-      <c r="I73" s="6">
+      <c r="I73" s="9">
         <v>45762</v>
       </c>
       <c r="J73" s="6" t="s">
@@ -4624,7 +4630,7 @@
       <c r="X73" s="6">
         <v>4</v>
       </c>
-      <c r="Y73" s="6">
+      <c r="Y73" s="9">
         <v>45743</v>
       </c>
       <c r="Z73" s="6" t="s">
@@ -4653,7 +4659,7 @@
       <c r="E74" s="6">
         <v>3</v>
       </c>
-      <c r="F74" s="6">
+      <c r="F74" s="9">
         <v>45749</v>
       </c>
       <c r="G74" s="6" t="s">
@@ -4662,7 +4668,7 @@
       <c r="H74" s="6">
         <v>1</v>
       </c>
-      <c r="I74" s="6">
+      <c r="I74" s="9">
         <v>45762</v>
       </c>
       <c r="J74" s="6" t="s">
@@ -4674,7 +4680,7 @@
       <c r="X74" s="6">
         <v>4</v>
       </c>
-      <c r="Y74" s="6">
+      <c r="Y74" s="9">
         <v>45743</v>
       </c>
       <c r="Z74" s="6" t="s">
@@ -4703,7 +4709,7 @@
       <c r="E75" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F75" s="6">
+      <c r="F75" s="9">
         <v>45749</v>
       </c>
       <c r="G75" s="6" t="s">
@@ -4712,7 +4718,7 @@
       <c r="H75" s="6">
         <v>1</v>
       </c>
-      <c r="I75" s="6">
+      <c r="I75" s="9">
         <v>45762</v>
       </c>
       <c r="J75" s="6" t="s">
@@ -4724,7 +4730,7 @@
       <c r="X75" s="6">
         <v>4</v>
       </c>
-      <c r="Y75" s="6">
+      <c r="Y75" s="9">
         <v>45743</v>
       </c>
       <c r="Z75" s="6" t="s">
@@ -4753,7 +4759,7 @@
       <c r="E76" s="6">
         <v>4</v>
       </c>
-      <c r="F76" s="6">
+      <c r="F76" s="9">
         <v>45749</v>
       </c>
       <c r="G76" s="6" t="s">
@@ -4762,7 +4768,7 @@
       <c r="H76" s="6">
         <v>5</v>
       </c>
-      <c r="I76" s="6">
+      <c r="I76" s="9">
         <v>45762</v>
       </c>
       <c r="J76" s="6" t="s">
@@ -4774,7 +4780,7 @@
       <c r="X76" s="6">
         <v>3.6</v>
       </c>
-      <c r="Y76" s="6">
+      <c r="Y76" s="9">
         <v>45743</v>
       </c>
       <c r="Z76" s="6" t="s">
@@ -4803,7 +4809,7 @@
       <c r="E77" s="6">
         <v>3</v>
       </c>
-      <c r="F77" s="6">
+      <c r="F77" s="9">
         <v>45749</v>
       </c>
       <c r="G77" s="6" t="s">
@@ -4812,7 +4818,7 @@
       <c r="H77" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I77" s="6">
+      <c r="I77" s="9">
         <v>45768</v>
       </c>
       <c r="J77" s="6" t="s">
@@ -4824,7 +4830,7 @@
       <c r="X77" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="Y77" s="6">
+      <c r="Y77" s="9">
         <v>45742</v>
       </c>
       <c r="Z77" s="6" t="s">
@@ -4853,7 +4859,7 @@
       <c r="E78" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F78" s="6">
+      <c r="F78" s="9">
         <v>45749</v>
       </c>
       <c r="G78" s="6" t="s">
@@ -4862,7 +4868,7 @@
       <c r="H78" s="6">
         <v>5</v>
       </c>
-      <c r="I78" s="6">
+      <c r="I78" s="9">
         <v>45768</v>
       </c>
       <c r="J78" s="6" t="s">
@@ -4874,7 +4880,7 @@
       <c r="X78" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="Y78" s="6">
+      <c r="Y78" s="9">
         <v>45742</v>
       </c>
       <c r="Z78" s="6" t="s">
@@ -4903,7 +4909,7 @@
       <c r="E79" s="6">
         <v>4</v>
       </c>
-      <c r="F79" s="6">
+      <c r="F79" s="9">
         <v>45749</v>
       </c>
       <c r="G79" s="6" t="s">
@@ -4912,7 +4918,7 @@
       <c r="H79" s="6">
         <v>5</v>
       </c>
-      <c r="I79" s="6">
+      <c r="I79" s="9">
         <v>45768</v>
       </c>
       <c r="J79" s="6" t="s">
@@ -4921,7 +4927,7 @@
       <c r="W79" s="6">
         <v>4.5</v>
       </c>
-      <c r="Y79" s="6">
+      <c r="Y79" s="9">
         <v>45742</v>
       </c>
       <c r="Z79" s="6" t="s">
@@ -4947,13 +4953,13 @@
       <c r="E80" s="6">
         <v>4</v>
       </c>
-      <c r="F80" s="6">
+      <c r="F80" s="9">
         <v>45749</v>
       </c>
       <c r="G80" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="I80" s="6">
+      <c r="I80" s="9">
         <v>45768</v>
       </c>
       <c r="J80" s="6" t="s">
@@ -4965,7 +4971,7 @@
       <c r="X80" s="6">
         <v>4</v>
       </c>
-      <c r="Y80" s="6">
+      <c r="Y80" s="9">
         <v>45742</v>
       </c>
       <c r="Z80" s="6" t="s">
@@ -4994,7 +5000,7 @@
       <c r="E81" s="6">
         <v>3.6</v>
       </c>
-      <c r="F81" s="6">
+      <c r="F81" s="9">
         <v>45749</v>
       </c>
       <c r="G81" s="6" t="s">
@@ -5003,7 +5009,7 @@
       <c r="H81" s="6">
         <v>1</v>
       </c>
-      <c r="I81" s="6">
+      <c r="I81" s="9">
         <v>45768</v>
       </c>
       <c r="J81" s="6" t="s">
@@ -5015,7 +5021,7 @@
       <c r="X81" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="Y81" s="6">
+      <c r="Y81" s="9">
         <v>45742</v>
       </c>
       <c r="Z81" s="6" t="s">
@@ -5044,7 +5050,7 @@
       <c r="E82" s="6">
         <v>3.8</v>
       </c>
-      <c r="F82" s="6">
+      <c r="F82" s="9">
         <v>45749</v>
       </c>
       <c r="G82" s="6" t="s">
@@ -5053,7 +5059,7 @@
       <c r="H82" s="6">
         <v>5</v>
       </c>
-      <c r="I82" s="6">
+      <c r="I82" s="9">
         <v>45768</v>
       </c>
       <c r="J82" s="6" t="s">
@@ -5065,7 +5071,7 @@
       <c r="X82" s="6">
         <v>4</v>
       </c>
-      <c r="Y82" s="6">
+      <c r="Y82" s="9">
         <v>45742</v>
       </c>
       <c r="Z82" s="6" t="s">
@@ -5094,7 +5100,7 @@
       <c r="E83" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F83" s="6">
+      <c r="F83" s="9">
         <v>45749</v>
       </c>
       <c r="G83" s="6" t="s">
@@ -5103,7 +5109,7 @@
       <c r="H83" s="6">
         <v>1</v>
       </c>
-      <c r="I83" s="6">
+      <c r="I83" s="9">
         <v>45768</v>
       </c>
       <c r="J83" s="6" t="s">
@@ -5115,7 +5121,7 @@
       <c r="X83" s="6">
         <v>3.4</v>
       </c>
-      <c r="Y83" s="6">
+      <c r="Y83" s="9">
         <v>45742</v>
       </c>
       <c r="Z83" s="6" t="s">
@@ -5144,13 +5150,13 @@
       <c r="E84" s="6">
         <v>3.6</v>
       </c>
-      <c r="F84" s="6">
+      <c r="F84" s="9">
         <v>45749</v>
       </c>
       <c r="G84" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="I84" s="6">
+      <c r="I84" s="9">
         <v>45768</v>
       </c>
       <c r="J84" s="6" t="s">
@@ -5159,7 +5165,7 @@
       <c r="W84" s="6">
         <v>3.6</v>
       </c>
-      <c r="Y84" s="6">
+      <c r="Y84" s="9">
         <v>45742</v>
       </c>
       <c r="Z84" s="6" t="s">
@@ -5182,7 +5188,7 @@
       <c r="D85" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F85" s="6">
+      <c r="F85" s="9">
         <v>45749</v>
       </c>
       <c r="G85" s="6" t="s">
@@ -5191,7 +5197,7 @@
       <c r="H85" s="6">
         <v>5</v>
       </c>
-      <c r="I85" s="6">
+      <c r="I85" s="9">
         <v>45768</v>
       </c>
       <c r="J85" s="6" t="s">
@@ -5203,7 +5209,7 @@
       <c r="X85" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="Y85" s="6">
+      <c r="Y85" s="9">
         <v>45742</v>
       </c>
       <c r="Z85" s="6" t="s">
@@ -5232,7 +5238,7 @@
       <c r="E86" s="6">
         <v>3.6</v>
       </c>
-      <c r="F86" s="6">
+      <c r="F86" s="9">
         <v>45749</v>
       </c>
       <c r="G86" s="6" t="s">
@@ -5241,7 +5247,7 @@
       <c r="H86" s="6">
         <v>1</v>
       </c>
-      <c r="I86" s="6">
+      <c r="I86" s="9">
         <v>45768</v>
       </c>
       <c r="J86" s="6" t="s">
@@ -5253,7 +5259,7 @@
       <c r="X86" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="Y86" s="6">
+      <c r="Y86" s="9">
         <v>45742</v>
       </c>
       <c r="Z86" s="6" t="s">
@@ -5282,7 +5288,7 @@
       <c r="E87" s="6">
         <v>4</v>
       </c>
-      <c r="F87" s="6">
+      <c r="F87" s="9">
         <v>45749</v>
       </c>
       <c r="G87" s="6" t="s">
@@ -5291,7 +5297,7 @@
       <c r="H87" s="6">
         <v>5</v>
       </c>
-      <c r="I87" s="6">
+      <c r="I87" s="9">
         <v>45768</v>
       </c>
       <c r="J87" s="6" t="s">
@@ -5303,7 +5309,7 @@
       <c r="X87" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="Y87" s="6">
+      <c r="Y87" s="9">
         <v>45742</v>
       </c>
       <c r="Z87" s="6" t="s">
@@ -5332,7 +5338,7 @@
       <c r="E88" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F88" s="6">
+      <c r="F88" s="9">
         <v>45749</v>
       </c>
       <c r="G88" s="6" t="s">
@@ -5341,7 +5347,7 @@
       <c r="H88" s="6">
         <v>5</v>
       </c>
-      <c r="I88" s="6">
+      <c r="I88" s="9">
         <v>45768</v>
       </c>
       <c r="J88" s="6" t="s">
@@ -5353,7 +5359,7 @@
       <c r="X88" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="Y88" s="6">
+      <c r="Y88" s="9">
         <v>45742</v>
       </c>
       <c r="Z88" s="6" t="s">
@@ -5382,7 +5388,7 @@
       <c r="E89" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F89" s="6">
+      <c r="F89" s="9">
         <v>45749</v>
       </c>
       <c r="G89" s="6" t="s">
@@ -5391,7 +5397,7 @@
       <c r="H89" s="6">
         <v>1</v>
       </c>
-      <c r="I89" s="6">
+      <c r="I89" s="9">
         <v>45768</v>
       </c>
       <c r="J89" s="6" t="s">
@@ -5403,7 +5409,7 @@
       <c r="X89" s="6">
         <v>3.4</v>
       </c>
-      <c r="Y89" s="6">
+      <c r="Y89" s="9">
         <v>45742</v>
       </c>
       <c r="Z89" s="6" t="s">
@@ -5432,7 +5438,7 @@
       <c r="E90" s="6">
         <v>5</v>
       </c>
-      <c r="F90" s="6">
+      <c r="F90" s="9">
         <v>45749</v>
       </c>
       <c r="G90" s="6" t="s">
@@ -5441,7 +5447,7 @@
       <c r="H90" s="6">
         <v>5</v>
       </c>
-      <c r="I90" s="6">
+      <c r="I90" s="9">
         <v>45768</v>
       </c>
       <c r="J90" s="6" t="s">
@@ -5453,7 +5459,7 @@
       <c r="X90" s="6">
         <v>3.4</v>
       </c>
-      <c r="Y90" s="6">
+      <c r="Y90" s="9">
         <v>45742</v>
       </c>
       <c r="Z90" s="6" t="s">
@@ -5482,7 +5488,7 @@
       <c r="E91" s="6">
         <v>3</v>
       </c>
-      <c r="F91" s="6">
+      <c r="F91" s="9">
         <v>45749</v>
       </c>
       <c r="G91" s="6" t="s">
@@ -5491,7 +5497,7 @@
       <c r="H91" s="6">
         <v>1</v>
       </c>
-      <c r="I91" s="6">
+      <c r="I91" s="9">
         <v>45768</v>
       </c>
       <c r="J91" s="6" t="s">
@@ -5503,7 +5509,7 @@
       <c r="X91" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="Y91" s="6">
+      <c r="Y91" s="9">
         <v>45742</v>
       </c>
       <c r="Z91" s="6" t="s">
@@ -5532,7 +5538,7 @@
       <c r="E92" s="6">
         <v>3.6</v>
       </c>
-      <c r="F92" s="6">
+      <c r="F92" s="9">
         <v>45749</v>
       </c>
       <c r="G92" s="6" t="s">
@@ -5541,7 +5547,7 @@
       <c r="H92" s="6">
         <v>1</v>
       </c>
-      <c r="I92" s="6">
+      <c r="I92" s="9">
         <v>45768</v>
       </c>
       <c r="J92" s="6" t="s">
@@ -5553,7 +5559,7 @@
       <c r="X92" s="6">
         <v>4</v>
       </c>
-      <c r="Y92" s="6">
+      <c r="Y92" s="9">
         <v>45742</v>
       </c>
       <c r="Z92" s="6" t="s">
@@ -5579,7 +5585,7 @@
       <c r="D93" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F93" s="6">
+      <c r="F93" s="9">
         <v>45749</v>
       </c>
       <c r="G93" s="6" t="s">
@@ -5588,7 +5594,7 @@
       <c r="H93" s="6">
         <v>5</v>
       </c>
-      <c r="I93" s="6">
+      <c r="I93" s="9">
         <v>45768</v>
       </c>
       <c r="J93" s="6" t="s">
@@ -5600,7 +5606,7 @@
       <c r="X93" s="6">
         <v>4</v>
       </c>
-      <c r="Y93" s="6">
+      <c r="Y93" s="9">
         <v>45742</v>
       </c>
       <c r="Z93" s="6" t="s">
@@ -5629,7 +5635,7 @@
       <c r="E94" s="6">
         <v>3.6</v>
       </c>
-      <c r="F94" s="6">
+      <c r="F94" s="9">
         <v>45749</v>
       </c>
       <c r="G94" s="6" t="s">
@@ -5638,7 +5644,7 @@
       <c r="H94" s="6">
         <v>1</v>
       </c>
-      <c r="I94" s="6">
+      <c r="I94" s="9">
         <v>45768</v>
       </c>
       <c r="J94" s="6" t="s">
@@ -5650,7 +5656,7 @@
       <c r="X94" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="Y94" s="6">
+      <c r="Y94" s="9">
         <v>45742</v>
       </c>
       <c r="Z94" s="6" t="s">
@@ -5676,19 +5682,19 @@
       <c r="D95" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F95" s="6">
+      <c r="F95" s="9">
         <v>45749</v>
       </c>
       <c r="G95" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="I95" s="6">
+      <c r="I95" s="9">
         <v>45768</v>
       </c>
       <c r="J95" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="Y95" s="6">
+      <c r="Y95" s="9">
         <v>45742</v>
       </c>
       <c r="Z95" s="6" t="s">
@@ -5711,7 +5717,7 @@
       <c r="E96" s="6">
         <v>5</v>
       </c>
-      <c r="F96" s="6">
+      <c r="F96" s="9">
         <v>45749</v>
       </c>
       <c r="G96" s="6" t="s">
@@ -5720,7 +5726,7 @@
       <c r="H96" s="6">
         <v>5</v>
       </c>
-      <c r="I96" s="6">
+      <c r="I96" s="9">
         <v>45768</v>
       </c>
       <c r="J96" s="6" t="s">
@@ -5732,7 +5738,7 @@
       <c r="X96" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="Y96" s="6">
+      <c r="Y96" s="9">
         <v>45742</v>
       </c>
       <c r="Z96" s="6" t="s">
@@ -5761,7 +5767,7 @@
       <c r="E97" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F97" s="6">
+      <c r="F97" s="9">
         <v>45749</v>
       </c>
       <c r="G97" s="6" t="s">
@@ -5770,7 +5776,7 @@
       <c r="H97" s="6">
         <v>5</v>
       </c>
-      <c r="I97" s="6">
+      <c r="I97" s="9">
         <v>45768</v>
       </c>
       <c r="J97" s="6" t="s">
@@ -5782,7 +5788,7 @@
       <c r="X97" s="6">
         <v>3.4</v>
       </c>
-      <c r="Y97" s="6">
+      <c r="Y97" s="9">
         <v>45742</v>
       </c>
       <c r="Z97" s="6" t="s">
@@ -5811,7 +5817,7 @@
       <c r="E98" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F98" s="6">
+      <c r="F98" s="9">
         <v>45749</v>
       </c>
       <c r="G98" s="6" t="s">
@@ -5820,7 +5826,7 @@
       <c r="H98" s="6">
         <v>5</v>
       </c>
-      <c r="I98" s="6">
+      <c r="I98" s="9">
         <v>45768</v>
       </c>
       <c r="J98" s="6" t="s">
@@ -5832,7 +5838,7 @@
       <c r="X98" s="6">
         <v>4.2</v>
       </c>
-      <c r="Y98" s="6">
+      <c r="Y98" s="9">
         <v>45742</v>
       </c>
       <c r="Z98" s="6" t="s">
@@ -5861,7 +5867,7 @@
       <c r="E99" s="6">
         <v>3.8</v>
       </c>
-      <c r="F99" s="6">
+      <c r="F99" s="9">
         <v>45749</v>
       </c>
       <c r="G99" s="6" t="s">
@@ -5870,7 +5876,7 @@
       <c r="H99" s="6">
         <v>5</v>
       </c>
-      <c r="I99" s="6">
+      <c r="I99" s="9">
         <v>45768</v>
       </c>
       <c r="J99" s="6" t="s">
@@ -5882,7 +5888,7 @@
       <c r="X99" s="6">
         <v>4.2</v>
       </c>
-      <c r="Y99" s="6">
+      <c r="Y99" s="9">
         <v>45742</v>
       </c>
       <c r="Z99" s="6" t="s">
@@ -5911,13 +5917,13 @@
       <c r="E100" s="6">
         <v>3</v>
       </c>
-      <c r="F100" s="6">
+      <c r="F100" s="9">
         <v>45749</v>
       </c>
       <c r="G100" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="I100" s="6">
+      <c r="I100" s="9">
         <v>45768</v>
       </c>
       <c r="J100" s="6" t="s">
@@ -5929,7 +5935,7 @@
       <c r="X100" s="6">
         <v>4.2</v>
       </c>
-      <c r="Y100" s="6">
+      <c r="Y100" s="9">
         <v>45742</v>
       </c>
       <c r="Z100" s="6" t="s">
@@ -5958,13 +5964,13 @@
       <c r="E101" s="6">
         <v>4</v>
       </c>
-      <c r="F101" s="6">
+      <c r="F101" s="9">
         <v>45749</v>
       </c>
       <c r="G101" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="I101" s="6">
+      <c r="I101" s="9">
         <v>45768</v>
       </c>
       <c r="J101" s="6" t="s">
@@ -5976,7 +5982,7 @@
       <c r="X101" s="6">
         <v>4</v>
       </c>
-      <c r="Y101" s="6">
+      <c r="Y101" s="9">
         <v>45742</v>
       </c>
       <c r="Z101" s="6" t="s">
@@ -6005,13 +6011,13 @@
       <c r="E102" s="6">
         <v>3</v>
       </c>
-      <c r="F102" s="6">
+      <c r="F102" s="9">
         <v>45749</v>
       </c>
       <c r="G102" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="I102" s="6">
+      <c r="I102" s="9">
         <v>45768</v>
       </c>
       <c r="J102" s="6" t="s">
@@ -6023,7 +6029,7 @@
       <c r="X102" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="Y102" s="6">
+      <c r="Y102" s="9">
         <v>45742</v>
       </c>
       <c r="Z102" s="6" t="s">
@@ -6052,7 +6058,7 @@
       <c r="E103" s="6">
         <v>3.4</v>
       </c>
-      <c r="F103" s="6">
+      <c r="F103" s="9">
         <v>45749</v>
       </c>
       <c r="G103" s="6" t="s">
@@ -6061,7 +6067,7 @@
       <c r="H103" s="6">
         <v>5</v>
       </c>
-      <c r="I103" s="6">
+      <c r="I103" s="9">
         <v>45768</v>
       </c>
       <c r="J103" s="6" t="s">
@@ -6073,7 +6079,7 @@
       <c r="X103" s="6">
         <v>4</v>
       </c>
-      <c r="Y103" s="6">
+      <c r="Y103" s="9">
         <v>45742</v>
       </c>
       <c r="Z103" s="6" t="s">
@@ -6102,7 +6108,7 @@
       <c r="E104" s="6">
         <v>3</v>
       </c>
-      <c r="F104" s="6">
+      <c r="F104" s="9">
         <v>45749</v>
       </c>
       <c r="G104" s="6" t="s">
@@ -6111,7 +6117,7 @@
       <c r="H104" s="6">
         <v>1</v>
       </c>
-      <c r="I104" s="6">
+      <c r="I104" s="9">
         <v>45768</v>
       </c>
       <c r="J104" s="6" t="s">
@@ -6123,7 +6129,7 @@
       <c r="X104" s="6">
         <v>3</v>
       </c>
-      <c r="Y104" s="6">
+      <c r="Y104" s="9">
         <v>45742</v>
       </c>
       <c r="Z104" s="6" t="s">
@@ -6152,7 +6158,7 @@
       <c r="E105" s="6">
         <v>5</v>
       </c>
-      <c r="F105" s="6">
+      <c r="F105" s="9">
         <v>45749</v>
       </c>
       <c r="G105" s="6" t="s">
@@ -6161,7 +6167,7 @@
       <c r="H105" s="6">
         <v>1</v>
       </c>
-      <c r="I105" s="6">
+      <c r="I105" s="9">
         <v>45768</v>
       </c>
       <c r="J105" s="6" t="s">
@@ -6173,7 +6179,7 @@
       <c r="X105" s="6">
         <v>4.2</v>
       </c>
-      <c r="Y105" s="6">
+      <c r="Y105" s="9">
         <v>45742</v>
       </c>
       <c r="Z105" s="6" t="s">
@@ -6202,7 +6208,7 @@
       <c r="E106" s="6">
         <v>3</v>
       </c>
-      <c r="F106" s="6">
+      <c r="F106" s="9">
         <v>45749</v>
       </c>
       <c r="G106" s="6" t="s">
@@ -6211,7 +6217,7 @@
       <c r="H106" s="6">
         <v>5</v>
       </c>
-      <c r="I106" s="6">
+      <c r="I106" s="9">
         <v>45768</v>
       </c>
       <c r="J106" s="6" t="s">
@@ -6223,7 +6229,7 @@
       <c r="X106" s="6">
         <v>4</v>
       </c>
-      <c r="Y106" s="6">
+      <c r="Y106" s="9">
         <v>45742</v>
       </c>
       <c r="Z106" s="6" t="s">
@@ -6252,7 +6258,7 @@
       <c r="E107" s="6">
         <v>4.2</v>
       </c>
-      <c r="F107" s="6">
+      <c r="F107" s="9">
         <v>45749</v>
       </c>
       <c r="G107" s="6" t="s">
@@ -6261,7 +6267,7 @@
       <c r="H107" s="6">
         <v>5</v>
       </c>
-      <c r="I107" s="6">
+      <c r="I107" s="9">
         <v>45768</v>
       </c>
       <c r="J107" s="6" t="s">
@@ -6273,7 +6279,7 @@
       <c r="X107" s="6">
         <v>4</v>
       </c>
-      <c r="Y107" s="6">
+      <c r="Y107" s="9">
         <v>45742</v>
       </c>
       <c r="Z107" s="6" t="s">
@@ -6302,7 +6308,7 @@
       <c r="E108" s="6">
         <v>3.4</v>
       </c>
-      <c r="F108" s="6">
+      <c r="F108" s="9">
         <v>45749</v>
       </c>
       <c r="G108" s="6" t="s">
@@ -6311,7 +6317,7 @@
       <c r="H108" s="6">
         <v>1</v>
       </c>
-      <c r="I108" s="6">
+      <c r="I108" s="9">
         <v>45768</v>
       </c>
       <c r="J108" s="6" t="s">
@@ -6323,7 +6329,7 @@
       <c r="X108" s="6">
         <v>4</v>
       </c>
-      <c r="Y108" s="6">
+      <c r="Y108" s="9">
         <v>45742</v>
       </c>
       <c r="Z108" s="6" t="s">
@@ -6349,13 +6355,13 @@
       <c r="D109" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F109" s="6">
+      <c r="F109" s="9">
         <v>45749</v>
       </c>
       <c r="G109" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="I109" s="6">
+      <c r="I109" s="9">
         <v>45768</v>
       </c>
       <c r="J109" s="6" t="s">
@@ -6364,7 +6370,7 @@
       <c r="X109" s="6">
         <v>2.8</v>
       </c>
-      <c r="Y109" s="6">
+      <c r="Y109" s="9">
         <v>45742</v>
       </c>
       <c r="Z109" s="6" t="s">
@@ -6390,7 +6396,7 @@
       <c r="D110" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F110" s="6">
+      <c r="F110" s="9">
         <v>45749</v>
       </c>
       <c r="G110" s="6" t="s">
@@ -6399,7 +6405,7 @@
       <c r="H110" s="6">
         <v>1</v>
       </c>
-      <c r="I110" s="6">
+      <c r="I110" s="9">
         <v>45768</v>
       </c>
       <c r="J110" s="6" t="s">
@@ -6411,7 +6417,7 @@
       <c r="X110" s="6">
         <v>4</v>
       </c>
-      <c r="Y110" s="6">
+      <c r="Y110" s="9">
         <v>45742</v>
       </c>
       <c r="Z110" s="6" t="s">
@@ -6440,7 +6446,7 @@
       <c r="E111" s="6">
         <v>3.4</v>
       </c>
-      <c r="F111" s="6">
+      <c r="F111" s="9">
         <v>45749</v>
       </c>
       <c r="G111" s="6" t="s">
@@ -6449,7 +6455,7 @@
       <c r="H111" s="6">
         <v>5</v>
       </c>
-      <c r="I111" s="6">
+      <c r="I111" s="9">
         <v>45768</v>
       </c>
       <c r="J111" s="6" t="s">
@@ -6461,7 +6467,7 @@
       <c r="X111" s="6">
         <v>4.2</v>
       </c>
-      <c r="Y111" s="6">
+      <c r="Y111" s="9">
         <v>45742</v>
       </c>
       <c r="Z111" s="6" t="s">
@@ -6490,13 +6496,13 @@
       <c r="E112" s="6">
         <v>4</v>
       </c>
-      <c r="F112" s="6">
+      <c r="F112" s="9">
         <v>45749</v>
       </c>
       <c r="G112" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="I112" s="6">
+      <c r="I112" s="9">
         <v>45768</v>
       </c>
       <c r="J112" s="6" t="s">
@@ -6508,7 +6514,7 @@
       <c r="X112" s="6">
         <v>4.2</v>
       </c>
-      <c r="Y112" s="6">
+      <c r="Y112" s="9">
         <v>45742</v>
       </c>
       <c r="Z112" s="6" t="s">
@@ -6537,7 +6543,7 @@
       <c r="E113" s="6">
         <v>3.4</v>
       </c>
-      <c r="F113" s="6">
+      <c r="F113" s="9">
         <v>45749</v>
       </c>
       <c r="G113" s="6" t="s">
@@ -6546,7 +6552,7 @@
       <c r="H113" s="6">
         <v>1</v>
       </c>
-      <c r="I113" s="6">
+      <c r="I113" s="9">
         <v>45768</v>
       </c>
       <c r="J113" s="6" t="s">
@@ -6558,7 +6564,7 @@
       <c r="X113" s="6">
         <v>4.2</v>
       </c>
-      <c r="Y113" s="6">
+      <c r="Y113" s="9">
         <v>45742</v>
       </c>
       <c r="Z113" s="6" t="s">
@@ -6587,7 +6593,7 @@
       <c r="E114" s="6">
         <v>3</v>
       </c>
-      <c r="F114" s="6">
+      <c r="F114" s="9">
         <v>45749</v>
       </c>
       <c r="G114" s="6" t="s">
@@ -6596,7 +6602,7 @@
       <c r="H114" s="6">
         <v>4.2</v>
       </c>
-      <c r="I114" s="6">
+      <c r="I114" s="9">
         <v>45768</v>
       </c>
       <c r="J114" s="6" t="s">
@@ -6608,7 +6614,7 @@
       <c r="X114" s="6">
         <v>4</v>
       </c>
-      <c r="Y114" s="6">
+      <c r="Y114" s="9">
         <v>45742</v>
       </c>
       <c r="Z114" s="6" t="s">
@@ -6637,7 +6643,7 @@
       <c r="E115" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F115" s="6">
+      <c r="F115" s="9">
         <v>45749</v>
       </c>
       <c r="G115" s="6" t="s">
@@ -6646,7 +6652,7 @@
       <c r="H115" s="6">
         <v>4.2</v>
       </c>
-      <c r="I115" s="6">
+      <c r="I115" s="9">
         <v>45768</v>
       </c>
       <c r="J115" s="6" t="s">
@@ -6658,7 +6664,7 @@
       <c r="X115" s="6">
         <v>4</v>
       </c>
-      <c r="Y115" s="6">
+      <c r="Y115" s="9">
         <v>45742</v>
       </c>
       <c r="Z115" s="6" t="s">
@@ -6687,7 +6693,7 @@
       <c r="E116" s="6">
         <v>3.6</v>
       </c>
-      <c r="F116" s="6">
+      <c r="F116" s="9">
         <v>45749</v>
       </c>
       <c r="G116" s="6" t="s">
@@ -6696,7 +6702,7 @@
       <c r="H116" s="6">
         <v>4.2</v>
       </c>
-      <c r="I116" s="6">
+      <c r="I116" s="9">
         <v>45768</v>
       </c>
       <c r="J116" s="6" t="s">
@@ -6708,7 +6714,7 @@
       <c r="X116" s="6">
         <v>4.2</v>
       </c>
-      <c r="Y116" s="6">
+      <c r="Y116" s="9">
         <v>45742</v>
       </c>
       <c r="Z116" s="6" t="s">

--- a/Datos1.xlsx
+++ b/Datos1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EliezerMendoza\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EliezerMendoza\Documents\MiApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A789A9F-542B-42CC-9E8A-6DF36C953978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31437E26-4C47-4937-AE12-91DD49487678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8CFD075-B776-4772-AF84-4FE19285905C}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="175">
   <si>
     <t xml:space="preserve">AÑOS </t>
   </si>
@@ -993,14 +993,13 @@
   <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:AS116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1:AB1048576"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="4"/>
-    <col min="2" max="2" width="11.5546875" style="5"/>
+    <col min="1" max="2" width="11.5546875" style="4"/>
     <col min="3" max="3" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" style="5"/>
     <col min="5" max="5" width="10.5546875" style="6" bestFit="1" customWidth="1"/>
@@ -1049,7 +1048,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1183,8 +1182,8 @@
       <c r="A2" s="4">
         <v>2025</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>174</v>
+      <c r="B2" s="4">
+        <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>44</v>
@@ -1234,7 +1233,7 @@
       <c r="A3" s="4">
         <v>2025</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -1282,7 +1281,7 @@
       <c r="A4" s="4">
         <v>2025</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1333,7 +1332,7 @@
       <c r="A5" s="4">
         <v>2025</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -1381,7 +1380,7 @@
       <c r="A6" s="4">
         <v>2025</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -1432,7 +1431,7 @@
       <c r="A7" s="4">
         <v>2025</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1465,7 +1464,7 @@
       <c r="A8" s="4">
         <v>2025</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1516,7 +1515,7 @@
       <c r="A9" s="4">
         <v>2025</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1567,7 +1566,7 @@
       <c r="A10" s="4">
         <v>2025</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -1618,7 +1617,7 @@
       <c r="A11" s="4">
         <v>2025</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1669,7 +1668,7 @@
       <c r="A12" s="4">
         <v>2025</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -1720,7 +1719,7 @@
       <c r="A13" s="4">
         <v>2025</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1753,7 +1752,7 @@
       <c r="A14" s="4">
         <v>2025</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -1804,7 +1803,7 @@
       <c r="A15" s="4">
         <v>2025</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -1852,7 +1851,7 @@
       <c r="A16" s="4">
         <v>2025</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -1900,7 +1899,7 @@
       <c r="A17" s="4">
         <v>2025</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1933,7 +1932,7 @@
       <c r="A18" s="4">
         <v>2025</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -1984,7 +1983,7 @@
       <c r="A19" s="4">
         <v>2025</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -2035,7 +2034,7 @@
       <c r="A20" s="4">
         <v>2025</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -2086,7 +2085,7 @@
       <c r="A21" s="4">
         <v>2025</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -2134,7 +2133,7 @@
       <c r="A22" s="4">
         <v>2025</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -2182,7 +2181,7 @@
       <c r="A23" s="4">
         <v>2025</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -2233,7 +2232,7 @@
       <c r="A24" s="4">
         <v>2025</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -2281,7 +2280,7 @@
       <c r="A25" s="4">
         <v>2025</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -2329,7 +2328,7 @@
       <c r="A26" s="4">
         <v>2025</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -2377,7 +2376,7 @@
       <c r="A27" s="4">
         <v>2025</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -2425,7 +2424,7 @@
       <c r="A28" s="4">
         <v>2025</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -2473,7 +2472,7 @@
       <c r="A29" s="4">
         <v>2025</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -2524,7 +2523,7 @@
       <c r="A30" s="4">
         <v>2025</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -2575,7 +2574,7 @@
       <c r="A31" s="4">
         <v>2025</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -2626,7 +2625,7 @@
       <c r="A32" s="4">
         <v>2025</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -2674,7 +2673,7 @@
       <c r="A33" s="4">
         <v>2025</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -2716,7 +2715,7 @@
       <c r="A34" s="4">
         <v>2025</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -2764,7 +2763,7 @@
       <c r="A35" s="4">
         <v>2025</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -2809,7 +2808,7 @@
       <c r="A36" s="4">
         <v>2025</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -2857,7 +2856,7 @@
       <c r="A37" s="4">
         <v>2025</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -2905,7 +2904,7 @@
       <c r="A38" s="4">
         <v>2025</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -2953,7 +2952,7 @@
       <c r="A39" s="4">
         <v>2025</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C39" s="5" t="s">
@@ -3004,7 +3003,7 @@
       <c r="A40" s="4">
         <v>2025</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -3052,7 +3051,7 @@
       <c r="A41" s="4">
         <v>2025</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C41" s="5" t="s">
@@ -3103,7 +3102,7 @@
       <c r="A42" s="4">
         <v>2025</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C42" s="5" t="s">
@@ -3154,7 +3153,7 @@
       <c r="A43" s="4">
         <v>2025</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -3202,7 +3201,7 @@
       <c r="A44" s="4">
         <v>2025</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C44" s="5" t="s">
@@ -3250,7 +3249,7 @@
       <c r="A45" s="4">
         <v>2025</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C45" s="5" t="s">
@@ -3301,7 +3300,7 @@
       <c r="A46" s="4">
         <v>2025</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C46" s="5" t="s">
@@ -3351,7 +3350,7 @@
       <c r="A47" s="4">
         <v>2025</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C47" s="5" t="s">
@@ -3401,7 +3400,7 @@
       <c r="A48" s="4">
         <v>2025</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C48" s="5" t="s">
@@ -3451,7 +3450,7 @@
       <c r="A49" s="4">
         <v>2025</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C49" s="5" t="s">
@@ -3492,7 +3491,7 @@
       <c r="A50" s="4">
         <v>2025</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C50" s="5" t="s">
@@ -3539,7 +3538,7 @@
       <c r="A51" s="4">
         <v>2025</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C51" s="5" t="s">
@@ -3589,7 +3588,7 @@
       <c r="A52" s="4">
         <v>2025</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C52" s="5" t="s">
@@ -3639,7 +3638,7 @@
       <c r="A53" s="4">
         <v>2025</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C53" s="5" t="s">
@@ -3689,7 +3688,7 @@
       <c r="A54" s="4">
         <v>2025</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C54" s="5" t="s">
@@ -3739,7 +3738,7 @@
       <c r="A55" s="4">
         <v>2025</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C55" s="5" t="s">
@@ -3789,7 +3788,7 @@
       <c r="A56" s="4">
         <v>2025</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C56" s="5" t="s">
@@ -3821,7 +3820,7 @@
       <c r="A57" s="4">
         <v>2025</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C57" s="5" t="s">
@@ -3853,7 +3852,7 @@
       <c r="A58" s="4">
         <v>2025</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C58" s="5" t="s">
@@ -3903,7 +3902,7 @@
       <c r="A59" s="4">
         <v>2025</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C59" s="5" t="s">
@@ -3950,7 +3949,7 @@
       <c r="A60" s="4">
         <v>2025</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C60" s="5" t="s">
@@ -3997,7 +3996,7 @@
       <c r="A61" s="4">
         <v>2025</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C61" s="5" t="s">
@@ -4047,7 +4046,7 @@
       <c r="A62" s="4">
         <v>2025</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C62" s="5" t="s">
@@ -4097,7 +4096,7 @@
       <c r="A63" s="4">
         <v>2025</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C63" s="5" t="s">
@@ -4147,7 +4146,7 @@
       <c r="A64" s="4">
         <v>2025</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C64" s="5" t="s">
@@ -4197,7 +4196,7 @@
       <c r="A65" s="4">
         <v>2025</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C65" s="5" t="s">
@@ -4247,7 +4246,7 @@
       <c r="A66" s="4">
         <v>2025</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C66" s="5" t="s">
@@ -4297,7 +4296,7 @@
       <c r="A67" s="4">
         <v>2025</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C67" s="5" t="s">
@@ -4347,7 +4346,7 @@
       <c r="A68" s="4">
         <v>2025</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C68" s="5" t="s">
@@ -4397,7 +4396,7 @@
       <c r="A69" s="4">
         <v>2025</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C69" s="5" t="s">
@@ -4447,7 +4446,7 @@
       <c r="A70" s="4">
         <v>2025</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C70" s="5" t="s">
@@ -4497,7 +4496,7 @@
       <c r="A71" s="4">
         <v>2025</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C71" s="5" t="s">
@@ -4547,7 +4546,7 @@
       <c r="A72" s="4">
         <v>2025</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C72" s="5" t="s">
@@ -4597,7 +4596,7 @@
       <c r="A73" s="4">
         <v>2025</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C73" s="5" t="s">
@@ -4647,7 +4646,7 @@
       <c r="A74" s="4">
         <v>2025</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C74" s="5" t="s">
@@ -4697,7 +4696,7 @@
       <c r="A75" s="4">
         <v>2025</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C75" s="5" t="s">
@@ -4747,7 +4746,7 @@
       <c r="A76" s="4">
         <v>2025</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C76" s="5" t="s">
@@ -4797,7 +4796,7 @@
       <c r="A77" s="4">
         <v>2025</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C77" s="5" t="s">
@@ -4847,7 +4846,7 @@
       <c r="A78" s="4">
         <v>2025</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C78" s="5" t="s">
@@ -4897,7 +4896,7 @@
       <c r="A79" s="4">
         <v>2025</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C79" s="5" t="s">
@@ -4941,7 +4940,7 @@
       <c r="A80" s="4">
         <v>2025</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C80" s="5" t="s">
@@ -4988,7 +4987,7 @@
       <c r="A81" s="4">
         <v>2025</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C81" s="5" t="s">
@@ -5038,7 +5037,7 @@
       <c r="A82" s="4">
         <v>2025</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C82" s="5" t="s">
@@ -5088,7 +5087,7 @@
       <c r="A83" s="4">
         <v>2025</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C83" s="5" t="s">
@@ -5138,7 +5137,7 @@
       <c r="A84" s="4">
         <v>2025</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C84" s="5" t="s">
@@ -5179,7 +5178,7 @@
       <c r="A85" s="4">
         <v>2025</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C85" s="5" t="s">
@@ -5226,7 +5225,7 @@
       <c r="A86" s="4">
         <v>2025</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C86" s="5" t="s">
@@ -5276,7 +5275,7 @@
       <c r="A87" s="4">
         <v>2025</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C87" s="5" t="s">
@@ -5326,7 +5325,7 @@
       <c r="A88" s="4">
         <v>2025</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C88" s="5" t="s">
@@ -5376,7 +5375,7 @@
       <c r="A89" s="4">
         <v>2025</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C89" s="5" t="s">
@@ -5426,7 +5425,7 @@
       <c r="A90" s="4">
         <v>2025</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C90" s="5" t="s">
@@ -5476,7 +5475,7 @@
       <c r="A91" s="4">
         <v>2025</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C91" s="5" t="s">
@@ -5526,7 +5525,7 @@
       <c r="A92" s="4">
         <v>2025</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C92" s="5" t="s">
@@ -5576,7 +5575,7 @@
       <c r="A93" s="4">
         <v>2025</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C93" s="5" t="s">
@@ -5623,7 +5622,7 @@
       <c r="A94" s="4">
         <v>2025</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C94" s="5" t="s">
@@ -5673,7 +5672,7 @@
       <c r="A95" s="4">
         <v>2025</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C95" s="5" t="s">
@@ -5705,7 +5704,7 @@
       <c r="A96" s="4">
         <v>2025</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C96" s="5" t="s">
@@ -5755,7 +5754,7 @@
       <c r="A97" s="4">
         <v>2025</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C97" s="5" t="s">
@@ -5805,7 +5804,7 @@
       <c r="A98" s="4">
         <v>2025</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C98" s="5" t="s">
@@ -5855,7 +5854,7 @@
       <c r="A99" s="4">
         <v>2025</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C99" s="5" t="s">
@@ -5905,7 +5904,7 @@
       <c r="A100" s="4">
         <v>2025</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C100" s="5" t="s">
@@ -5952,7 +5951,7 @@
       <c r="A101" s="4">
         <v>2025</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C101" s="5" t="s">
@@ -5999,7 +5998,7 @@
       <c r="A102" s="4">
         <v>2025</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C102" s="5" t="s">
@@ -6046,7 +6045,7 @@
       <c r="A103" s="4">
         <v>2025</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C103" s="5" t="s">
@@ -6096,7 +6095,7 @@
       <c r="A104" s="4">
         <v>2025</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C104" s="5" t="s">
@@ -6146,7 +6145,7 @@
       <c r="A105" s="4">
         <v>2025</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C105" s="5" t="s">
@@ -6196,7 +6195,7 @@
       <c r="A106" s="4">
         <v>2025</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C106" s="5" t="s">
@@ -6246,7 +6245,7 @@
       <c r="A107" s="4">
         <v>2025</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C107" s="5" t="s">
@@ -6296,7 +6295,7 @@
       <c r="A108" s="4">
         <v>2025</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C108" s="5" t="s">
@@ -6346,7 +6345,7 @@
       <c r="A109" s="4">
         <v>2025</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C109" s="5" t="s">
@@ -6387,7 +6386,7 @@
       <c r="A110" s="4">
         <v>2025</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C110" s="5" t="s">
@@ -6434,7 +6433,7 @@
       <c r="A111" s="4">
         <v>2025</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C111" s="5" t="s">
@@ -6484,7 +6483,7 @@
       <c r="A112" s="4">
         <v>2025</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="B112" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C112" s="5" t="s">
@@ -6531,7 +6530,7 @@
       <c r="A113" s="4">
         <v>2025</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C113" s="5" t="s">
@@ -6581,7 +6580,7 @@
       <c r="A114" s="4">
         <v>2025</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C114" s="5" t="s">
@@ -6631,7 +6630,7 @@
       <c r="A115" s="4">
         <v>2025</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C115" s="5" t="s">
@@ -6681,7 +6680,7 @@
       <c r="A116" s="4">
         <v>2025</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B116" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C116" s="5" t="s">

--- a/Datos1.xlsx
+++ b/Datos1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EliezerMendoza\Documents\MiApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31437E26-4C47-4937-AE12-91DD49487678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA154657-C353-4EE1-BE56-DDA06E8C6F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8CFD075-B776-4772-AF84-4FE19285905C}"/>
   </bookViews>
@@ -993,7 +993,7 @@
   <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:AS116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1004,11 +1004,11 @@
     <col min="4" max="4" width="11.5546875" style="5"/>
     <col min="5" max="5" width="10.5546875" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="36.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.21875" style="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21" style="6" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5546875" style="6" bestFit="1" customWidth="1"/>
@@ -1023,10 +1023,10 @@
     <col min="23" max="23" width="26.5546875" style="6" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="15.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="22.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="26" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="39.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="22.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="26" style="6" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="35.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="15.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="22.21875" style="6" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="26" style="6" bestFit="1" customWidth="1"/>

--- a/Datos1.xlsx
+++ b/Datos1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EliezerMendoza\Documents\MiApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA154657-C353-4EE1-BE56-DDA06E8C6F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2FEA6F-A309-4EF6-8B18-B28BDBF4BD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8CFD075-B776-4772-AF84-4FE19285905C}"/>
   </bookViews>
@@ -180,9 +180,6 @@
     <t>X°A</t>
   </si>
   <si>
-    <t xml:space="preserve"> DIALOGUE ABOUT GREETINGS,FAREWELLS &amp; RESPONSES</t>
-  </si>
-  <si>
     <t>READING ABOUT FIRST DAY AT A NEW SCHOOL</t>
   </si>
   <si>
@@ -565,6 +562,9 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DIALOGUE ABOUT GREETINGS,FAREWELLS &amp;  RESPONSES</t>
   </si>
 </sst>
 </file>
@@ -994,7 +994,7 @@
   <dimension ref="A1:AS116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="AR1" sqref="AR1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1041,7 +1041,7 @@
     <col min="41" max="41" width="26" style="6" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="26" style="6" customWidth="1"/>
     <col min="43" max="43" width="20.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="16.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="21.5546875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.3">
@@ -1198,7 +1198,7 @@
         <v>45749</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>46</v>
+        <v>174</v>
       </c>
       <c r="W2" s="6">
         <v>5</v>
@@ -1210,7 +1210,7 @@
         <v>45742</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA2" s="6">
         <v>4.5</v>
@@ -1219,7 +1219,7 @@
         <v>45768</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP2" s="6">
         <v>4.45</v>
@@ -1234,10 +1234,10 @@
         <v>2025</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>45</v>
@@ -1249,25 +1249,25 @@
         <v>45749</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="W3" s="6">
+        <v>4</v>
+      </c>
+      <c r="X3" s="6">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="9">
+        <v>45742</v>
+      </c>
+      <c r="Z3" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="W3" s="6">
-        <v>4</v>
-      </c>
-      <c r="X3" s="6">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="9">
-        <v>45742</v>
-      </c>
-      <c r="Z3" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="AB3" s="9">
         <v>45768</v>
       </c>
       <c r="AC3" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP3" s="6">
         <v>4</v>
@@ -1282,10 +1282,10 @@
         <v>2025</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>45</v>
@@ -1297,7 +1297,7 @@
         <v>45749</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>46</v>
+        <v>174</v>
       </c>
       <c r="W4" s="6">
         <v>5</v>
@@ -1309,7 +1309,7 @@
         <v>45742</v>
       </c>
       <c r="Z4" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA4" s="6">
         <v>4.0999999999999996</v>
@@ -1318,7 +1318,7 @@
         <v>45768</v>
       </c>
       <c r="AC4" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP4" s="6">
         <v>3.45</v>
@@ -1333,10 +1333,10 @@
         <v>2025</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>45</v>
@@ -1348,7 +1348,7 @@
         <v>45749</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>46</v>
+        <v>174</v>
       </c>
       <c r="W5" s="6">
         <v>4.2</v>
@@ -1360,13 +1360,13 @@
         <v>45742</v>
       </c>
       <c r="Z5" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AB5" s="9">
         <v>45768</v>
       </c>
       <c r="AC5" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP5" s="6">
         <v>4</v>
@@ -1381,10 +1381,10 @@
         <v>2025</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>45</v>
@@ -1396,7 +1396,7 @@
         <v>45749</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>46</v>
+        <v>174</v>
       </c>
       <c r="W6" s="6">
         <v>4.4000000000000004</v>
@@ -1408,7 +1408,7 @@
         <v>45742</v>
       </c>
       <c r="Z6" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA6" s="6">
         <v>4.5</v>
@@ -1417,7 +1417,7 @@
         <v>45768</v>
       </c>
       <c r="AC6" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP6" s="6">
         <v>4.55</v>
@@ -1432,10 +1432,10 @@
         <v>2025</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>45</v>
@@ -1444,19 +1444,19 @@
         <v>45749</v>
       </c>
       <c r="G7" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>45742</v>
+      </c>
+      <c r="Z7" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="Y7" s="9">
-        <v>45742</v>
-      </c>
-      <c r="Z7" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="AB7" s="9">
         <v>45768</v>
       </c>
       <c r="AC7" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AS7" s="7"/>
     </row>
@@ -1465,10 +1465,10 @@
         <v>2025</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>45</v>
@@ -1480,7 +1480,7 @@
         <v>45749</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>46</v>
+        <v>174</v>
       </c>
       <c r="W8" s="6">
         <v>5</v>
@@ -1492,7 +1492,7 @@
         <v>45742</v>
       </c>
       <c r="Z8" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA8" s="6">
         <v>4.0999999999999996</v>
@@ -1501,7 +1501,7 @@
         <v>45768</v>
       </c>
       <c r="AC8" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP8" s="6">
         <v>4.3499999999999996</v>
@@ -1516,10 +1516,10 @@
         <v>2025</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>45</v>
@@ -1531,19 +1531,19 @@
         <v>45749</v>
       </c>
       <c r="G9" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="W9" s="6">
+        <v>5</v>
+      </c>
+      <c r="X9" s="6">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="9">
+        <v>45742</v>
+      </c>
+      <c r="Z9" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="W9" s="6">
-        <v>5</v>
-      </c>
-      <c r="X9" s="6">
-        <v>4</v>
-      </c>
-      <c r="Y9" s="9">
-        <v>45742</v>
-      </c>
-      <c r="Z9" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="AA9" s="6">
         <v>4.5</v>
@@ -1552,7 +1552,7 @@
         <v>45768</v>
       </c>
       <c r="AC9" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP9" s="6">
         <v>4.25</v>
@@ -1567,10 +1567,10 @@
         <v>2025</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>45</v>
@@ -1582,7 +1582,7 @@
         <v>45749</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>46</v>
+        <v>174</v>
       </c>
       <c r="W10" s="6">
         <v>4.2</v>
@@ -1594,7 +1594,7 @@
         <v>45742</v>
       </c>
       <c r="Z10" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA10" s="6">
         <v>1</v>
@@ -1603,7 +1603,7 @@
         <v>45768</v>
       </c>
       <c r="AC10" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP10" s="6">
         <v>2.7</v>
@@ -1618,10 +1618,10 @@
         <v>2025</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>45</v>
@@ -1633,7 +1633,7 @@
         <v>45749</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>46</v>
+        <v>174</v>
       </c>
       <c r="W11" s="6">
         <v>5</v>
@@ -1645,7 +1645,7 @@
         <v>45742</v>
       </c>
       <c r="Z11" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA11" s="6">
         <v>1</v>
@@ -1654,7 +1654,7 @@
         <v>45768</v>
       </c>
       <c r="AC11" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP11" s="6">
         <v>2.8</v>
@@ -1669,10 +1669,10 @@
         <v>2025</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>45</v>
@@ -1684,7 +1684,7 @@
         <v>45749</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>46</v>
+        <v>174</v>
       </c>
       <c r="W12" s="6">
         <v>5</v>
@@ -1696,7 +1696,7 @@
         <v>45742</v>
       </c>
       <c r="Z12" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA12" s="6">
         <v>4.5</v>
@@ -1705,7 +1705,7 @@
         <v>45768</v>
       </c>
       <c r="AC12" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP12" s="6">
         <v>4.45</v>
@@ -1720,10 +1720,10 @@
         <v>2025</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>45</v>
@@ -1732,19 +1732,19 @@
         <v>45749</v>
       </c>
       <c r="G13" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y13" s="9">
+        <v>45742</v>
+      </c>
+      <c r="Z13" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="Y13" s="9">
-        <v>45742</v>
-      </c>
-      <c r="Z13" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="AB13" s="9">
         <v>45768</v>
       </c>
       <c r="AC13" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AS13" s="7"/>
     </row>
@@ -1753,10 +1753,10 @@
         <v>2025</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>45</v>
@@ -1768,7 +1768,7 @@
         <v>45749</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>46</v>
+        <v>174</v>
       </c>
       <c r="W14" s="6">
         <v>5</v>
@@ -1780,7 +1780,7 @@
         <v>45742</v>
       </c>
       <c r="Z14" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA14" s="6">
         <v>1</v>
@@ -1789,7 +1789,7 @@
         <v>45768</v>
       </c>
       <c r="AC14" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP14" s="6">
         <v>2.7</v>
@@ -1804,10 +1804,10 @@
         <v>2025</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>45</v>
@@ -1819,7 +1819,7 @@
         <v>45749</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>46</v>
+        <v>174</v>
       </c>
       <c r="W15" s="6">
         <v>4.4000000000000004</v>
@@ -1828,7 +1828,7 @@
         <v>45742</v>
       </c>
       <c r="Z15" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA15" s="6">
         <v>4.5</v>
@@ -1837,7 +1837,7 @@
         <v>45768</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP15" s="6">
         <v>4.5</v>
@@ -1852,10 +1852,10 @@
         <v>2025</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>45</v>
@@ -1867,7 +1867,7 @@
         <v>45749</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>46</v>
+        <v>174</v>
       </c>
       <c r="W16" s="6">
         <v>4.5999999999999996</v>
@@ -1876,7 +1876,7 @@
         <v>45742</v>
       </c>
       <c r="Z16" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA16" s="6">
         <v>1</v>
@@ -1885,7 +1885,7 @@
         <v>45768</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP16" s="6">
         <v>1</v>
@@ -1900,10 +1900,10 @@
         <v>2025</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>45</v>
@@ -1912,19 +1912,19 @@
         <v>45749</v>
       </c>
       <c r="G17" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y17" s="9">
+        <v>45742</v>
+      </c>
+      <c r="Z17" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="Y17" s="9">
-        <v>45742</v>
-      </c>
-      <c r="Z17" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="AB17" s="9">
         <v>45768</v>
       </c>
       <c r="AC17" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AS17" s="7"/>
     </row>
@@ -1933,10 +1933,10 @@
         <v>2025</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>45</v>
@@ -1948,7 +1948,7 @@
         <v>45749</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>46</v>
+        <v>174</v>
       </c>
       <c r="W18" s="6">
         <v>4.2</v>
@@ -1960,7 +1960,7 @@
         <v>45742</v>
       </c>
       <c r="Z18" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA18" s="6">
         <v>4.5</v>
@@ -1969,7 +1969,7 @@
         <v>45768</v>
       </c>
       <c r="AC18" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP18" s="6">
         <v>4.55</v>
@@ -1984,22 +1984,22 @@
         <v>2025</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="6">
+        <v>4</v>
+      </c>
+      <c r="F19" s="9">
+        <v>45749</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="E19" s="6">
-        <v>4</v>
-      </c>
-      <c r="F19" s="9">
-        <v>45749</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="H19" s="6">
         <v>1</v>
@@ -2008,7 +2008,7 @@
         <v>45769</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W19" s="6">
         <v>2.5</v>
@@ -2020,7 +2020,7 @@
         <v>45742</v>
       </c>
       <c r="Z19" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP19" s="6">
         <v>3.6</v>
@@ -2035,13 +2035,13 @@
         <v>2025</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" s="6">
         <v>1</v>
@@ -2050,7 +2050,7 @@
         <v>45749</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H20" s="6">
         <v>1</v>
@@ -2059,7 +2059,7 @@
         <v>45769</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W20" s="6">
         <v>1</v>
@@ -2071,7 +2071,7 @@
         <v>45742</v>
       </c>
       <c r="Z20" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP20" s="6">
         <v>3.6</v>
@@ -2086,28 +2086,28 @@
         <v>2025</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="6">
+        <v>5</v>
+      </c>
+      <c r="F21" s="9">
+        <v>45749</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="E21" s="6">
-        <v>5</v>
-      </c>
-      <c r="F21" s="9">
-        <v>45749</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="I21" s="9">
         <v>45769</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W21" s="6">
         <v>5</v>
@@ -2119,7 +2119,7 @@
         <v>45742</v>
       </c>
       <c r="Z21" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP21" s="6">
         <v>3</v>
@@ -2134,28 +2134,28 @@
         <v>2025</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="6">
+        <v>4</v>
+      </c>
+      <c r="F22" s="9">
+        <v>45749</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="E22" s="6">
-        <v>4</v>
-      </c>
-      <c r="F22" s="9">
-        <v>45749</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="I22" s="9">
         <v>45769</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W22" s="6">
         <v>4</v>
@@ -2167,7 +2167,7 @@
         <v>45742</v>
       </c>
       <c r="Z22" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP22" s="6">
         <v>3.4</v>
@@ -2182,13 +2182,13 @@
         <v>2025</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E23" s="6">
         <v>4.4000000000000004</v>
@@ -2197,7 +2197,7 @@
         <v>45749</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H23" s="6">
         <v>1</v>
@@ -2206,7 +2206,7 @@
         <v>45769</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W23" s="6">
         <v>2.7</v>
@@ -2218,7 +2218,7 @@
         <v>45742</v>
       </c>
       <c r="Z23" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP23" s="6">
         <v>3.4</v>
@@ -2233,28 +2233,28 @@
         <v>2025</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="6">
+        <v>5</v>
+      </c>
+      <c r="F24" s="9">
+        <v>45749</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="E24" s="6">
-        <v>5</v>
-      </c>
-      <c r="F24" s="9">
-        <v>45749</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="I24" s="9">
         <v>45769</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W24" s="6">
         <v>5</v>
@@ -2266,7 +2266,7 @@
         <v>45742</v>
       </c>
       <c r="Z24" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP24" s="6">
         <v>3</v>
@@ -2281,28 +2281,28 @@
         <v>2025</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="6">
+        <v>5</v>
+      </c>
+      <c r="F25" s="9">
+        <v>45749</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="E25" s="6">
-        <v>5</v>
-      </c>
-      <c r="F25" s="9">
-        <v>45749</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="I25" s="9">
         <v>45769</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W25" s="6">
         <v>5</v>
@@ -2314,7 +2314,7 @@
         <v>45742</v>
       </c>
       <c r="Z25" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP25" s="6">
         <v>4.5999999999999996</v>
@@ -2329,28 +2329,28 @@
         <v>2025</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="6">
+        <v>5</v>
+      </c>
+      <c r="F26" s="9">
+        <v>45749</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="E26" s="6">
-        <v>5</v>
-      </c>
-      <c r="F26" s="9">
-        <v>45749</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="I26" s="9">
         <v>45769</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W26" s="6">
         <v>5</v>
@@ -2362,7 +2362,7 @@
         <v>45742</v>
       </c>
       <c r="Z26" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP26" s="6">
         <v>4.5999999999999996</v>
@@ -2377,28 +2377,28 @@
         <v>2025</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="6">
+        <v>5</v>
+      </c>
+      <c r="F27" s="9">
+        <v>45749</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="E27" s="6">
-        <v>5</v>
-      </c>
-      <c r="F27" s="9">
-        <v>45749</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="I27" s="9">
         <v>45769</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W27" s="6">
         <v>5</v>
@@ -2410,7 +2410,7 @@
         <v>45742</v>
       </c>
       <c r="Z27" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP27" s="6">
         <v>3.6</v>
@@ -2425,28 +2425,28 @@
         <v>2025</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="6">
+        <v>5</v>
+      </c>
+      <c r="F28" s="9">
+        <v>45749</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="E28" s="6">
-        <v>5</v>
-      </c>
-      <c r="F28" s="9">
-        <v>45749</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="I28" s="9">
         <v>45769</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W28" s="6">
         <v>5</v>
@@ -2458,7 +2458,7 @@
         <v>45742</v>
       </c>
       <c r="Z28" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP28" s="6">
         <v>4.5999999999999996</v>
@@ -2473,13 +2473,13 @@
         <v>2025</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E29" s="6">
         <v>4.5999999999999996</v>
@@ -2488,7 +2488,7 @@
         <v>45749</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H29" s="6">
         <v>1</v>
@@ -2497,7 +2497,7 @@
         <v>45769</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W29" s="6">
         <v>2.8</v>
@@ -2509,7 +2509,7 @@
         <v>45742</v>
       </c>
       <c r="Z29" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP29" s="6">
         <v>3.4</v>
@@ -2524,13 +2524,13 @@
         <v>2025</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E30" s="6">
         <v>4.4000000000000004</v>
@@ -2539,7 +2539,7 @@
         <v>45749</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H30" s="6">
         <v>1</v>
@@ -2548,7 +2548,7 @@
         <v>45769</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W30" s="6">
         <v>2.7</v>
@@ -2560,7 +2560,7 @@
         <v>45742</v>
       </c>
       <c r="Z30" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP30" s="6">
         <v>3.6</v>
@@ -2575,13 +2575,13 @@
         <v>2025</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E31" s="6">
         <v>4.5999999999999996</v>
@@ -2590,7 +2590,7 @@
         <v>45749</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H31" s="6">
         <v>1</v>
@@ -2599,7 +2599,7 @@
         <v>45769</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W31" s="6">
         <v>2.8</v>
@@ -2611,7 +2611,7 @@
         <v>45742</v>
       </c>
       <c r="Z31" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP31" s="6">
         <v>3.4</v>
@@ -2626,28 +2626,28 @@
         <v>2025</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D32" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="6">
+        <v>5</v>
+      </c>
+      <c r="F32" s="9">
+        <v>45749</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="E32" s="6">
-        <v>5</v>
-      </c>
-      <c r="F32" s="9">
-        <v>45749</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="I32" s="9">
         <v>45769</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W32" s="6">
         <v>5</v>
@@ -2659,7 +2659,7 @@
         <v>45742</v>
       </c>
       <c r="Z32" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP32" s="6">
         <v>4.5999999999999996</v>
@@ -2674,13 +2674,13 @@
         <v>2025</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E33" s="6">
         <v>4.5999999999999996</v>
@@ -2689,13 +2689,13 @@
         <v>45749</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I33" s="9">
         <v>45769</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W33" s="6">
         <v>4.5999999999999996</v>
@@ -2704,7 +2704,7 @@
         <v>45742</v>
       </c>
       <c r="Z33" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AR33" s="6">
         <v>4.5999999999999996</v>
@@ -2716,13 +2716,13 @@
         <v>2025</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E34" s="6">
         <v>4.2</v>
@@ -2731,13 +2731,13 @@
         <v>45749</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I34" s="9">
         <v>45769</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W34" s="6">
         <v>4.2</v>
@@ -2749,7 +2749,7 @@
         <v>45742</v>
       </c>
       <c r="Z34" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP34" s="6">
         <v>3</v>
@@ -2764,13 +2764,13 @@
         <v>2025</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E35" s="6">
         <v>4.4000000000000004</v>
@@ -2779,7 +2779,7 @@
         <v>45749</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H35" s="6">
         <v>1</v>
@@ -2788,7 +2788,7 @@
         <v>45769</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W35" s="6">
         <v>2.7</v>
@@ -2797,7 +2797,7 @@
         <v>45742</v>
       </c>
       <c r="Z35" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AR35" s="6">
         <v>2.7</v>
@@ -2809,28 +2809,28 @@
         <v>2025</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D36" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="6">
+        <v>5</v>
+      </c>
+      <c r="F36" s="9">
+        <v>45749</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="E36" s="6">
-        <v>5</v>
-      </c>
-      <c r="F36" s="9">
-        <v>45749</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="I36" s="9">
         <v>45769</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W36" s="6">
         <v>5</v>
@@ -2842,7 +2842,7 @@
         <v>45742</v>
       </c>
       <c r="Z36" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP36" s="6">
         <v>4.5999999999999996</v>
@@ -2857,13 +2857,13 @@
         <v>2025</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E37" s="6">
         <v>4.5</v>
@@ -2872,13 +2872,13 @@
         <v>45749</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I37" s="9">
         <v>45769</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W37" s="6">
         <v>4.5</v>
@@ -2890,7 +2890,7 @@
         <v>45742</v>
       </c>
       <c r="Z37" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP37" s="6">
         <v>3.4</v>
@@ -2905,13 +2905,13 @@
         <v>2025</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C38" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="E38" s="6">
         <v>3.4</v>
@@ -2920,13 +2920,13 @@
         <v>45749</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I38" s="9">
         <v>45762</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W38" s="6">
         <v>3.4</v>
@@ -2938,7 +2938,7 @@
         <v>45742</v>
       </c>
       <c r="Z38" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AP38" s="6">
         <v>3</v>
@@ -2953,13 +2953,13 @@
         <v>2025</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E39" s="6">
         <v>4</v>
@@ -2968,7 +2968,7 @@
         <v>45749</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H39" s="6">
         <v>4.0999999999999996</v>
@@ -2977,7 +2977,7 @@
         <v>45762</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W39" s="6">
         <v>4.05</v>
@@ -2989,7 +2989,7 @@
         <v>45742</v>
       </c>
       <c r="Z39" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AP39" s="6">
         <v>4</v>
@@ -3004,13 +3004,13 @@
         <v>2025</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E40" s="6">
         <v>1</v>
@@ -3019,13 +3019,13 @@
         <v>45749</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I40" s="9">
         <v>45762</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W40" s="6">
         <v>1</v>
@@ -3037,7 +3037,7 @@
         <v>45742</v>
       </c>
       <c r="Z40" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AP40" s="6">
         <v>4</v>
@@ -3052,13 +3052,13 @@
         <v>2025</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E41" s="6">
         <v>4</v>
@@ -3067,7 +3067,7 @@
         <v>45749</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H41" s="6">
         <v>5</v>
@@ -3076,7 +3076,7 @@
         <v>45762</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W41" s="6">
         <v>4.5</v>
@@ -3088,7 +3088,7 @@
         <v>45742</v>
       </c>
       <c r="Z41" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AP41" s="6">
         <v>4</v>
@@ -3103,13 +3103,13 @@
         <v>2025</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E42" s="6">
         <v>4</v>
@@ -3118,7 +3118,7 @@
         <v>45749</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H42" s="6">
         <v>5</v>
@@ -3127,7 +3127,7 @@
         <v>45762</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W42" s="6">
         <v>4.5</v>
@@ -3139,7 +3139,7 @@
         <v>45742</v>
       </c>
       <c r="Z42" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AP42" s="6">
         <v>4</v>
@@ -3154,13 +3154,13 @@
         <v>2025</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E43" s="6">
         <v>3</v>
@@ -3169,13 +3169,13 @@
         <v>45749</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I43" s="9">
         <v>45762</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W43" s="6">
         <v>3</v>
@@ -3187,7 +3187,7 @@
         <v>45742</v>
       </c>
       <c r="Z43" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AP43" s="6">
         <v>4</v>
@@ -3202,13 +3202,13 @@
         <v>2025</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E44" s="6">
         <v>3</v>
@@ -3217,13 +3217,13 @@
         <v>45749</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I44" s="9">
         <v>45762</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W44" s="6">
         <v>3</v>
@@ -3235,7 +3235,7 @@
         <v>45742</v>
       </c>
       <c r="Z44" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AP44" s="6">
         <v>4</v>
@@ -3250,13 +3250,13 @@
         <v>2025</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E45" s="6">
         <v>1</v>
@@ -3265,7 +3265,7 @@
         <v>45749</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H45" s="6">
         <v>4.0999999999999996</v>
@@ -3274,7 +3274,7 @@
         <v>45762</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W45" s="6">
         <v>2.5499999999999998</v>
@@ -3286,7 +3286,7 @@
         <v>45742</v>
       </c>
       <c r="Z45" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AP45" s="6">
         <v>4</v>
@@ -3301,13 +3301,13 @@
         <v>2025</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E46" s="6">
         <v>5</v>
@@ -3316,7 +3316,7 @@
         <v>45749</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H46" s="6">
         <v>5</v>
@@ -3325,19 +3325,19 @@
         <v>45762</v>
       </c>
       <c r="J46" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="W46" s="6">
+        <v>5</v>
+      </c>
+      <c r="X46" s="6">
+        <v>4</v>
+      </c>
+      <c r="Y46" s="9">
+        <v>45742</v>
+      </c>
+      <c r="Z46" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="W46" s="6">
-        <v>5</v>
-      </c>
-      <c r="X46" s="6">
-        <v>4</v>
-      </c>
-      <c r="Y46" s="9">
-        <v>45742</v>
-      </c>
-      <c r="Z46" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="AP46" s="6">
         <v>4</v>
@@ -3351,13 +3351,13 @@
         <v>2025</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E47" s="6">
         <v>4</v>
@@ -3366,7 +3366,7 @@
         <v>45749</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H47" s="6">
         <v>5</v>
@@ -3375,7 +3375,7 @@
         <v>45762</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W47" s="6">
         <v>4.5</v>
@@ -3387,7 +3387,7 @@
         <v>45742</v>
       </c>
       <c r="Z47" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AP47" s="6">
         <v>4</v>
@@ -3401,13 +3401,13 @@
         <v>2025</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E48" s="6">
         <v>4.2</v>
@@ -3416,7 +3416,7 @@
         <v>45749</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H48" s="6">
         <v>5</v>
@@ -3425,7 +3425,7 @@
         <v>45762</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W48" s="6">
         <v>4.5999999999999996</v>
@@ -3437,7 +3437,7 @@
         <v>45742</v>
       </c>
       <c r="Z48" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AP48" s="6">
         <v>3</v>
@@ -3451,25 +3451,25 @@
         <v>2025</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F49" s="9">
         <v>45749</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I49" s="9">
         <v>45762</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X49" s="6">
         <v>2.4</v>
@@ -3478,7 +3478,7 @@
         <v>45742</v>
       </c>
       <c r="Z49" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AP49" s="6">
         <v>2.4</v>
@@ -3492,13 +3492,13 @@
         <v>2025</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E50" s="6">
         <v>4</v>
@@ -3507,13 +3507,13 @@
         <v>45749</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I50" s="9">
         <v>45762</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W50" s="6">
         <v>4</v>
@@ -3525,7 +3525,7 @@
         <v>45742</v>
       </c>
       <c r="Z50" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AP50" s="6">
         <v>2.8</v>
@@ -3539,13 +3539,13 @@
         <v>2025</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E51" s="6">
         <v>4.4000000000000004</v>
@@ -3554,7 +3554,7 @@
         <v>45749</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H51" s="6">
         <v>4.5</v>
@@ -3563,7 +3563,7 @@
         <v>45762</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W51" s="6">
         <v>4.45</v>
@@ -3575,7 +3575,7 @@
         <v>45742</v>
       </c>
       <c r="Z51" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AP51" s="6">
         <v>4</v>
@@ -3589,13 +3589,13 @@
         <v>2025</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E52" s="6">
         <v>4</v>
@@ -3604,7 +3604,7 @@
         <v>45749</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H52" s="6">
         <v>5</v>
@@ -3613,7 +3613,7 @@
         <v>45762</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W52" s="6">
         <v>4.5</v>
@@ -3625,7 +3625,7 @@
         <v>45742</v>
       </c>
       <c r="Z52" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AP52" s="6">
         <v>4</v>
@@ -3639,13 +3639,13 @@
         <v>2025</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E53" s="6">
         <v>4</v>
@@ -3654,7 +3654,7 @@
         <v>45749</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H53" s="6">
         <v>4.0999999999999996</v>
@@ -3663,7 +3663,7 @@
         <v>45762</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W53" s="6">
         <v>4.05</v>
@@ -3675,7 +3675,7 @@
         <v>45742</v>
       </c>
       <c r="Z53" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AP53" s="6">
         <v>4</v>
@@ -3689,13 +3689,13 @@
         <v>2025</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E54" s="6">
         <v>3.6</v>
@@ -3704,7 +3704,7 @@
         <v>45749</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H54" s="6">
         <v>4.0999999999999996</v>
@@ -3713,7 +3713,7 @@
         <v>45762</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W54" s="6">
         <v>3.85</v>
@@ -3725,7 +3725,7 @@
         <v>45742</v>
       </c>
       <c r="Z54" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AP54" s="6">
         <v>4</v>
@@ -3739,13 +3739,13 @@
         <v>2025</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E55" s="6">
         <v>3.2</v>
@@ -3754,7 +3754,7 @@
         <v>45749</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H55" s="6">
         <v>3.2</v>
@@ -3763,7 +3763,7 @@
         <v>45762</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W55" s="6">
         <v>3.2</v>
@@ -3775,7 +3775,7 @@
         <v>45742</v>
       </c>
       <c r="Z55" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AP55" s="6">
         <v>4</v>
@@ -3789,31 +3789,31 @@
         <v>2025</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F56" s="9">
         <v>45749</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I56" s="9">
         <v>45762</v>
       </c>
       <c r="J56" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y56" s="9">
+        <v>45742</v>
+      </c>
+      <c r="Z56" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="Y56" s="9">
-        <v>45742</v>
-      </c>
-      <c r="Z56" s="6" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:44" x14ac:dyDescent="0.3">
@@ -3821,31 +3821,31 @@
         <v>2025</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F57" s="9">
         <v>45749</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I57" s="9">
         <v>45762</v>
       </c>
       <c r="J57" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y57" s="9">
+        <v>45742</v>
+      </c>
+      <c r="Z57" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="Y57" s="9">
-        <v>45742</v>
-      </c>
-      <c r="Z57" s="6" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:44" x14ac:dyDescent="0.3">
@@ -3853,13 +3853,13 @@
         <v>2025</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C58" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="E58" s="6">
         <v>3</v>
@@ -3868,7 +3868,7 @@
         <v>45749</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H58" s="6">
         <v>5</v>
@@ -3877,7 +3877,7 @@
         <v>45762</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W58" s="6">
         <v>4</v>
@@ -3889,7 +3889,7 @@
         <v>45743</v>
       </c>
       <c r="Z58" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP58" s="6">
         <v>4</v>
@@ -3903,13 +3903,13 @@
         <v>2025</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E59" s="6">
         <v>3.4</v>
@@ -3918,13 +3918,13 @@
         <v>45749</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I59" s="9">
         <v>45762</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W59" s="6">
         <v>3.4</v>
@@ -3936,7 +3936,7 @@
         <v>45743</v>
       </c>
       <c r="Z59" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP59" s="6">
         <v>3.6</v>
@@ -3950,13 +3950,13 @@
         <v>2025</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E60" s="6">
         <v>3</v>
@@ -3965,13 +3965,13 @@
         <v>45749</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I60" s="9">
         <v>45762</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W60" s="6">
         <v>3</v>
@@ -3983,7 +3983,7 @@
         <v>45743</v>
       </c>
       <c r="Z60" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP60" s="6">
         <v>4.2</v>
@@ -3997,13 +3997,13 @@
         <v>2025</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E61" s="6">
         <v>3.4</v>
@@ -4012,7 +4012,7 @@
         <v>45749</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H61" s="6">
         <v>1</v>
@@ -4021,7 +4021,7 @@
         <v>45762</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W61" s="6">
         <v>2.2000000000000002</v>
@@ -4033,7 +4033,7 @@
         <v>45743</v>
       </c>
       <c r="Z61" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP61" s="6">
         <v>4</v>
@@ -4047,13 +4047,13 @@
         <v>2025</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E62" s="6">
         <v>3.4</v>
@@ -4062,7 +4062,7 @@
         <v>45749</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H62" s="6">
         <v>5</v>
@@ -4071,7 +4071,7 @@
         <v>45762</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W62" s="6">
         <v>4.2</v>
@@ -4083,7 +4083,7 @@
         <v>45743</v>
       </c>
       <c r="Z62" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP62" s="6">
         <v>3.6</v>
@@ -4097,13 +4097,13 @@
         <v>2025</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E63" s="6">
         <v>3</v>
@@ -4112,7 +4112,7 @@
         <v>45749</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H63" s="6">
         <v>5</v>
@@ -4121,7 +4121,7 @@
         <v>45762</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W63" s="6">
         <v>4</v>
@@ -4133,7 +4133,7 @@
         <v>45743</v>
       </c>
       <c r="Z63" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP63" s="6">
         <v>4</v>
@@ -4147,13 +4147,13 @@
         <v>2025</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E64" s="6">
         <v>4.5999999999999996</v>
@@ -4162,7 +4162,7 @@
         <v>45749</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H64" s="6">
         <v>1</v>
@@ -4171,7 +4171,7 @@
         <v>45762</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W64" s="6">
         <v>2.8</v>
@@ -4183,7 +4183,7 @@
         <v>45743</v>
       </c>
       <c r="Z64" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP64" s="6">
         <v>3.6</v>
@@ -4197,13 +4197,13 @@
         <v>2025</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E65" s="6">
         <v>4.5999999999999996</v>
@@ -4212,7 +4212,7 @@
         <v>45749</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H65" s="6">
         <v>5</v>
@@ -4221,7 +4221,7 @@
         <v>45762</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W65" s="6">
         <v>4.8</v>
@@ -4233,7 +4233,7 @@
         <v>45743</v>
       </c>
       <c r="Z65" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP65" s="6">
         <v>4</v>
@@ -4247,13 +4247,13 @@
         <v>2025</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E66" s="6">
         <v>3</v>
@@ -4262,7 +4262,7 @@
         <v>45749</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H66" s="6">
         <v>1</v>
@@ -4271,7 +4271,7 @@
         <v>45762</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W66" s="6">
         <v>2</v>
@@ -4283,7 +4283,7 @@
         <v>45743</v>
       </c>
       <c r="Z66" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP66" s="6">
         <v>4</v>
@@ -4297,22 +4297,22 @@
         <v>2025</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D67" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E67" s="6">
+        <v>4</v>
+      </c>
+      <c r="F67" s="9">
+        <v>45749</v>
+      </c>
+      <c r="G67" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="E67" s="6">
-        <v>4</v>
-      </c>
-      <c r="F67" s="9">
-        <v>45749</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>112</v>
       </c>
       <c r="H67" s="6">
         <v>1</v>
@@ -4321,7 +4321,7 @@
         <v>45762</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W67" s="6">
         <v>2.5</v>
@@ -4333,7 +4333,7 @@
         <v>45743</v>
       </c>
       <c r="Z67" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP67" s="6">
         <v>4.2</v>
@@ -4347,13 +4347,13 @@
         <v>2025</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E68" s="6">
         <v>3.6</v>
@@ -4362,7 +4362,7 @@
         <v>45749</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H68" s="6">
         <v>5</v>
@@ -4371,7 +4371,7 @@
         <v>45762</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W68" s="6">
         <v>4.3</v>
@@ -4383,7 +4383,7 @@
         <v>45743</v>
       </c>
       <c r="Z68" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP68" s="6">
         <v>4.2</v>
@@ -4397,13 +4397,13 @@
         <v>2025</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E69" s="6">
         <v>3.4</v>
@@ -4412,7 +4412,7 @@
         <v>45749</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H69" s="6">
         <v>4.3</v>
@@ -4421,7 +4421,7 @@
         <v>45762</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W69" s="6">
         <v>3.85</v>
@@ -4433,7 +4433,7 @@
         <v>45743</v>
       </c>
       <c r="Z69" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP69" s="6">
         <v>4</v>
@@ -4447,13 +4447,13 @@
         <v>2025</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E70" s="6">
         <v>1</v>
@@ -4462,7 +4462,7 @@
         <v>45749</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H70" s="6">
         <v>1</v>
@@ -4471,7 +4471,7 @@
         <v>45762</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W70" s="6">
         <v>1</v>
@@ -4483,7 +4483,7 @@
         <v>45743</v>
       </c>
       <c r="Z70" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP70" s="6">
         <v>4</v>
@@ -4497,22 +4497,22 @@
         <v>2025</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D71" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E71" s="6">
+        <v>5</v>
+      </c>
+      <c r="F71" s="9">
+        <v>45749</v>
+      </c>
+      <c r="G71" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="E71" s="6">
-        <v>5</v>
-      </c>
-      <c r="F71" s="9">
-        <v>45749</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>112</v>
       </c>
       <c r="H71" s="6">
         <v>1</v>
@@ -4521,7 +4521,7 @@
         <v>45762</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W71" s="6">
         <v>3</v>
@@ -4533,7 +4533,7 @@
         <v>45743</v>
       </c>
       <c r="Z71" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP71" s="6">
         <v>4.2</v>
@@ -4547,22 +4547,22 @@
         <v>2025</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D72" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E72" s="6">
+        <v>4</v>
+      </c>
+      <c r="F72" s="9">
+        <v>45749</v>
+      </c>
+      <c r="G72" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="E72" s="6">
-        <v>4</v>
-      </c>
-      <c r="F72" s="9">
-        <v>45749</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>112</v>
       </c>
       <c r="H72" s="6">
         <v>5</v>
@@ -4571,7 +4571,7 @@
         <v>45762</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W72" s="6">
         <v>4.5</v>
@@ -4583,7 +4583,7 @@
         <v>45743</v>
       </c>
       <c r="Z72" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP72" s="6">
         <v>4.4000000000000004</v>
@@ -4597,13 +4597,13 @@
         <v>2025</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E73" s="6">
         <v>1</v>
@@ -4612,7 +4612,7 @@
         <v>45749</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H73" s="6">
         <v>4</v>
@@ -4621,7 +4621,7 @@
         <v>45762</v>
       </c>
       <c r="J73" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W73" s="6">
         <v>2.5</v>
@@ -4633,7 +4633,7 @@
         <v>45743</v>
       </c>
       <c r="Z73" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP73" s="6">
         <v>4</v>
@@ -4647,13 +4647,13 @@
         <v>2025</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E74" s="6">
         <v>3</v>
@@ -4662,7 +4662,7 @@
         <v>45749</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H74" s="6">
         <v>1</v>
@@ -4671,7 +4671,7 @@
         <v>45762</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W74" s="6">
         <v>2</v>
@@ -4683,7 +4683,7 @@
         <v>45743</v>
       </c>
       <c r="Z74" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP74" s="6">
         <v>4</v>
@@ -4697,13 +4697,13 @@
         <v>2025</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E75" s="6">
         <v>4.4000000000000004</v>
@@ -4712,7 +4712,7 @@
         <v>45749</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H75" s="6">
         <v>1</v>
@@ -4721,7 +4721,7 @@
         <v>45762</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W75" s="6">
         <v>2.7</v>
@@ -4733,7 +4733,7 @@
         <v>45743</v>
       </c>
       <c r="Z75" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP75" s="6">
         <v>4</v>
@@ -4747,22 +4747,22 @@
         <v>2025</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D76" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E76" s="6">
+        <v>4</v>
+      </c>
+      <c r="F76" s="9">
+        <v>45749</v>
+      </c>
+      <c r="G76" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="E76" s="6">
-        <v>4</v>
-      </c>
-      <c r="F76" s="9">
-        <v>45749</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>112</v>
       </c>
       <c r="H76" s="6">
         <v>5</v>
@@ -4771,7 +4771,7 @@
         <v>45762</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W76" s="6">
         <v>4.5</v>
@@ -4783,7 +4783,7 @@
         <v>45743</v>
       </c>
       <c r="Z76" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP76" s="6">
         <v>3.6</v>
@@ -4797,13 +4797,13 @@
         <v>2025</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C77" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="E77" s="6">
         <v>3</v>
@@ -4812,7 +4812,7 @@
         <v>45749</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H77" s="6">
         <v>4.4000000000000004</v>
@@ -4821,7 +4821,7 @@
         <v>45768</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W77" s="6">
         <v>3.7</v>
@@ -4833,7 +4833,7 @@
         <v>45742</v>
       </c>
       <c r="Z77" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP77" s="6">
         <v>4.4000000000000004</v>
@@ -4847,13 +4847,13 @@
         <v>2025</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E78" s="6">
         <v>4.4000000000000004</v>
@@ -4862,7 +4862,7 @@
         <v>45749</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H78" s="6">
         <v>5</v>
@@ -4871,7 +4871,7 @@
         <v>45768</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W78" s="6">
         <v>4.7</v>
@@ -4883,7 +4883,7 @@
         <v>45742</v>
       </c>
       <c r="Z78" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP78" s="6">
         <v>4.4000000000000004</v>
@@ -4897,13 +4897,13 @@
         <v>2025</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E79" s="6">
         <v>4</v>
@@ -4912,7 +4912,7 @@
         <v>45749</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H79" s="6">
         <v>5</v>
@@ -4921,7 +4921,7 @@
         <v>45768</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W79" s="6">
         <v>4.5</v>
@@ -4930,7 +4930,7 @@
         <v>45742</v>
       </c>
       <c r="Z79" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AR79" s="6">
         <v>4.5</v>
@@ -4941,13 +4941,13 @@
         <v>2025</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E80" s="6">
         <v>4</v>
@@ -4956,13 +4956,13 @@
         <v>45749</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I80" s="9">
         <v>45768</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W80" s="6">
         <v>4</v>
@@ -4974,7 +4974,7 @@
         <v>45742</v>
       </c>
       <c r="Z80" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP80" s="6">
         <v>4</v>
@@ -4988,13 +4988,13 @@
         <v>2025</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E81" s="6">
         <v>3.6</v>
@@ -5003,7 +5003,7 @@
         <v>45749</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H81" s="6">
         <v>1</v>
@@ -5012,7 +5012,7 @@
         <v>45768</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W81" s="6">
         <v>2.2999999999999998</v>
@@ -5024,7 +5024,7 @@
         <v>45742</v>
       </c>
       <c r="Z81" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP81" s="6">
         <v>4.4000000000000004</v>
@@ -5038,13 +5038,13 @@
         <v>2025</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E82" s="6">
         <v>3.8</v>
@@ -5053,7 +5053,7 @@
         <v>45749</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H82" s="6">
         <v>5</v>
@@ -5062,7 +5062,7 @@
         <v>45768</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W82" s="6">
         <v>4.4000000000000004</v>
@@ -5074,7 +5074,7 @@
         <v>45742</v>
       </c>
       <c r="Z82" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP82" s="6">
         <v>4</v>
@@ -5088,13 +5088,13 @@
         <v>2025</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E83" s="6">
         <v>4.4000000000000004</v>
@@ -5103,7 +5103,7 @@
         <v>45749</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H83" s="6">
         <v>1</v>
@@ -5112,7 +5112,7 @@
         <v>45768</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W83" s="6">
         <v>2.7</v>
@@ -5124,7 +5124,7 @@
         <v>45742</v>
       </c>
       <c r="Z83" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP83" s="6">
         <v>3.4</v>
@@ -5138,13 +5138,13 @@
         <v>2025</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E84" s="6">
         <v>3.6</v>
@@ -5153,13 +5153,13 @@
         <v>45749</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I84" s="9">
         <v>45768</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W84" s="6">
         <v>3.6</v>
@@ -5168,7 +5168,7 @@
         <v>45742</v>
       </c>
       <c r="Z84" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AR84" s="6">
         <v>3.6</v>
@@ -5179,19 +5179,19 @@
         <v>2025</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F85" s="9">
         <v>45749</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H85" s="6">
         <v>5</v>
@@ -5200,7 +5200,7 @@
         <v>45768</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W85" s="6">
         <v>5</v>
@@ -5212,7 +5212,7 @@
         <v>45742</v>
       </c>
       <c r="Z85" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP85" s="6">
         <v>4.0999999999999996</v>
@@ -5226,13 +5226,13 @@
         <v>2025</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E86" s="6">
         <v>3.6</v>
@@ -5241,7 +5241,7 @@
         <v>45749</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H86" s="6">
         <v>1</v>
@@ -5250,7 +5250,7 @@
         <v>45768</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W86" s="6">
         <v>2.2999999999999998</v>
@@ -5262,7 +5262,7 @@
         <v>45742</v>
       </c>
       <c r="Z86" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP86" s="6">
         <v>4.0999999999999996</v>
@@ -5276,13 +5276,13 @@
         <v>2025</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E87" s="6">
         <v>4</v>
@@ -5291,7 +5291,7 @@
         <v>45749</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H87" s="6">
         <v>5</v>
@@ -5300,7 +5300,7 @@
         <v>45768</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W87" s="6">
         <v>4.5</v>
@@ -5312,7 +5312,7 @@
         <v>45742</v>
       </c>
       <c r="Z87" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP87" s="6">
         <v>4.0999999999999996</v>
@@ -5326,13 +5326,13 @@
         <v>2025</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E88" s="6">
         <v>4.4000000000000004</v>
@@ -5341,7 +5341,7 @@
         <v>45749</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H88" s="6">
         <v>5</v>
@@ -5350,7 +5350,7 @@
         <v>45768</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W88" s="6">
         <v>4.7</v>
@@ -5362,7 +5362,7 @@
         <v>45742</v>
       </c>
       <c r="Z88" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP88" s="6">
         <v>4.4000000000000004</v>
@@ -5376,13 +5376,13 @@
         <v>2025</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E89" s="6">
         <v>4.5999999999999996</v>
@@ -5391,7 +5391,7 @@
         <v>45749</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H89" s="6">
         <v>1</v>
@@ -5400,7 +5400,7 @@
         <v>45768</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W89" s="6">
         <v>2.8</v>
@@ -5412,7 +5412,7 @@
         <v>45742</v>
       </c>
       <c r="Z89" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP89" s="6">
         <v>3.4</v>
@@ -5426,13 +5426,13 @@
         <v>2025</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E90" s="6">
         <v>5</v>
@@ -5441,7 +5441,7 @@
         <v>45749</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H90" s="6">
         <v>5</v>
@@ -5450,7 +5450,7 @@
         <v>45768</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W90" s="6">
         <v>5</v>
@@ -5462,7 +5462,7 @@
         <v>45742</v>
       </c>
       <c r="Z90" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP90" s="6">
         <v>3.4</v>
@@ -5476,13 +5476,13 @@
         <v>2025</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E91" s="6">
         <v>3</v>
@@ -5491,7 +5491,7 @@
         <v>45749</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H91" s="6">
         <v>1</v>
@@ -5500,7 +5500,7 @@
         <v>45768</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W91" s="6">
         <v>2</v>
@@ -5512,7 +5512,7 @@
         <v>45742</v>
       </c>
       <c r="Z91" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP91" s="6">
         <v>4.0999999999999996</v>
@@ -5526,13 +5526,13 @@
         <v>2025</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E92" s="6">
         <v>3.6</v>
@@ -5541,7 +5541,7 @@
         <v>45749</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H92" s="6">
         <v>1</v>
@@ -5550,7 +5550,7 @@
         <v>45768</v>
       </c>
       <c r="J92" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W92" s="6">
         <v>2.2999999999999998</v>
@@ -5562,7 +5562,7 @@
         <v>45742</v>
       </c>
       <c r="Z92" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP92" s="6">
         <v>4</v>
@@ -5576,19 +5576,19 @@
         <v>2025</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F93" s="9">
         <v>45749</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H93" s="6">
         <v>5</v>
@@ -5597,7 +5597,7 @@
         <v>45768</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W93" s="6">
         <v>5</v>
@@ -5609,7 +5609,7 @@
         <v>45742</v>
       </c>
       <c r="Z93" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP93" s="6">
         <v>4</v>
@@ -5623,13 +5623,13 @@
         <v>2025</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E94" s="6">
         <v>3.6</v>
@@ -5638,7 +5638,7 @@
         <v>45749</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H94" s="6">
         <v>1</v>
@@ -5647,7 +5647,7 @@
         <v>45768</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W94" s="6">
         <v>2.2999999999999998</v>
@@ -5659,7 +5659,7 @@
         <v>45742</v>
       </c>
       <c r="Z94" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP94" s="6">
         <v>4.4000000000000004</v>
@@ -5673,31 +5673,31 @@
         <v>2025</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F95" s="9">
         <v>45749</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I95" s="9">
         <v>45768</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y95" s="9">
         <v>45742</v>
       </c>
       <c r="Z95" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="96" spans="1:44" x14ac:dyDescent="0.3">
@@ -5705,13 +5705,13 @@
         <v>2025</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E96" s="6">
         <v>5</v>
@@ -5720,7 +5720,7 @@
         <v>45749</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H96" s="6">
         <v>5</v>
@@ -5729,7 +5729,7 @@
         <v>45768</v>
       </c>
       <c r="J96" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W96" s="6">
         <v>5</v>
@@ -5741,7 +5741,7 @@
         <v>45742</v>
       </c>
       <c r="Z96" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP96" s="6">
         <v>4.4000000000000004</v>
@@ -5755,13 +5755,13 @@
         <v>2025</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E97" s="6">
         <v>4.5999999999999996</v>
@@ -5770,7 +5770,7 @@
         <v>45749</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H97" s="6">
         <v>5</v>
@@ -5779,7 +5779,7 @@
         <v>45768</v>
       </c>
       <c r="J97" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W97" s="6">
         <v>4.8</v>
@@ -5791,7 +5791,7 @@
         <v>45742</v>
       </c>
       <c r="Z97" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP97" s="6">
         <v>3.4</v>
@@ -5805,13 +5805,13 @@
         <v>2025</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C98" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D98" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>155</v>
       </c>
       <c r="E98" s="6">
         <v>4.5999999999999996</v>
@@ -5820,7 +5820,7 @@
         <v>45749</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H98" s="6">
         <v>5</v>
@@ -5829,7 +5829,7 @@
         <v>45768</v>
       </c>
       <c r="J98" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W98" s="6">
         <v>4.8</v>
@@ -5841,7 +5841,7 @@
         <v>45742</v>
       </c>
       <c r="Z98" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AP98" s="6">
         <v>4.2</v>
@@ -5855,13 +5855,13 @@
         <v>2025</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E99" s="6">
         <v>3.8</v>
@@ -5870,7 +5870,7 @@
         <v>45749</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H99" s="6">
         <v>5</v>
@@ -5879,7 +5879,7 @@
         <v>45768</v>
       </c>
       <c r="J99" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W99" s="6">
         <v>4.4000000000000004</v>
@@ -5891,7 +5891,7 @@
         <v>45742</v>
       </c>
       <c r="Z99" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AP99" s="6">
         <v>4.2</v>
@@ -5905,13 +5905,13 @@
         <v>2025</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E100" s="6">
         <v>3</v>
@@ -5920,13 +5920,13 @@
         <v>45749</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I100" s="9">
         <v>45768</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W100" s="6">
         <v>3</v>
@@ -5938,7 +5938,7 @@
         <v>45742</v>
       </c>
       <c r="Z100" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AP100" s="6">
         <v>4.2</v>
@@ -5952,13 +5952,13 @@
         <v>2025</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E101" s="6">
         <v>4</v>
@@ -5967,25 +5967,25 @@
         <v>45749</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I101" s="9">
         <v>45768</v>
       </c>
       <c r="J101" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="W101" s="6">
+        <v>4</v>
+      </c>
+      <c r="X101" s="6">
+        <v>4</v>
+      </c>
+      <c r="Y101" s="9">
+        <v>45742</v>
+      </c>
+      <c r="Z101" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="W101" s="6">
-        <v>4</v>
-      </c>
-      <c r="X101" s="6">
-        <v>4</v>
-      </c>
-      <c r="Y101" s="9">
-        <v>45742</v>
-      </c>
-      <c r="Z101" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="AP101" s="6">
         <v>4</v>
@@ -5999,13 +5999,13 @@
         <v>2025</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E102" s="6">
         <v>3</v>
@@ -6014,13 +6014,13 @@
         <v>45749</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I102" s="9">
         <v>45768</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W102" s="6">
         <v>3</v>
@@ -6032,7 +6032,7 @@
         <v>45742</v>
       </c>
       <c r="Z102" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AP102" s="6">
         <v>4.5999999999999996</v>
@@ -6046,13 +6046,13 @@
         <v>2025</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E103" s="6">
         <v>3.4</v>
@@ -6061,7 +6061,7 @@
         <v>45749</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H103" s="6">
         <v>5</v>
@@ -6070,7 +6070,7 @@
         <v>45768</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W103" s="6">
         <v>4.2</v>
@@ -6082,7 +6082,7 @@
         <v>45742</v>
       </c>
       <c r="Z103" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AP103" s="6">
         <v>4</v>
@@ -6096,13 +6096,13 @@
         <v>2025</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E104" s="6">
         <v>3</v>
@@ -6111,7 +6111,7 @@
         <v>45749</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H104" s="6">
         <v>1</v>
@@ -6120,7 +6120,7 @@
         <v>45768</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W104" s="6">
         <v>2</v>
@@ -6132,7 +6132,7 @@
         <v>45742</v>
       </c>
       <c r="Z104" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AP104" s="6">
         <v>3</v>
@@ -6146,13 +6146,13 @@
         <v>2025</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E105" s="6">
         <v>5</v>
@@ -6161,7 +6161,7 @@
         <v>45749</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H105" s="6">
         <v>1</v>
@@ -6170,7 +6170,7 @@
         <v>45768</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W105" s="6">
         <v>3</v>
@@ -6182,7 +6182,7 @@
         <v>45742</v>
       </c>
       <c r="Z105" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AP105" s="6">
         <v>4.2</v>
@@ -6196,13 +6196,13 @@
         <v>2025</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E106" s="6">
         <v>3</v>
@@ -6211,7 +6211,7 @@
         <v>45749</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H106" s="6">
         <v>5</v>
@@ -6220,19 +6220,19 @@
         <v>45768</v>
       </c>
       <c r="J106" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="W106" s="6">
+        <v>4</v>
+      </c>
+      <c r="X106" s="6">
+        <v>4</v>
+      </c>
+      <c r="Y106" s="9">
+        <v>45742</v>
+      </c>
+      <c r="Z106" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="W106" s="6">
-        <v>4</v>
-      </c>
-      <c r="X106" s="6">
-        <v>4</v>
-      </c>
-      <c r="Y106" s="9">
-        <v>45742</v>
-      </c>
-      <c r="Z106" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="AP106" s="6">
         <v>4</v>
@@ -6246,13 +6246,13 @@
         <v>2025</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E107" s="6">
         <v>4.2</v>
@@ -6261,7 +6261,7 @@
         <v>45749</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H107" s="6">
         <v>5</v>
@@ -6270,7 +6270,7 @@
         <v>45768</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W107" s="6">
         <v>4.5999999999999996</v>
@@ -6282,7 +6282,7 @@
         <v>45742</v>
       </c>
       <c r="Z107" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AP107" s="6">
         <v>4</v>
@@ -6296,13 +6296,13 @@
         <v>2025</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E108" s="6">
         <v>3.4</v>
@@ -6311,7 +6311,7 @@
         <v>45749</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H108" s="6">
         <v>1</v>
@@ -6320,7 +6320,7 @@
         <v>45768</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W108" s="6">
         <v>2.2000000000000002</v>
@@ -6332,7 +6332,7 @@
         <v>45742</v>
       </c>
       <c r="Z108" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AP108" s="6">
         <v>4</v>
@@ -6346,25 +6346,25 @@
         <v>2025</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F109" s="9">
         <v>45749</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I109" s="9">
         <v>45768</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X109" s="6">
         <v>2.8</v>
@@ -6373,7 +6373,7 @@
         <v>45742</v>
       </c>
       <c r="Z109" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AP109" s="6">
         <v>2.8</v>
@@ -6387,19 +6387,19 @@
         <v>2025</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F110" s="9">
         <v>45749</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H110" s="6">
         <v>1</v>
@@ -6408,7 +6408,7 @@
         <v>45768</v>
       </c>
       <c r="J110" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W110" s="6">
         <v>1</v>
@@ -6420,7 +6420,7 @@
         <v>45742</v>
       </c>
       <c r="Z110" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AP110" s="6">
         <v>4</v>
@@ -6434,13 +6434,13 @@
         <v>2025</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E111" s="6">
         <v>3.4</v>
@@ -6449,7 +6449,7 @@
         <v>45749</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H111" s="6">
         <v>5</v>
@@ -6458,7 +6458,7 @@
         <v>45768</v>
       </c>
       <c r="J111" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W111" s="6">
         <v>4.2</v>
@@ -6470,7 +6470,7 @@
         <v>45742</v>
       </c>
       <c r="Z111" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AP111" s="6">
         <v>4.2</v>
@@ -6484,13 +6484,13 @@
         <v>2025</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E112" s="6">
         <v>4</v>
@@ -6499,13 +6499,13 @@
         <v>45749</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I112" s="9">
         <v>45768</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W112" s="6">
         <v>4</v>
@@ -6517,7 +6517,7 @@
         <v>45742</v>
       </c>
       <c r="Z112" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AP112" s="6">
         <v>4.2</v>
@@ -6531,13 +6531,13 @@
         <v>2025</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E113" s="6">
         <v>3.4</v>
@@ -6546,7 +6546,7 @@
         <v>45749</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H113" s="6">
         <v>1</v>
@@ -6555,7 +6555,7 @@
         <v>45768</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W113" s="6">
         <v>2.2000000000000002</v>
@@ -6567,7 +6567,7 @@
         <v>45742</v>
       </c>
       <c r="Z113" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AP113" s="6">
         <v>4.2</v>
@@ -6581,13 +6581,13 @@
         <v>2025</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E114" s="6">
         <v>3</v>
@@ -6596,7 +6596,7 @@
         <v>45749</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H114" s="6">
         <v>4.2</v>
@@ -6605,7 +6605,7 @@
         <v>45768</v>
       </c>
       <c r="J114" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W114" s="6">
         <v>3.6</v>
@@ -6617,7 +6617,7 @@
         <v>45742</v>
       </c>
       <c r="Z114" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AP114" s="6">
         <v>4</v>
@@ -6631,13 +6631,13 @@
         <v>2025</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E115" s="6">
         <v>4.5999999999999996</v>
@@ -6646,7 +6646,7 @@
         <v>45749</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H115" s="6">
         <v>4.2</v>
@@ -6655,7 +6655,7 @@
         <v>45768</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W115" s="6">
         <v>4.4000000000000004</v>
@@ -6667,7 +6667,7 @@
         <v>45742</v>
       </c>
       <c r="Z115" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AP115" s="6">
         <v>4</v>
@@ -6681,13 +6681,13 @@
         <v>2025</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E116" s="6">
         <v>3.6</v>
@@ -6696,7 +6696,7 @@
         <v>45749</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H116" s="6">
         <v>4.2</v>
@@ -6705,7 +6705,7 @@
         <v>45768</v>
       </c>
       <c r="J116" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W116" s="6">
         <v>3.9</v>
@@ -6717,7 +6717,7 @@
         <v>45742</v>
       </c>
       <c r="Z116" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AP116" s="6">
         <v>4.2</v>
